--- a/MONEY.xlsx
+++ b/MONEY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elihermann/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elihermann/Documents/GitHub/Money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8DB176-F977-904F-B690-54903CB0A181}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D263A9A-C709-C043-BD6F-54D5A594B7D3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="27940" windowHeight="15840" xr2:uid="{D96C4238-3DB7-EB4A-9DC3-2C3F0638F275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
   <si>
     <t>f</t>
   </si>
@@ -271,13 +271,37 @@
   </si>
   <si>
     <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>JANUARY</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Category:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,8 +309,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +330,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -326,11 +363,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -343,6 +417,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11123299-33F5-9941-9C75-E88DF100DA22}">
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="110" workbookViewId="0">
-      <selection activeCell="P118" sqref="P118"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="110" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,11 +785,8 @@
       <c r="B3">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>631.64</v>
-      </c>
       <c r="J3">
-        <f>J2-C3+D3</f>
+        <f>J2-C3+G140</f>
         <v>4078.23</v>
       </c>
     </row>
@@ -712,15 +797,12 @@
       <c r="C4">
         <v>3.99</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4">
-        <f>IF(F4="f",C4,)</f>
+        <f>IF(L141="f",C4,)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>J3-C4+D4</f>
+        <f>J3-C4+G141</f>
         <v>4074.2400000000002</v>
       </c>
     </row>
@@ -731,18 +813,12 @@
       <c r="C5">
         <v>14.67</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <f>IF(F5="f",C5,)</f>
+        <f>IF(L142="f",C5,)</f>
         <v>14.67</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J68" si="0">J4-C5+D5</f>
+        <f>J4-C5+G142</f>
         <v>4059.57</v>
       </c>
     </row>
@@ -750,14 +826,8 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>36.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>J5-C6+G143</f>
         <v>4096.07</v>
       </c>
     </row>
@@ -765,11 +835,8 @@
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>0.35</v>
-      </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f>J6-C7+G144</f>
         <v>4096.42</v>
       </c>
     </row>
@@ -777,11 +844,8 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>0.17</v>
-      </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f>J7-C8+G145</f>
         <v>4096.59</v>
       </c>
     </row>
@@ -792,15 +856,12 @@
       <c r="C9">
         <v>43.75</v>
       </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <f t="shared" ref="H9:H25" si="1">IF(F9="f",C9,)</f>
+        <f>IF(L146="f",C9,)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f>J8-C9+G146</f>
         <v>4052.84</v>
       </c>
     </row>
@@ -811,15 +872,12 @@
       <c r="C10">
         <v>7.59</v>
       </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f>IF(L147="f",C10,)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f>J9-C10+G147</f>
         <v>4045.25</v>
       </c>
     </row>
@@ -830,15 +888,12 @@
       <c r="C11">
         <v>102.69</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f>IF(L148="f",C11,)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f>J10-C11+G148</f>
         <v>3942.56</v>
       </c>
     </row>
@@ -849,15 +904,12 @@
       <c r="C12">
         <v>0.35</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f>IF(L149="f",C12,)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f>J11-C12+G149</f>
         <v>3942.21</v>
       </c>
     </row>
@@ -868,15 +920,12 @@
       <c r="C13">
         <v>0.17</v>
       </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f>IF(L150="f",C13,)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f>J12-C13+G150</f>
         <v>3942.04</v>
       </c>
       <c r="K13" t="s">
@@ -890,15 +939,12 @@
       <c r="C14">
         <v>69.95</v>
       </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f>IF(L151="f",C14,)</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f>J13-C14+G151</f>
         <v>3872.09</v>
       </c>
       <c r="K14">
@@ -913,15 +959,12 @@
       <c r="C15">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f>IF(L152="f",C15,)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f>J14-C15+G152</f>
         <v>3830.09</v>
       </c>
     </row>
@@ -932,15 +975,12 @@
       <c r="C16">
         <v>87.75</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f>IF(L153="f",C16,)</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f>J15-C16+G153</f>
         <v>3742.34</v>
       </c>
       <c r="K16" t="s">
@@ -954,18 +994,12 @@
       <c r="C17">
         <v>20.49</v>
       </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f>IF(L154="f",C17,)</f>
         <v>20.49</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f>J16-C17+G154</f>
         <v>3721.8500000000004</v>
       </c>
       <c r="K17">
@@ -980,21 +1014,14 @@
       <c r="C18" s="1">
         <v>15.44</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(L155="f",C18,)</f>
         <v>15.44</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f>J17-C18+G155</f>
         <v>3706.4100000000003</v>
       </c>
     </row>
@@ -1005,18 +1032,12 @@
       <c r="C19">
         <v>11.6</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f>IF(L156="f",C19,)</f>
         <v>11.6</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f>J18-C19+G156</f>
         <v>3694.8100000000004</v>
       </c>
     </row>
@@ -1027,15 +1048,12 @@
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f>IF(L157="f",C20,)</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f>J19-C20+G157</f>
         <v>3690.8100000000004</v>
       </c>
     </row>
@@ -1046,15 +1064,12 @@
       <c r="C21">
         <v>22.86</v>
       </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f>IF(L158="f",C21,)</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f>J20-C21+G158</f>
         <v>3667.9500000000003</v>
       </c>
     </row>
@@ -1065,15 +1080,12 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f>IF(L159="f",C22,)</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f>J21-C22+G159</f>
         <v>3647.9500000000003</v>
       </c>
     </row>
@@ -1084,15 +1096,12 @@
       <c r="C23">
         <v>27.72</v>
       </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f>IF(L160="f",C23,)</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f>J22-C23+G160</f>
         <v>3620.2300000000005</v>
       </c>
       <c r="K23" t="s">
@@ -1106,15 +1115,12 @@
       <c r="C24">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f>IF(L161="f",C24,)</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f>J23-C24+G161</f>
         <v>3609.2300000000005</v>
       </c>
       <c r="K24">
@@ -1129,18 +1135,12 @@
       <c r="C25">
         <v>3.55</v>
       </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f>IF(L162="f",C25,)</f>
         <v>3.55</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f>J24-C25+G162</f>
         <v>3605.6800000000003</v>
       </c>
     </row>
@@ -1148,14 +1148,8 @@
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="D26">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f>J25-C26+G163</f>
         <v>3638.6800000000003</v>
       </c>
       <c r="K26" t="s">
@@ -1169,18 +1163,12 @@
       <c r="C27">
         <v>11.44</v>
       </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
       <c r="H27">
-        <f t="shared" ref="H27:H33" si="2">IF(F27="f",C27,)</f>
+        <f>IF(L164="f",C27,)</f>
         <v>11.44</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f>J26-C27+G164</f>
         <v>3627.2400000000002</v>
       </c>
       <c r="K27">
@@ -1195,21 +1183,14 @@
       <c r="C28" s="1">
         <v>10.63</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(L165="f",C28,)</f>
         <v>10.63</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f>J27-C28+G165</f>
         <v>3616.61</v>
       </c>
     </row>
@@ -1220,15 +1201,12 @@
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f>IF(L166="f",C29,)</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f>J28-C29+G166</f>
         <v>3608.61</v>
       </c>
     </row>
@@ -1239,15 +1217,12 @@
       <c r="C30">
         <v>3.07</v>
       </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f>IF(L167="f",C30,)</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f>J29-C30+G167</f>
         <v>3605.54</v>
       </c>
     </row>
@@ -1258,18 +1233,12 @@
       <c r="C31">
         <v>34.01</v>
       </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f>IF(L168="f",C31,)</f>
         <v>34.01</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f>J30-C31+G168</f>
         <v>3571.5299999999997</v>
       </c>
     </row>
@@ -1280,18 +1249,12 @@
       <c r="C32">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f>IF(L169="f",C32,)</f>
         <v>2.5499999999999998</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f>J31-C32+G169</f>
         <v>3568.9799999999996</v>
       </c>
     </row>
@@ -1302,18 +1265,12 @@
       <c r="C33">
         <v>4.04</v>
       </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f>IF(L170="f",C33,)</f>
         <v>4.04</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f>J32-C33+G170</f>
         <v>3564.9399999999996</v>
       </c>
     </row>
@@ -1321,14 +1278,8 @@
       <c r="B34">
         <v>23</v>
       </c>
-      <c r="D34">
-        <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f>J33-C34+G171</f>
         <v>3629.9399999999996</v>
       </c>
     </row>
@@ -1339,15 +1290,12 @@
       <c r="C35" s="8">
         <v>8.31</v>
       </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
       <c r="H35">
-        <f t="shared" ref="H35:H98" si="3">IF(F35="f",C35,)</f>
+        <f>IF(L172="f",C35,)</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f>J34-C35+G172</f>
         <v>3621.6299999999997</v>
       </c>
     </row>
@@ -1358,15 +1306,12 @@
       <c r="C36">
         <v>297.5</v>
       </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f>IF(L173="f",C36,)</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f>J35-C36+G173</f>
         <v>3324.1299999999997</v>
       </c>
     </row>
@@ -1377,15 +1322,12 @@
       <c r="C37">
         <v>4.3</v>
       </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f>IF(L174="f",C37,)</f>
         <v>4.3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f>J36-C37+G174</f>
         <v>3319.8299999999995</v>
       </c>
     </row>
@@ -1396,15 +1338,12 @@
       <c r="C38">
         <v>20.91</v>
       </c>
-      <c r="F38" t="s">
-        <v>1</v>
-      </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f>IF(L175="f",C38,)</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f>J37-C38+G175</f>
         <v>3298.9199999999996</v>
       </c>
       <c r="K38" t="s">
@@ -1418,15 +1357,12 @@
       <c r="C39">
         <v>20.64</v>
       </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f>IF(L176="f",C39,)</f>
         <v>20.64</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f>J38-C39+G176</f>
         <v>3278.2799999999997</v>
       </c>
       <c r="K39">
@@ -1442,15 +1378,12 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f>IF(L177="f",C40,)</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f>J39-C40+G177</f>
         <v>3273.2799999999997</v>
       </c>
     </row>
@@ -1461,15 +1394,12 @@
       <c r="C41">
         <v>10.39</v>
       </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f>IF(L178="f",C41,)</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f>J40-C41+G178</f>
         <v>3262.89</v>
       </c>
       <c r="K41" t="s">
@@ -1483,15 +1413,12 @@
       <c r="C42">
         <v>14.1</v>
       </c>
-      <c r="F42" t="s">
-        <v>1</v>
-      </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f>IF(L179="f",C42,)</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f>J41-C42+G179</f>
         <v>3248.79</v>
       </c>
       <c r="K42">
@@ -1506,19 +1433,14 @@
       <c r="C43" s="11">
         <v>5.99</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(L180="f",C43,)</f>
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f>J42-C43+G180</f>
         <v>3242.8</v>
       </c>
     </row>
@@ -1529,15 +1451,12 @@
       <c r="C44">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f>IF(L181="f",C44,)</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f>J43-C44+G181</f>
         <v>3228.8</v>
       </c>
     </row>
@@ -1548,15 +1467,12 @@
       <c r="C45">
         <v>5.75</v>
       </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f>IF(L182="f",C45,)</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f>J44-C45+G182</f>
         <v>3223.05</v>
       </c>
     </row>
@@ -1567,18 +1483,12 @@
       <c r="C46">
         <v>19.23</v>
       </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f>IF(L183="f",C46,)</f>
         <v>19.23</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f>J45-C46+G183</f>
         <v>3203.82</v>
       </c>
     </row>
@@ -1589,15 +1499,12 @@
       <c r="C47">
         <v>17.46</v>
       </c>
-      <c r="F47" t="s">
-        <v>21</v>
-      </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f>IF(L184="f",C47,)</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f>J46-C47+G184</f>
         <v>3186.36</v>
       </c>
     </row>
@@ -1608,15 +1515,12 @@
       <c r="C48" s="8">
         <v>3.11</v>
       </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f>IF(L185="f",C48,)</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f>J47-C48+G185</f>
         <v>3183.25</v>
       </c>
     </row>
@@ -1627,15 +1531,12 @@
       <c r="C49">
         <v>4.16</v>
       </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f>IF(L186="f",C49,)</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f>J48-C49+G186</f>
         <v>3179.09</v>
       </c>
       <c r="K49" t="s">
@@ -1649,18 +1550,12 @@
       <c r="C50">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s">
-        <v>0</v>
-      </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f>IF(L187="f",C50,)</f>
         <v>10</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f>J49-C50+G187</f>
         <v>3169.09</v>
       </c>
       <c r="K50">
@@ -1679,18 +1574,12 @@
       <c r="C51">
         <v>11.17</v>
       </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1</v>
-      </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f>IF(L188="f",C51,)</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f>J50-C51+G188</f>
         <v>3157.92</v>
       </c>
     </row>
@@ -1701,15 +1590,12 @@
       <c r="C52">
         <v>200</v>
       </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f>IF(L189="f",C52,)</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f>J51-C52+G189</f>
         <v>2957.92</v>
       </c>
       <c r="K52" t="s">
@@ -1723,15 +1609,12 @@
       <c r="C53">
         <v>200</v>
       </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f>IF(L190="f",C53,)</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f>J52-C53+G190</f>
         <v>2757.92</v>
       </c>
       <c r="K53">
@@ -1746,19 +1629,14 @@
       <c r="C54" s="11">
         <v>22.88</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(L191="f",C54,)</f>
         <v>0</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f t="shared" si="0"/>
+        <f>J53-C54+G191</f>
         <v>2735.04</v>
       </c>
     </row>
@@ -1769,18 +1647,12 @@
       <c r="C55">
         <v>14</v>
       </c>
-      <c r="E55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f>IF(L192="f",C55,)</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f>J54-C55+G192</f>
         <v>2721.04</v>
       </c>
     </row>
@@ -1791,18 +1663,12 @@
       <c r="C56">
         <v>35.590000000000003</v>
       </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>0</v>
-      </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f>IF(L193="f",C56,)</f>
         <v>35.590000000000003</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
+        <f>J55-C56+G193</f>
         <v>2685.45</v>
       </c>
     </row>
@@ -1813,15 +1679,12 @@
       <c r="C57">
         <v>6.93</v>
       </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f>IF(L194="f",C57,)</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
+        <f>J56-C57+G194</f>
         <v>2678.52</v>
       </c>
     </row>
@@ -1832,15 +1695,12 @@
       <c r="C58">
         <v>10.39</v>
       </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f>IF(L195="f",C58,)</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
+        <f>J57-C58+G195</f>
         <v>2668.13</v>
       </c>
     </row>
@@ -1851,15 +1711,12 @@
       <c r="C59">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f>IF(L196="f",C59,)</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
+        <f>J58-C59+G196</f>
         <v>2666.08</v>
       </c>
     </row>
@@ -1870,15 +1727,12 @@
       <c r="C60">
         <v>4.3</v>
       </c>
-      <c r="F60" t="s">
-        <v>0</v>
-      </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <f>IF(L197="f",C60,)</f>
         <v>4.3</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f>J59-C60+G197</f>
         <v>2661.7799999999997</v>
       </c>
     </row>
@@ -1886,18 +1740,12 @@
       <c r="B61">
         <v>8</v>
       </c>
-      <c r="D61">
-        <v>461</v>
-      </c>
-      <c r="F61" t="s">
-        <v>31</v>
-      </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f>IF(L198="f",C61,)</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
+        <f>J60-C61+G198</f>
         <v>3122.7799999999997</v>
       </c>
     </row>
@@ -1908,18 +1756,12 @@
       <c r="C62">
         <v>7.54</v>
       </c>
-      <c r="E62" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" t="s">
-        <v>0</v>
-      </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f>IF(L199="f",C62,)</f>
         <v>7.54</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
+        <f>J61-C62+G199</f>
         <v>3115.24</v>
       </c>
       <c r="K62" t="s">
@@ -1933,15 +1775,12 @@
       <c r="C63">
         <v>6</v>
       </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f>IF(L200="f",C63,)</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f>J62-C63+G200</f>
         <v>3109.24</v>
       </c>
       <c r="K63">
@@ -1956,18 +1795,12 @@
       <c r="C64">
         <v>5.58</v>
       </c>
-      <c r="E64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F64" t="s">
-        <v>0</v>
-      </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f>IF(L201="f",C64,)</f>
         <v>5.58</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
+        <f>J63-C64+G201</f>
         <v>3103.66</v>
       </c>
     </row>
@@ -1978,15 +1811,12 @@
       <c r="C65">
         <v>575</v>
       </c>
-      <c r="F65" t="s">
-        <v>26</v>
-      </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f>IF(L202="f",C65,)</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f>J64-C65+G202</f>
         <v>2528.66</v>
       </c>
       <c r="K65" t="s">
@@ -2000,18 +1830,12 @@
       <c r="C66">
         <v>34.47</v>
       </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" t="s">
-        <v>0</v>
-      </c>
       <c r="H66">
-        <f t="shared" si="3"/>
+        <f>IF(L203="f",C66,)</f>
         <v>34.47</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f>J65-C66+G203</f>
         <v>2494.19</v>
       </c>
       <c r="K66">
@@ -2026,21 +1850,14 @@
       <c r="C67" s="1">
         <v>5.56</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(L204="f",C67,)</f>
         <v>5.56</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
-        <f t="shared" si="0"/>
+        <f>J66-C67+G204</f>
         <v>2488.63</v>
       </c>
     </row>
@@ -2051,18 +1868,12 @@
       <c r="C68">
         <v>12.68</v>
       </c>
-      <c r="E68" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" t="s">
-        <v>0</v>
-      </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f>IF(L205="f",C68,)</f>
         <v>12.68</v>
       </c>
       <c r="J68">
-        <f t="shared" si="0"/>
+        <f>J67-C68+G205</f>
         <v>2475.9500000000003</v>
       </c>
     </row>
@@ -2073,15 +1884,12 @@
       <c r="C69">
         <v>5</v>
       </c>
-      <c r="F69" t="s">
-        <v>53</v>
-      </c>
       <c r="H69">
-        <f t="shared" si="3"/>
+        <f>IF(L206="f",C69,)</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J121" si="4">J68-C69+D69</f>
+        <f>J68-C69+G206</f>
         <v>2470.9500000000003</v>
       </c>
     </row>
@@ -2092,15 +1900,12 @@
       <c r="C70" s="8">
         <v>20.79</v>
       </c>
-      <c r="F70" t="s">
-        <v>54</v>
-      </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f>IF(L207="f",C70,)</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f>J69-C70+G207</f>
         <v>2450.1600000000003</v>
       </c>
     </row>
@@ -2111,15 +1916,12 @@
       <c r="C71">
         <v>8</v>
       </c>
-      <c r="F71" t="s">
-        <v>31</v>
-      </c>
       <c r="H71">
-        <f t="shared" si="3"/>
+        <f>IF(L208="f",C71,)</f>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f>J70-C71+G208</f>
         <v>2442.1600000000003</v>
       </c>
     </row>
@@ -2130,18 +1932,12 @@
       <c r="C72">
         <v>5.56</v>
       </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" t="s">
-        <v>0</v>
-      </c>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f>IF(L209="f",C72,)</f>
         <v>5.56</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f>J71-C72+G209</f>
         <v>2436.6000000000004</v>
       </c>
     </row>
@@ -2152,15 +1948,12 @@
       <c r="C73">
         <v>8.31</v>
       </c>
-      <c r="F73" t="s">
-        <v>53</v>
-      </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f>IF(L210="f",C73,)</f>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f>J72-C73+G210</f>
         <v>2428.2900000000004</v>
       </c>
       <c r="K73" t="s">
@@ -2174,18 +1967,12 @@
       <c r="C74">
         <v>6.12</v>
       </c>
-      <c r="E74" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" t="s">
-        <v>0</v>
-      </c>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f>IF(L211="f",C74,)</f>
         <v>6.12</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f>J73-C74+G211</f>
         <v>2422.1700000000005</v>
       </c>
       <c r="K74">
@@ -2200,18 +1987,12 @@
       <c r="C75">
         <v>15.04</v>
       </c>
-      <c r="E75" t="s">
-        <v>55</v>
-      </c>
-      <c r="F75" t="s">
-        <v>0</v>
-      </c>
       <c r="H75">
-        <f t="shared" si="3"/>
+        <f>IF(L212="f",C75,)</f>
         <v>15.04</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f>J74-C75+G212</f>
         <v>2407.1300000000006</v>
       </c>
     </row>
@@ -2222,15 +2003,12 @@
       <c r="C76">
         <v>12</v>
       </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
       <c r="H76">
-        <f t="shared" si="3"/>
+        <f>IF(L213="f",C76,)</f>
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f>J75-C76+G213</f>
         <v>2395.1300000000006</v>
       </c>
       <c r="K76" t="s">
@@ -2244,15 +2022,12 @@
       <c r="C77">
         <v>17.37</v>
       </c>
-      <c r="F77" t="s">
-        <v>31</v>
-      </c>
       <c r="H77">
-        <f t="shared" si="3"/>
+        <f>IF(L214="f",C77,)</f>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f>J76-C77+G214</f>
         <v>2377.7600000000007</v>
       </c>
       <c r="K77">
@@ -2267,19 +2042,14 @@
       <c r="C78" s="1">
         <v>24.52</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(L215="f",C78,)</f>
         <v>0</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f t="shared" si="4"/>
+        <f>J77-C78+G215</f>
         <v>2353.2400000000007</v>
       </c>
     </row>
@@ -2290,18 +2060,12 @@
       <c r="C79">
         <v>12.35</v>
       </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>0</v>
-      </c>
       <c r="H79">
-        <f t="shared" si="3"/>
+        <f>IF(L216="f",C79,)</f>
         <v>12.35</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f>J78-C79+G216</f>
         <v>2340.8900000000008</v>
       </c>
     </row>
@@ -2312,18 +2076,12 @@
       <c r="C80">
         <v>4.3</v>
       </c>
-      <c r="E80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" t="s">
-        <v>0</v>
-      </c>
       <c r="H80">
-        <f t="shared" si="3"/>
+        <f>IF(L217="f",C80,)</f>
         <v>4.3</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f>J79-C80+G217</f>
         <v>2336.5900000000006</v>
       </c>
     </row>
@@ -2334,18 +2092,12 @@
       <c r="C81">
         <v>14.1</v>
       </c>
-      <c r="E81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1</v>
-      </c>
       <c r="H81">
-        <f t="shared" si="3"/>
+        <f>IF(L218="f",C81,)</f>
         <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f>J80-C81+G218</f>
         <v>2322.4900000000007</v>
       </c>
     </row>
@@ -2356,18 +2108,12 @@
       <c r="C82">
         <v>8.99</v>
       </c>
-      <c r="E82" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1</v>
-      </c>
       <c r="H82">
-        <f t="shared" si="3"/>
+        <f>IF(L219="f",C82,)</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f>J81-C82+G219</f>
         <v>2313.5000000000009</v>
       </c>
     </row>
@@ -2378,15 +2124,12 @@
       <c r="C83">
         <v>11</v>
       </c>
-      <c r="F83" t="s">
-        <v>31</v>
-      </c>
       <c r="H83">
-        <f t="shared" si="3"/>
+        <f>IF(L220="f",C83,)</f>
         <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f>J82-C83+G220</f>
         <v>2302.5000000000009</v>
       </c>
     </row>
@@ -2397,18 +2140,12 @@
       <c r="C84">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E84" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
       <c r="H84">
-        <f t="shared" si="3"/>
+        <f>IF(L221="f",C84,)</f>
         <v>5.1100000000000003</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f>J83-C84+G221</f>
         <v>2297.3900000000008</v>
       </c>
     </row>
@@ -2419,15 +2156,12 @@
       <c r="C85">
         <v>9.49</v>
       </c>
-      <c r="F85" t="s">
-        <v>60</v>
-      </c>
       <c r="H85">
-        <f t="shared" si="3"/>
+        <f>IF(L222="f",C85,)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f>J84-C85+G222</f>
         <v>2287.900000000001</v>
       </c>
     </row>
@@ -2438,18 +2172,12 @@
       <c r="C86">
         <v>22.56</v>
       </c>
-      <c r="E86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" t="s">
-        <v>0</v>
-      </c>
       <c r="H86">
-        <f t="shared" si="3"/>
+        <f>IF(L223="f",C86,)</f>
         <v>22.56</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f>J85-C86+G223</f>
         <v>2265.3400000000011</v>
       </c>
     </row>
@@ -2460,15 +2188,12 @@
       <c r="C87" s="8">
         <v>4.16</v>
       </c>
-      <c r="F87" t="s">
-        <v>53</v>
-      </c>
       <c r="H87">
-        <f t="shared" si="3"/>
+        <f>IF(L224="f",C87,)</f>
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f>J86-C87+G224</f>
         <v>2261.1800000000012</v>
       </c>
     </row>
@@ -2479,15 +2204,12 @@
       <c r="C88">
         <v>15</v>
       </c>
-      <c r="F88" t="s">
-        <v>62</v>
-      </c>
       <c r="H88">
-        <f t="shared" si="3"/>
+        <f>IF(L225="f",C88,)</f>
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f>J87-C88+G225</f>
         <v>2246.1800000000012</v>
       </c>
     </row>
@@ -2498,15 +2220,12 @@
       <c r="C89">
         <v>5.38</v>
       </c>
-      <c r="F89" t="s">
-        <v>63</v>
-      </c>
       <c r="H89">
-        <f t="shared" si="3"/>
+        <f>IF(L226="f",C89,)</f>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f>J88-C89+G226</f>
         <v>2240.8000000000011</v>
       </c>
     </row>
@@ -2514,18 +2233,12 @@
       <c r="B90">
         <v>23</v>
       </c>
-      <c r="D90">
-        <v>0.04</v>
-      </c>
-      <c r="F90" t="s">
-        <v>64</v>
-      </c>
       <c r="H90">
-        <f t="shared" si="3"/>
+        <f>IF(L227="f",C90,)</f>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f>J89-C90+G227</f>
         <v>2240.8400000000011</v>
       </c>
     </row>
@@ -2533,18 +2246,12 @@
       <c r="B91">
         <v>23</v>
       </c>
-      <c r="D91">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>64</v>
-      </c>
       <c r="H91">
-        <f t="shared" si="3"/>
+        <f>IF(L228="f",C91,)</f>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f>J90-C91+G228</f>
         <v>2240.9100000000012</v>
       </c>
     </row>
@@ -2552,18 +2259,12 @@
       <c r="B92">
         <v>23</v>
       </c>
-      <c r="D92">
-        <v>57</v>
-      </c>
-      <c r="F92" t="s">
-        <v>64</v>
-      </c>
       <c r="H92">
-        <f t="shared" si="3"/>
+        <f>IF(L229="f",C92,)</f>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f>J91-C92+G229</f>
         <v>2297.9100000000012</v>
       </c>
       <c r="K92" t="s">
@@ -2577,15 +2278,12 @@
       <c r="C93" s="8">
         <v>8.9</v>
       </c>
-      <c r="F93" t="s">
-        <v>27</v>
-      </c>
       <c r="H93">
-        <f t="shared" si="3"/>
+        <f>IF(L230="f",C93,)</f>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f>J92-C93+G230</f>
         <v>2289.0100000000011</v>
       </c>
       <c r="K93">
@@ -2600,15 +2298,12 @@
       <c r="C94">
         <v>0.11</v>
       </c>
-      <c r="F94" t="s">
-        <v>64</v>
-      </c>
       <c r="H94">
-        <f t="shared" si="3"/>
+        <f>IF(L231="f",C94,)</f>
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f>J93-C94+G231</f>
         <v>2288.900000000001</v>
       </c>
     </row>
@@ -2619,21 +2314,14 @@
       <c r="C95" s="1">
         <v>4.84</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(L232="f",C95,)</f>
         <v>4.84</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1">
-        <f t="shared" si="4"/>
+        <f>J94-C95+G232</f>
         <v>2284.0600000000009</v>
       </c>
       <c r="M95" s="4">
@@ -2650,15 +2338,12 @@
       <c r="C96" s="3">
         <v>19.72</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H96">
-        <f t="shared" si="3"/>
+        <f>IF(L233="f",C96,)</f>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f>J95-C96+G233</f>
         <v>2264.3400000000011</v>
       </c>
       <c r="M96" s="4">
@@ -2668,22 +2353,19 @@
         <v>975</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>26</v>
       </c>
       <c r="C97" s="3">
         <v>58.81</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="H97">
-        <f t="shared" si="3"/>
+        <f>IF(L234="f",C97,)</f>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f>J96-C97+G234</f>
         <v>2205.5300000000011</v>
       </c>
       <c r="M97" s="4">
@@ -2694,109 +2376,88 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>26</v>
       </c>
       <c r="C98" s="3">
         <v>3.64</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H98">
-        <f t="shared" si="3"/>
+        <f>IF(L235="f",C98,)</f>
         <v>3.64</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f>J97-C98+G235</f>
         <v>2201.8900000000012</v>
       </c>
       <c r="M98" s="4">
         <v>43191</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N102" si="5">575/2</f>
+        <f t="shared" ref="N98:N102" si="0">575/2</f>
         <v>287.5</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>26</v>
       </c>
       <c r="C99" s="10">
         <v>10.39</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H99">
-        <f t="shared" ref="H99:H121" si="6">IF(F99="f",C99,)</f>
+        <f>IF(L236="f",C99,)</f>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f>J98-C99+G236</f>
         <v>2191.5000000000014</v>
       </c>
       <c r="M99" s="4">
         <v>43221</v>
       </c>
       <c r="N99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="D100">
-        <v>322.95999999999998</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H100">
-        <f t="shared" si="6"/>
+        <f>IF(L237="f",C100,)</f>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f>J99-C100+G237</f>
         <v>2514.4600000000014</v>
       </c>
       <c r="M100" s="4">
         <v>43252</v>
       </c>
       <c r="N100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
         <v>5.56</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f>IF(L238="f",C101,)</f>
         <v>5.56</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f>J100-C101+G238</f>
         <v>2508.9000000000015</v>
       </c>
       <c r="K101" t="s">
@@ -2806,30 +2467,25 @@
         <v>43282</v>
       </c>
       <c r="N101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5">
         <v>2</v>
       </c>
       <c r="C102" s="9">
         <v>12</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5">
-        <f t="shared" si="6"/>
+        <f>IF(L239="f",C102,)</f>
         <v>0</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
-        <f t="shared" si="4"/>
+        <f>J101-C102+G239</f>
         <v>2496.9000000000015</v>
       </c>
       <c r="K102">
@@ -2840,493 +2496,2086 @@
         <v>43313</v>
       </c>
       <c r="N102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>5</v>
       </c>
-      <c r="D103">
-        <v>406.74</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H103">
-        <f t="shared" si="6"/>
+        <f>IF(L240="f",C103,)</f>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f>J102-C103+G240</f>
         <v>2903.6400000000012</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
         <v>9.68</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H104">
-        <f t="shared" si="6"/>
+        <f>IF(L241="f",C104,)</f>
         <v>9.68</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f>J103-C104+G241</f>
         <v>2893.9600000000014</v>
       </c>
-      <c r="N104">
-        <f>SUM(N95:N102)</f>
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
         <v>5.92</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H105">
-        <f t="shared" si="6"/>
+        <f>IF(L242="f",C105,)</f>
         <v>5.92</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f>J104-C105+G242</f>
         <v>2888.0400000000013</v>
       </c>
-      <c r="O105">
-        <v>393.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106">
         <v>28.84</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H106">
-        <f t="shared" si="6"/>
+        <f>IF(L243="f",C106,)</f>
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f>J105-C106+G243</f>
         <v>2859.2000000000012</v>
       </c>
-      <c r="O106">
-        <v>127.61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>5</v>
       </c>
       <c r="C107" s="8">
         <v>5.58</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H107">
-        <f t="shared" si="6"/>
+        <f>IF(L244="f",C107,)</f>
         <v>5.58</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f>J106-C107+G244</f>
         <v>2853.6200000000013</v>
       </c>
-      <c r="O107">
-        <v>443.45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
         <v>38.17</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H108">
-        <f t="shared" si="6"/>
+        <f>IF(L245="f",C108,)</f>
         <v>38.17</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f>J107-C108+G245</f>
         <v>2815.4500000000012</v>
       </c>
-      <c r="O108">
-        <v>490.87</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
         <v>23</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H109">
-        <f t="shared" si="6"/>
+        <f>IF(L246="f",C109,)</f>
         <v>0</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f>J108-C109+G246</f>
         <v>2792.4500000000012</v>
       </c>
-      <c r="O109">
-        <v>724.73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110">
         <v>25.53</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H110">
-        <f t="shared" si="6"/>
+        <f>IF(L247="f",C110,)</f>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f>J109-C110+G247</f>
         <v>2766.920000000001</v>
       </c>
-      <c r="O110">
-        <v>116.43</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
         <v>7.5</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H111">
-        <f t="shared" si="6"/>
+        <f>IF(L248="f",C111,)</f>
         <v>7.5</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f>J110-C111+G248</f>
         <v>2759.420000000001</v>
       </c>
-      <c r="O111">
-        <v>145.97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112" s="7">
         <v>3.99</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="H112">
-        <f t="shared" si="6"/>
+        <f>IF(L249="f",C112,)</f>
         <v>0</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f>J111-C112+G249</f>
         <v>2755.4300000000012</v>
       </c>
-      <c r="O112">
-        <v>114.96</v>
-      </c>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>6</v>
       </c>
       <c r="C113">
         <v>6.33</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H113">
-        <f t="shared" si="6"/>
+        <f>IF(L250="f",C113,)</f>
         <v>6.33</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f>J112-C113+G250</f>
         <v>2749.1000000000013</v>
       </c>
-      <c r="O113">
-        <v>821.47</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>7</v>
       </c>
       <c r="C114">
         <v>20</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="H114">
-        <f t="shared" si="6"/>
+        <f>IF(L251="f",C114,)</f>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f>J113-C114+G251</f>
         <v>2729.1000000000013</v>
       </c>
-      <c r="P114">
-        <f>AVERAGE(O105:O113)</f>
-        <v>375.43222222222215</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>7</v>
       </c>
       <c r="C115">
         <v>30.46</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H115">
-        <f t="shared" si="6"/>
+        <f>IF(L252="f",C115,)</f>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f>J114-C115+G252</f>
         <v>2698.6400000000012</v>
       </c>
-      <c r="P115">
-        <f>10.85*13</f>
-        <v>141.04999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>8</v>
       </c>
       <c r="C116">
         <v>3.64</v>
       </c>
-      <c r="E116" t="s">
-        <v>51</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H116">
-        <f t="shared" si="6"/>
+        <f>IF(L253="f",C116,)</f>
         <v>3.64</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f>J115-C116+G253</f>
         <v>2695.0000000000014</v>
       </c>
-      <c r="P116">
-        <f>P114-P115</f>
-        <v>234.38222222222217</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>8</v>
       </c>
       <c r="C117">
         <v>575</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H117">
-        <f t="shared" si="6"/>
+        <f>IF(L254="f",C117,)</f>
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f>J116-C117+G254</f>
         <v>2120.0000000000014</v>
       </c>
-      <c r="P117">
-        <f>J121/P116</f>
-        <v>8.8836515852548619</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>9</v>
       </c>
       <c r="C118">
         <v>7.44</v>
       </c>
-      <c r="E118" t="s">
-        <v>78</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H118">
-        <f t="shared" si="6"/>
+        <f>IF(L255="f",C118,)</f>
         <v>7.44</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f>J117-C118+G255</f>
         <v>2112.5600000000013</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>9</v>
       </c>
       <c r="C119">
         <v>6</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H119">
-        <f t="shared" si="6"/>
+        <f>IF(L256="f",C119,)</f>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f>J118-C119+G256</f>
         <v>2106.5600000000013</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C120">
         <v>18.739999999999998</v>
       </c>
-      <c r="E120" t="s">
-        <v>79</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="H120">
-        <f t="shared" si="6"/>
+        <f>IF(L257="f",C120,)</f>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f>J119-C120+G257</f>
         <v>2087.8200000000015</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C121">
         <v>5.65</v>
       </c>
-      <c r="E121" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H121">
-        <f t="shared" si="6"/>
+        <f>IF(L258="f",C121,)</f>
         <v>5.65</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f>J120-C121+G258</f>
         <v>2082.1700000000014</v>
       </c>
       <c r="K121" t="s">
         <v>80</v>
       </c>
-      <c r="N121">
-        <f>J121/P114</f>
-        <v>5.5460609845245088</v>
-      </c>
-      <c r="P121">
-        <f>Q122/4</f>
-        <v>71.875</v>
-      </c>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K122">
         <f>SUM(C103:C121)</f>
         <v>821.47</v>
       </c>
-      <c r="P122">
-        <f>1475/17</f>
-        <v>86.764705882352942</v>
-      </c>
-      <c r="Q122">
-        <f>575/2</f>
-        <v>287.5</v>
-      </c>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="P123">
-        <f>975/25</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K124">
         <f>SUM(H103:H121)</f>
         <v>89.91</v>
       </c>
-      <c r="P124">
-        <f>P123+P122+P121</f>
-        <v>197.63970588235293</v>
-      </c>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="P125">
-        <f>P124+70</f>
-        <v>267.63970588235293</v>
-      </c>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="P126">
-        <f>P125/10.85</f>
-        <v>24.667253998373543</v>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K134" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>82</v>
+      </c>
+      <c r="G140">
+        <v>631.64</v>
+      </c>
+      <c r="H140" s="17">
+        <v>9</v>
+      </c>
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H141" s="17">
+        <v>9</v>
+      </c>
+      <c r="I141" s="12">
+        <v>3.99</v>
+      </c>
+      <c r="K141" t="s">
+        <v>85</v>
+      </c>
+      <c r="L141" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H142" s="17">
+        <v>9</v>
+      </c>
+      <c r="I142" s="12">
+        <v>14.67</v>
+      </c>
+      <c r="K142" t="s">
+        <v>86</v>
+      </c>
+      <c r="L142" t="s">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>36.5</v>
+      </c>
+      <c r="H143" s="17">
+        <v>10</v>
+      </c>
+      <c r="I143" s="12"/>
+      <c r="L143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>0.35</v>
+      </c>
+      <c r="H144" s="17">
+        <v>10</v>
+      </c>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>0.17</v>
+      </c>
+      <c r="H145" s="17">
+        <v>10</v>
+      </c>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H146" s="17">
+        <v>10</v>
+      </c>
+      <c r="I146" s="12">
+        <v>43.75</v>
+      </c>
+      <c r="K146" t="s">
+        <v>86</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H147" s="17">
+        <v>10</v>
+      </c>
+      <c r="I147" s="12">
+        <v>7.59</v>
+      </c>
+      <c r="K147" t="s">
+        <v>86</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H148" s="17">
+        <v>10</v>
+      </c>
+      <c r="I148" s="12">
+        <v>102.69</v>
+      </c>
+      <c r="K148" t="s">
+        <v>87</v>
+      </c>
+      <c r="L148" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H149" s="17">
+        <v>10</v>
+      </c>
+      <c r="I149" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="L149" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H150" s="17">
+        <v>10</v>
+      </c>
+      <c r="I150" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="L150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H151" s="17">
+        <v>11</v>
+      </c>
+      <c r="I151" s="12">
+        <v>69.95</v>
+      </c>
+      <c r="K151" t="s">
+        <v>87</v>
+      </c>
+      <c r="L151" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H152" s="17">
+        <v>11</v>
+      </c>
+      <c r="I152" s="12">
+        <v>42</v>
+      </c>
+      <c r="K152" t="s">
+        <v>87</v>
+      </c>
+      <c r="L152" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H153" s="17">
+        <v>11</v>
+      </c>
+      <c r="I153" s="12">
+        <v>87.75</v>
+      </c>
+      <c r="K153" t="s">
+        <v>87</v>
+      </c>
+      <c r="L153" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="17">
+        <v>11</v>
+      </c>
+      <c r="I154" s="12">
+        <v>20.49</v>
+      </c>
+      <c r="K154" t="s">
+        <v>86</v>
+      </c>
+      <c r="L154" t="s">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G155" s="1"/>
+      <c r="H155" s="18">
+        <v>16</v>
+      </c>
+      <c r="I155" s="13">
+        <v>15.44</v>
+      </c>
+      <c r="K155" t="s">
+        <v>86</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H156" s="17">
+        <v>16</v>
+      </c>
+      <c r="I156" s="12">
+        <v>11.6</v>
+      </c>
+      <c r="K156" t="s">
+        <v>86</v>
+      </c>
+      <c r="L156" t="s">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H157" s="17">
+        <v>16</v>
+      </c>
+      <c r="I157" s="12">
+        <v>4</v>
+      </c>
+      <c r="K157" t="s">
+        <v>88</v>
+      </c>
+      <c r="L157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H158" s="17">
+        <v>16</v>
+      </c>
+      <c r="I158" s="12">
+        <v>22.86</v>
+      </c>
+      <c r="K158" t="s">
+        <v>87</v>
+      </c>
+      <c r="L158" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H159" s="17">
+        <v>16</v>
+      </c>
+      <c r="I159" s="12">
+        <v>20</v>
+      </c>
+      <c r="K159" t="s">
+        <v>87</v>
+      </c>
+      <c r="L159" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H160" s="17">
+        <v>16</v>
+      </c>
+      <c r="I160" s="12">
+        <v>27.72</v>
+      </c>
+      <c r="K160" t="s">
+        <v>87</v>
+      </c>
+      <c r="L160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H161" s="17">
+        <v>16</v>
+      </c>
+      <c r="I161" s="12">
+        <v>11</v>
+      </c>
+      <c r="K161" t="s">
+        <v>85</v>
+      </c>
+      <c r="L161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H162" s="17">
+        <v>17</v>
+      </c>
+      <c r="I162" s="12">
+        <v>3.55</v>
+      </c>
+      <c r="K162" t="s">
+        <v>86</v>
+      </c>
+      <c r="L162" t="s">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>33</v>
+      </c>
+      <c r="H163" s="17">
+        <v>19</v>
+      </c>
+      <c r="I163" s="12"/>
+      <c r="L163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="17">
+        <v>19</v>
+      </c>
+      <c r="I164" s="12">
+        <v>11.44</v>
+      </c>
+      <c r="K164" t="s">
+        <v>86</v>
+      </c>
+      <c r="L164" t="s">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G165" s="1"/>
+      <c r="H165" s="18">
+        <v>22</v>
+      </c>
+      <c r="I165" s="13">
+        <v>10.63</v>
+      </c>
+      <c r="K165" t="s">
+        <v>86</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H166" s="17">
+        <v>22</v>
+      </c>
+      <c r="I166" s="12">
+        <v>8</v>
+      </c>
+      <c r="K166" t="s">
+        <v>85</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H167" s="17">
+        <v>22</v>
+      </c>
+      <c r="I167" s="12">
+        <v>3.07</v>
+      </c>
+      <c r="K167" t="s">
+        <v>86</v>
+      </c>
+      <c r="L167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H168" s="17">
+        <v>22</v>
+      </c>
+      <c r="I168" s="12">
+        <v>34.01</v>
+      </c>
+      <c r="K168" t="s">
+        <v>86</v>
+      </c>
+      <c r="L168" t="s">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H169" s="17">
+        <v>22</v>
+      </c>
+      <c r="I169" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K169" t="s">
+        <v>86</v>
+      </c>
+      <c r="L169" t="s">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H170" s="17">
+        <v>22</v>
+      </c>
+      <c r="I170" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="K170" t="s">
+        <v>86</v>
+      </c>
+      <c r="L170" t="s">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>65</v>
+      </c>
+      <c r="H171" s="17">
+        <v>23</v>
+      </c>
+      <c r="I171" s="12"/>
+      <c r="L171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H172" s="17">
+        <v>23</v>
+      </c>
+      <c r="I172" s="14">
+        <v>8.31</v>
+      </c>
+      <c r="K172" t="s">
+        <v>88</v>
+      </c>
+      <c r="L172" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H173" s="17">
+        <v>23</v>
+      </c>
+      <c r="I173" s="12">
+        <v>297.5</v>
+      </c>
+      <c r="K173" t="s">
+        <v>26</v>
+      </c>
+      <c r="L173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H174" s="17">
+        <v>24</v>
+      </c>
+      <c r="I174" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="K174" t="s">
+        <v>86</v>
+      </c>
+      <c r="L174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H175" s="17">
+        <v>24</v>
+      </c>
+      <c r="I175" s="12">
+        <v>20.91</v>
+      </c>
+      <c r="K175" t="s">
+        <v>86</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H176" s="17">
+        <v>25</v>
+      </c>
+      <c r="I176" s="12">
+        <v>20.64</v>
+      </c>
+      <c r="K176" t="s">
+        <v>86</v>
+      </c>
+      <c r="L176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H177" s="17">
+        <v>26</v>
+      </c>
+      <c r="I177" s="12">
+        <v>5</v>
+      </c>
+      <c r="K177" t="s">
+        <v>85</v>
+      </c>
+      <c r="L177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H178" s="17">
+        <v>26</v>
+      </c>
+      <c r="I178" s="12">
+        <v>10.39</v>
+      </c>
+      <c r="K178" t="s">
+        <v>88</v>
+      </c>
+      <c r="L178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="17">
+        <v>26</v>
+      </c>
+      <c r="I179" s="12">
+        <v>14.1</v>
+      </c>
+      <c r="K179" t="s">
+        <v>86</v>
+      </c>
+      <c r="L179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G180" s="1"/>
+      <c r="H180" s="18">
+        <v>29</v>
+      </c>
+      <c r="I180" s="15">
+        <v>5.99</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H181" s="17">
+        <v>29</v>
+      </c>
+      <c r="I181" s="12">
+        <v>14</v>
+      </c>
+      <c r="K181" t="s">
+        <v>87</v>
+      </c>
+      <c r="L181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H182" s="17">
+        <v>29</v>
+      </c>
+      <c r="I182" s="12">
+        <v>5.75</v>
+      </c>
+      <c r="K182" t="s">
+        <v>87</v>
+      </c>
+      <c r="L182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H183" s="17">
+        <v>29</v>
+      </c>
+      <c r="I183" s="12">
+        <v>19.23</v>
+      </c>
+      <c r="K183" t="s">
+        <v>86</v>
+      </c>
+      <c r="L183" t="s">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H184" s="17">
+        <v>29</v>
+      </c>
+      <c r="I184" s="12">
+        <v>17.46</v>
+      </c>
+      <c r="K184" t="s">
+        <v>87</v>
+      </c>
+      <c r="L184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H185" s="17">
+        <v>30</v>
+      </c>
+      <c r="I185" s="14">
+        <v>3.11</v>
+      </c>
+      <c r="L185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H186" s="17">
+        <v>30</v>
+      </c>
+      <c r="I186" s="12">
+        <v>4.16</v>
+      </c>
+      <c r="K186" t="s">
+        <v>85</v>
+      </c>
+      <c r="L186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H187" s="17">
+        <v>31</v>
+      </c>
+      <c r="I187" s="12">
+        <v>10</v>
+      </c>
+      <c r="K187" t="s">
+        <v>86</v>
+      </c>
+      <c r="L187" t="s">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>83</v>
+      </c>
+      <c r="H188" s="17">
+        <v>1</v>
+      </c>
+      <c r="I188" s="12">
+        <v>11.17</v>
+      </c>
+      <c r="K188" t="s">
+        <v>86</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H189" s="17">
+        <v>1</v>
+      </c>
+      <c r="I189" s="12">
+        <v>200</v>
+      </c>
+      <c r="K189" t="s">
+        <v>26</v>
+      </c>
+      <c r="L189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="17">
+        <v>1</v>
+      </c>
+      <c r="I190" s="12">
+        <v>200</v>
+      </c>
+      <c r="K190" t="s">
+        <v>26</v>
+      </c>
+      <c r="L190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G191" s="1"/>
+      <c r="H191" s="18">
+        <v>5</v>
+      </c>
+      <c r="I191" s="15">
+        <v>22.88</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H192" s="17">
+        <v>5</v>
+      </c>
+      <c r="I192" s="12">
+        <v>14</v>
+      </c>
+      <c r="K192" t="s">
+        <v>85</v>
+      </c>
+      <c r="L192" t="s">
+        <v>14</v>
+      </c>
+      <c r="N192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H193" s="17">
+        <v>5</v>
+      </c>
+      <c r="I193" s="12">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="K193" t="s">
+        <v>86</v>
+      </c>
+      <c r="L193" t="s">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H194" s="17">
+        <v>6</v>
+      </c>
+      <c r="I194" s="12">
+        <v>6.93</v>
+      </c>
+      <c r="K194" t="s">
+        <v>85</v>
+      </c>
+      <c r="L194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H195" s="17">
+        <v>6</v>
+      </c>
+      <c r="I195" s="12">
+        <v>10.39</v>
+      </c>
+      <c r="K195" t="s">
+        <v>85</v>
+      </c>
+      <c r="L195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H196" s="17">
+        <v>7</v>
+      </c>
+      <c r="I196" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K196" t="s">
+        <v>86</v>
+      </c>
+      <c r="L196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H197" s="17">
+        <v>7</v>
+      </c>
+      <c r="I197" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="K197" t="s">
+        <v>86</v>
+      </c>
+      <c r="L197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <v>461</v>
+      </c>
+      <c r="H198" s="17">
+        <v>8</v>
+      </c>
+      <c r="I198" s="12"/>
+      <c r="L198" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H199" s="17">
+        <v>8</v>
+      </c>
+      <c r="I199" s="12">
+        <v>7.54</v>
+      </c>
+      <c r="K199" t="s">
+        <v>86</v>
+      </c>
+      <c r="L199" t="s">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H200" s="17">
+        <v>8</v>
+      </c>
+      <c r="I200" s="12">
+        <v>6</v>
+      </c>
+      <c r="K200" t="s">
+        <v>87</v>
+      </c>
+      <c r="L200" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H201" s="17">
+        <v>8</v>
+      </c>
+      <c r="I201" s="12">
+        <v>5.58</v>
+      </c>
+      <c r="K201" t="s">
+        <v>86</v>
+      </c>
+      <c r="L201" t="s">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H202" s="17">
+        <v>8</v>
+      </c>
+      <c r="I202" s="12">
+        <v>575</v>
+      </c>
+      <c r="K202" t="s">
+        <v>26</v>
+      </c>
+      <c r="L202" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="17">
+        <v>9</v>
+      </c>
+      <c r="I203" s="12">
+        <v>34.47</v>
+      </c>
+      <c r="K203" t="s">
+        <v>86</v>
+      </c>
+      <c r="L203" t="s">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G204" s="1"/>
+      <c r="H204" s="18">
+        <v>12</v>
+      </c>
+      <c r="I204" s="13">
+        <v>5.56</v>
+      </c>
+      <c r="K204" t="s">
+        <v>86</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H205" s="17">
+        <v>12</v>
+      </c>
+      <c r="I205" s="12">
+        <v>12.68</v>
+      </c>
+      <c r="K205" t="s">
+        <v>86</v>
+      </c>
+      <c r="L205" t="s">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H206" s="17">
+        <v>12</v>
+      </c>
+      <c r="I206" s="12">
+        <v>5</v>
+      </c>
+      <c r="K206" t="s">
+        <v>85</v>
+      </c>
+      <c r="L206" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H207" s="17">
+        <v>12</v>
+      </c>
+      <c r="I207" s="14">
+        <v>20.79</v>
+      </c>
+      <c r="L207" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H208" s="17">
+        <v>13</v>
+      </c>
+      <c r="I208" s="12">
+        <v>8</v>
+      </c>
+      <c r="L208" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H209" s="17">
+        <v>15</v>
+      </c>
+      <c r="I209" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="K209" t="s">
+        <v>86</v>
+      </c>
+      <c r="L209" t="s">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H210" s="17">
+        <v>15</v>
+      </c>
+      <c r="I210" s="12">
+        <v>8.31</v>
+      </c>
+      <c r="K210" t="s">
+        <v>88</v>
+      </c>
+      <c r="L210" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H211" s="17">
+        <v>15</v>
+      </c>
+      <c r="I211" s="12">
+        <v>6.12</v>
+      </c>
+      <c r="K211" t="s">
+        <v>86</v>
+      </c>
+      <c r="L211" t="s">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H212" s="17">
+        <v>15</v>
+      </c>
+      <c r="I212" s="12">
+        <v>15.04</v>
+      </c>
+      <c r="K212" t="s">
+        <v>86</v>
+      </c>
+      <c r="L212" t="s">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H213" s="17">
+        <v>15</v>
+      </c>
+      <c r="I213" s="12">
+        <v>12</v>
+      </c>
+      <c r="K213" t="s">
+        <v>85</v>
+      </c>
+      <c r="L213" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H214" s="17">
+        <v>16</v>
+      </c>
+      <c r="I214" s="12">
+        <v>17.37</v>
+      </c>
+      <c r="L214" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G215" s="1"/>
+      <c r="H215" s="18">
+        <v>20</v>
+      </c>
+      <c r="I215" s="13">
+        <v>24.52</v>
+      </c>
+      <c r="K215" t="s">
+        <v>87</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H216" s="17">
+        <v>20</v>
+      </c>
+      <c r="I216" s="12">
+        <v>12.35</v>
+      </c>
+      <c r="K216" t="s">
+        <v>86</v>
+      </c>
+      <c r="L216" t="s">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H217" s="17">
+        <v>20</v>
+      </c>
+      <c r="I217" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="K217" t="s">
+        <v>86</v>
+      </c>
+      <c r="L217" t="s">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H218" s="17">
+        <v>20</v>
+      </c>
+      <c r="I218" s="12">
+        <v>14.1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>86</v>
+      </c>
+      <c r="L218" t="s">
+        <v>1</v>
+      </c>
+      <c r="N218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H219" s="17">
+        <v>20</v>
+      </c>
+      <c r="I219" s="12">
+        <v>8.99</v>
+      </c>
+      <c r="K219" t="s">
+        <v>86</v>
+      </c>
+      <c r="L219" t="s">
+        <v>1</v>
+      </c>
+      <c r="N219" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="220" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H220" s="17">
+        <v>20</v>
+      </c>
+      <c r="I220" s="12">
+        <v>11</v>
+      </c>
+      <c r="L220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H221" s="17">
+        <v>21</v>
+      </c>
+      <c r="I221" s="12">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K221" t="s">
+        <v>86</v>
+      </c>
+      <c r="L221" t="s">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H222" s="17">
+        <v>21</v>
+      </c>
+      <c r="I222" s="12">
+        <v>9.49</v>
+      </c>
+      <c r="K222" t="s">
+        <v>85</v>
+      </c>
+      <c r="L222" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H223" s="17">
+        <v>21</v>
+      </c>
+      <c r="I223" s="12">
+        <v>22.56</v>
+      </c>
+      <c r="K223" t="s">
+        <v>86</v>
+      </c>
+      <c r="L223" t="s">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H224" s="17">
+        <v>21</v>
+      </c>
+      <c r="I224" s="14">
+        <v>4.16</v>
+      </c>
+      <c r="K224" t="s">
+        <v>86</v>
+      </c>
+      <c r="L224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H225" s="17">
+        <v>21</v>
+      </c>
+      <c r="I225" s="12">
+        <v>15</v>
+      </c>
+      <c r="K225" t="s">
+        <v>85</v>
+      </c>
+      <c r="L225" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H226" s="17">
+        <v>22</v>
+      </c>
+      <c r="I226" s="12">
+        <v>5.38</v>
+      </c>
+      <c r="K226" t="s">
+        <v>85</v>
+      </c>
+      <c r="L226" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <v>0.04</v>
+      </c>
+      <c r="H227" s="17">
+        <v>23</v>
+      </c>
+      <c r="I227" s="12"/>
+      <c r="L227" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G228">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H228" s="17">
+        <v>23</v>
+      </c>
+      <c r="I228" s="12"/>
+      <c r="L228" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G229">
+        <v>57</v>
+      </c>
+      <c r="H229" s="17">
+        <v>23</v>
+      </c>
+      <c r="I229" s="12"/>
+      <c r="L229" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H230" s="17">
+        <v>23</v>
+      </c>
+      <c r="I230" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="K230" t="s">
+        <v>88</v>
+      </c>
+      <c r="L230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H231" s="17">
+        <v>23</v>
+      </c>
+      <c r="I231" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="L231" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G232" s="1"/>
+      <c r="H232" s="18">
+        <v>26</v>
+      </c>
+      <c r="I232" s="13">
+        <v>4.84</v>
+      </c>
+      <c r="K232" t="s">
+        <v>86</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H233" s="17">
+        <v>26</v>
+      </c>
+      <c r="I233" s="12">
+        <v>19.72</v>
+      </c>
+      <c r="K233" t="s">
+        <v>85</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H234" s="17">
+        <v>26</v>
+      </c>
+      <c r="I234" s="12">
+        <v>58.81</v>
+      </c>
+      <c r="K234" t="s">
+        <v>86</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H235" s="17">
+        <v>26</v>
+      </c>
+      <c r="I235" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="K235" t="s">
+        <v>86</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H236" s="17">
+        <v>26</v>
+      </c>
+      <c r="I236" s="14">
+        <v>10.39</v>
+      </c>
+      <c r="K236" t="s">
+        <v>88</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>84</v>
+      </c>
+      <c r="G237">
+        <v>322.95999999999998</v>
+      </c>
+      <c r="H237" s="17">
+        <v>1</v>
+      </c>
+      <c r="I237" s="12"/>
+      <c r="L237" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H238" s="17">
+        <v>1</v>
+      </c>
+      <c r="I238" s="12">
+        <v>5.56</v>
+      </c>
+      <c r="K238" t="s">
+        <v>86</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="5"/>
+      <c r="H239" s="19">
+        <v>2</v>
+      </c>
+      <c r="I239" s="16">
+        <v>12</v>
+      </c>
+      <c r="K239" t="s">
+        <v>88</v>
+      </c>
+      <c r="L239" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N239" s="5"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <v>406.74</v>
+      </c>
+      <c r="H240" s="17">
+        <v>5</v>
+      </c>
+      <c r="I240" s="12"/>
+      <c r="L240" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H241" s="17">
+        <v>5</v>
+      </c>
+      <c r="I241" s="12">
+        <v>9.68</v>
+      </c>
+      <c r="K241" t="s">
+        <v>86</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="242" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H242" s="17">
+        <v>5</v>
+      </c>
+      <c r="I242" s="12">
+        <v>5.92</v>
+      </c>
+      <c r="K242" t="s">
+        <v>86</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H243" s="17">
+        <v>5</v>
+      </c>
+      <c r="I243" s="12">
+        <v>28.84</v>
+      </c>
+      <c r="K243" t="s">
+        <v>87</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="244" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H244" s="17">
+        <v>5</v>
+      </c>
+      <c r="I244" s="14">
+        <v>5.58</v>
+      </c>
+      <c r="K244" t="s">
+        <v>86</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="245" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H245" s="17">
+        <v>5</v>
+      </c>
+      <c r="I245" s="12">
+        <v>38.17</v>
+      </c>
+      <c r="K245" t="s">
+        <v>86</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H246" s="17">
+        <v>5</v>
+      </c>
+      <c r="I246" s="12">
+        <v>23</v>
+      </c>
+      <c r="K246" t="s">
+        <v>87</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H247" s="17">
+        <v>5</v>
+      </c>
+      <c r="I247" s="12">
+        <v>25.53</v>
+      </c>
+      <c r="K247" t="s">
+        <v>87</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H248" s="17">
+        <v>5</v>
+      </c>
+      <c r="I248" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="K248" t="s">
+        <v>86</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H249" s="17">
+        <v>5</v>
+      </c>
+      <c r="I249" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="250" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H250" s="17">
+        <v>6</v>
+      </c>
+      <c r="I250" s="12">
+        <v>6.33</v>
+      </c>
+      <c r="K250" t="s">
+        <v>86</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H251" s="17">
+        <v>7</v>
+      </c>
+      <c r="I251" s="12">
+        <v>20</v>
+      </c>
+      <c r="K251" t="s">
+        <v>86</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H252" s="17">
+        <v>7</v>
+      </c>
+      <c r="I252" s="12">
+        <v>30.46</v>
+      </c>
+      <c r="K252" t="s">
+        <v>87</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H253" s="17">
+        <v>8</v>
+      </c>
+      <c r="I253" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="K253" t="s">
+        <v>86</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H254" s="17">
+        <v>8</v>
+      </c>
+      <c r="I254" s="12">
+        <v>575</v>
+      </c>
+      <c r="K254" t="s">
+        <v>26</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H255" s="17">
+        <v>9</v>
+      </c>
+      <c r="I255" s="12">
+        <v>7.44</v>
+      </c>
+      <c r="K255" t="s">
+        <v>86</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H256" s="17">
+        <v>9</v>
+      </c>
+      <c r="I256" s="12">
+        <v>6</v>
+      </c>
+      <c r="K256" t="s">
+        <v>87</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="257" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H257" s="17"/>
+      <c r="I257" s="12">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="K257" t="s">
+        <v>86</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N257" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H258" s="17"/>
+      <c r="I258" s="12">
+        <v>5.65</v>
+      </c>
+      <c r="K258" t="s">
+        <v>86</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/MONEY.xlsx
+++ b/MONEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elihermann/Documents/GitHub/Money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D263A9A-C709-C043-BD6F-54D5A594B7D3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E1347-124D-A941-B61D-C7C41DA85E9A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="27940" windowHeight="15840" xr2:uid="{D96C4238-3DB7-EB4A-9DC3-2C3F0638F275}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -295,6 +289,15 @@
   </si>
   <si>
     <t>Category:</t>
+  </si>
+  <si>
+    <t>eat out</t>
+  </si>
+  <si>
+    <t>ice skating date</t>
+  </si>
+  <si>
+    <t>detail</t>
   </si>
 </sst>
 </file>
@@ -747,30 +750,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11123299-33F5-9941-9C75-E88DF100DA22}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="110" workbookViewId="0">
-      <selection activeCell="L138" sqref="L138"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="110" workbookViewId="0">
+      <selection activeCell="M135" sqref="M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -780,13 +783,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="J3">
-        <f>J2-C3+G140</f>
+        <f t="shared" ref="J3:J34" si="0">J2-C3+G140</f>
         <v>4078.23</v>
       </c>
     </row>
@@ -798,11 +801,11 @@
         <v>3.99</v>
       </c>
       <c r="H4">
-        <f>IF(L141="f",C4,)</f>
+        <f>IF(M141="f",C4,)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>J3-C4+G141</f>
+        <f t="shared" si="0"/>
         <v>4074.2400000000002</v>
       </c>
     </row>
@@ -813,12 +816,12 @@
       <c r="C5">
         <v>14.67</v>
       </c>
-      <c r="H5">
-        <f>IF(L142="f",C5,)</f>
-        <v>14.67</v>
+      <c r="H5" t="e">
+        <f>IF(#REF!="f",C5,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J5">
-        <f>J4-C5+G142</f>
+        <f t="shared" si="0"/>
         <v>4059.57</v>
       </c>
     </row>
@@ -827,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f>J5-C6+G143</f>
+        <f t="shared" si="0"/>
         <v>4096.07</v>
       </c>
     </row>
@@ -836,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <f>J6-C7+G144</f>
+        <f t="shared" si="0"/>
         <v>4096.42</v>
       </c>
     </row>
@@ -845,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f>J7-C8+G145</f>
+        <f t="shared" si="0"/>
         <v>4096.59</v>
       </c>
     </row>
@@ -857,11 +860,11 @@
         <v>43.75</v>
       </c>
       <c r="H9">
-        <f>IF(L146="f",C9,)</f>
+        <f>IF(M146="f",C9,)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>J8-C9+G146</f>
+        <f t="shared" si="0"/>
         <v>4052.84</v>
       </c>
     </row>
@@ -873,11 +876,11 @@
         <v>7.59</v>
       </c>
       <c r="H10">
-        <f>IF(L147="f",C10,)</f>
+        <f>IF(M147="f",C10,)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>J9-C10+G147</f>
+        <f t="shared" si="0"/>
         <v>4045.25</v>
       </c>
     </row>
@@ -889,11 +892,11 @@
         <v>102.69</v>
       </c>
       <c r="H11">
-        <f>IF(L148="f",C11,)</f>
+        <f>IF(M148="f",C11,)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>J10-C11+G148</f>
+        <f t="shared" si="0"/>
         <v>3942.56</v>
       </c>
     </row>
@@ -905,11 +908,11 @@
         <v>0.35</v>
       </c>
       <c r="H12">
-        <f>IF(L149="f",C12,)</f>
+        <f>IF(M149="f",C12,)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>J11-C12+G149</f>
+        <f t="shared" si="0"/>
         <v>3942.21</v>
       </c>
     </row>
@@ -921,15 +924,15 @@
         <v>0.17</v>
       </c>
       <c r="H13">
-        <f>IF(L150="f",C13,)</f>
+        <f>IF(M150="f",C13,)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>J12-C13+G150</f>
+        <f t="shared" si="0"/>
         <v>3942.04</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -940,16 +943,16 @@
         <v>69.95</v>
       </c>
       <c r="H14">
-        <f>IF(L151="f",C14,)</f>
+        <f>IF(M151="f",C14,)</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>J13-C14+G151</f>
+        <f t="shared" si="0"/>
         <v>3872.09</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="e">
         <f>SUM(H3:H17)</f>
-        <v>35.159999999999997</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -960,11 +963,11 @@
         <v>42</v>
       </c>
       <c r="H15">
-        <f>IF(L152="f",C15,)</f>
+        <f>IF(M152="f",C15,)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>J14-C15+G152</f>
+        <f t="shared" si="0"/>
         <v>3830.09</v>
       </c>
     </row>
@@ -976,15 +979,15 @@
         <v>87.75</v>
       </c>
       <c r="H16">
-        <f>IF(L153="f",C16,)</f>
+        <f>IF(M153="f",C16,)</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>J15-C16+G153</f>
+        <f t="shared" si="0"/>
         <v>3742.34</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -994,12 +997,12 @@
       <c r="C17">
         <v>20.49</v>
       </c>
-      <c r="H17">
-        <f>IF(L154="f",C17,)</f>
-        <v>20.49</v>
+      <c r="H17" t="e">
+        <f>IF(#REF!="f",C17,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J17">
-        <f>J16-C17+G154</f>
+        <f t="shared" si="0"/>
         <v>3721.8500000000004</v>
       </c>
       <c r="K17">
@@ -1015,13 +1018,13 @@
         <v>15.44</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <f>IF(L155="f",C18,)</f>
-        <v>15.44</v>
+      <c r="H18" s="1" t="e">
+        <f>IF(#REF!="f",C18,)</f>
+        <v>#REF!</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <f>J17-C18+G155</f>
+        <f t="shared" si="0"/>
         <v>3706.4100000000003</v>
       </c>
     </row>
@@ -1032,12 +1035,12 @@
       <c r="C19">
         <v>11.6</v>
       </c>
-      <c r="H19">
-        <f>IF(L156="f",C19,)</f>
-        <v>11.6</v>
+      <c r="H19" t="e">
+        <f>IF(#REF!="f",C19,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J19">
-        <f>J18-C19+G156</f>
+        <f t="shared" si="0"/>
         <v>3694.8100000000004</v>
       </c>
     </row>
@@ -1049,11 +1052,11 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <f>IF(L157="f",C20,)</f>
+        <f>IF(M157="f",C20,)</f>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>J19-C20+G157</f>
+        <f t="shared" si="0"/>
         <v>3690.8100000000004</v>
       </c>
     </row>
@@ -1065,11 +1068,11 @@
         <v>22.86</v>
       </c>
       <c r="H21">
-        <f>IF(L158="f",C21,)</f>
+        <f>IF(M158="f",C21,)</f>
         <v>0</v>
       </c>
       <c r="J21">
-        <f>J20-C21+G158</f>
+        <f t="shared" si="0"/>
         <v>3667.9500000000003</v>
       </c>
     </row>
@@ -1081,11 +1084,11 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <f>IF(L159="f",C22,)</f>
+        <f>IF(M159="f",C22,)</f>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>J21-C22+G159</f>
+        <f t="shared" si="0"/>
         <v>3647.9500000000003</v>
       </c>
     </row>
@@ -1097,15 +1100,15 @@
         <v>27.72</v>
       </c>
       <c r="H23">
-        <f>IF(L160="f",C23,)</f>
+        <f>IF(M160="f",C23,)</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>J22-C23+G160</f>
+        <f t="shared" si="0"/>
         <v>3620.2300000000005</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -1116,16 +1119,16 @@
         <v>11</v>
       </c>
       <c r="H24">
-        <f>IF(L161="f",C24,)</f>
+        <f>IF(M161="f",C24,)</f>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>J23-C24+G161</f>
+        <f t="shared" si="0"/>
         <v>3609.2300000000005</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="e">
         <f>SUM(H18:H27)</f>
-        <v>42.03</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -1135,12 +1138,12 @@
       <c r="C25">
         <v>3.55</v>
       </c>
-      <c r="H25">
-        <f>IF(L162="f",C25,)</f>
-        <v>3.55</v>
+      <c r="H25" t="e">
+        <f>IF(#REF!="f",C25,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J25">
-        <f>J24-C25+G162</f>
+        <f t="shared" si="0"/>
         <v>3605.6800000000003</v>
       </c>
     </row>
@@ -1149,11 +1152,11 @@
         <v>19</v>
       </c>
       <c r="J26">
-        <f>J25-C26+G163</f>
+        <f t="shared" si="0"/>
         <v>3638.6800000000003</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1163,12 +1166,12 @@
       <c r="C27">
         <v>11.44</v>
       </c>
-      <c r="H27">
-        <f>IF(L164="f",C27,)</f>
-        <v>11.44</v>
+      <c r="H27" t="e">
+        <f>IF(#REF!="f",C27,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J27">
-        <f>J26-C27+G164</f>
+        <f t="shared" si="0"/>
         <v>3627.2400000000002</v>
       </c>
       <c r="K27">
@@ -1184,13 +1187,13 @@
         <v>10.63</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
-        <f>IF(L165="f",C28,)</f>
-        <v>10.63</v>
+      <c r="H28" s="1" t="e">
+        <f>IF(#REF!="f",C28,)</f>
+        <v>#REF!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <f>J27-C28+G165</f>
+        <f t="shared" si="0"/>
         <v>3616.61</v>
       </c>
     </row>
@@ -1202,11 +1205,11 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <f>IF(L166="f",C29,)</f>
+        <f>IF(M166="f",C29,)</f>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>J28-C29+G166</f>
+        <f t="shared" si="0"/>
         <v>3608.61</v>
       </c>
     </row>
@@ -1218,11 +1221,11 @@
         <v>3.07</v>
       </c>
       <c r="H30">
-        <f>IF(L167="f",C30,)</f>
+        <f>IF(M167="f",C30,)</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>J29-C30+G167</f>
+        <f t="shared" si="0"/>
         <v>3605.54</v>
       </c>
     </row>
@@ -1233,12 +1236,12 @@
       <c r="C31">
         <v>34.01</v>
       </c>
-      <c r="H31">
-        <f>IF(L168="f",C31,)</f>
-        <v>34.01</v>
+      <c r="H31" t="e">
+        <f>IF(#REF!="f",C31,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J31">
-        <f>J30-C31+G168</f>
+        <f t="shared" si="0"/>
         <v>3571.5299999999997</v>
       </c>
     </row>
@@ -1249,12 +1252,12 @@
       <c r="C32">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H32">
-        <f>IF(L169="f",C32,)</f>
-        <v>2.5499999999999998</v>
+      <c r="H32" t="e">
+        <f>IF(#REF!="f",C32,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J32">
-        <f>J31-C32+G169</f>
+        <f t="shared" si="0"/>
         <v>3568.9799999999996</v>
       </c>
     </row>
@@ -1265,12 +1268,12 @@
       <c r="C33">
         <v>4.04</v>
       </c>
-      <c r="H33">
-        <f>IF(L170="f",C33,)</f>
-        <v>4.04</v>
+      <c r="H33" t="e">
+        <f>IF(#REF!="f",C33,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J33">
-        <f>J32-C33+G170</f>
+        <f t="shared" si="0"/>
         <v>3564.9399999999996</v>
       </c>
     </row>
@@ -1279,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="J34">
-        <f>J33-C34+G171</f>
+        <f t="shared" si="0"/>
         <v>3629.9399999999996</v>
       </c>
     </row>
@@ -1291,11 +1294,11 @@
         <v>8.31</v>
       </c>
       <c r="H35">
-        <f>IF(L172="f",C35,)</f>
+        <f>IF(M172="f",C35,)</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>J34-C35+G172</f>
+        <f t="shared" ref="J35:J66" si="1">J34-C35+G172</f>
         <v>3621.6299999999997</v>
       </c>
     </row>
@@ -1307,11 +1310,11 @@
         <v>297.5</v>
       </c>
       <c r="H36">
-        <f>IF(L173="f",C36,)</f>
+        <f>IF(M173="f",C36,)</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>J35-C36+G173</f>
+        <f t="shared" si="1"/>
         <v>3324.1299999999997</v>
       </c>
     </row>
@@ -1323,11 +1326,11 @@
         <v>4.3</v>
       </c>
       <c r="H37">
-        <f>IF(L174="f",C37,)</f>
-        <v>4.3</v>
+        <f>IF(M174="f",C37,)</f>
+        <v>0</v>
       </c>
       <c r="J37">
-        <f>J36-C37+G174</f>
+        <f t="shared" si="1"/>
         <v>3319.8299999999995</v>
       </c>
     </row>
@@ -1339,15 +1342,15 @@
         <v>20.91</v>
       </c>
       <c r="H38">
-        <f>IF(L175="f",C38,)</f>
+        <f>IF(M175="f",C38,)</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>J37-C38+G175</f>
+        <f t="shared" si="1"/>
         <v>3298.9199999999996</v>
       </c>
       <c r="K38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -1358,16 +1361,16 @@
         <v>20.64</v>
       </c>
       <c r="H39">
-        <f>IF(L176="f",C39,)</f>
-        <v>20.64</v>
+        <f>IF(M176="f",C39,)</f>
+        <v>0</v>
       </c>
       <c r="J39">
-        <f>J38-C39+G176</f>
+        <f t="shared" si="1"/>
         <v>3278.2799999999997</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="e">
         <f>SUM(H28:H42)</f>
-        <v>76.169999999999987</v>
+        <v>#REF!</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -1379,11 +1382,11 @@
         <v>5</v>
       </c>
       <c r="H40">
-        <f>IF(L177="f",C40,)</f>
+        <f>IF(M177="f",C40,)</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>J39-C40+G177</f>
+        <f t="shared" si="1"/>
         <v>3273.2799999999997</v>
       </c>
     </row>
@@ -1395,15 +1398,15 @@
         <v>10.39</v>
       </c>
       <c r="H41">
-        <f>IF(L178="f",C41,)</f>
+        <f>IF(M178="f",C41,)</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>J40-C41+G178</f>
+        <f t="shared" si="1"/>
         <v>3262.89</v>
       </c>
       <c r="K41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1414,11 +1417,11 @@
         <v>14.1</v>
       </c>
       <c r="H42">
-        <f>IF(L179="f",C42,)</f>
+        <f>IF(M179="f",C42,)</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>J41-C42+G179</f>
+        <f t="shared" si="1"/>
         <v>3248.79</v>
       </c>
       <c r="K42">
@@ -1435,12 +1438,12 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
-        <f>IF(L180="f",C43,)</f>
+        <f>IF(M180="f",C43,)</f>
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <f>J42-C43+G180</f>
+        <f t="shared" si="1"/>
         <v>3242.8</v>
       </c>
     </row>
@@ -1452,11 +1455,11 @@
         <v>14</v>
       </c>
       <c r="H44">
-        <f>IF(L181="f",C44,)</f>
+        <f>IF(M181="f",C44,)</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>J43-C44+G181</f>
+        <f t="shared" si="1"/>
         <v>3228.8</v>
       </c>
     </row>
@@ -1468,11 +1471,11 @@
         <v>5.75</v>
       </c>
       <c r="H45">
-        <f>IF(L182="f",C45,)</f>
+        <f>IF(M182="f",C45,)</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>J44-C45+G182</f>
+        <f t="shared" si="1"/>
         <v>3223.05</v>
       </c>
     </row>
@@ -1483,12 +1486,12 @@
       <c r="C46">
         <v>19.23</v>
       </c>
-      <c r="H46">
-        <f>IF(L183="f",C46,)</f>
-        <v>19.23</v>
+      <c r="H46" t="e">
+        <f>IF(#REF!="f",C46,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J46">
-        <f>J45-C46+G183</f>
+        <f t="shared" si="1"/>
         <v>3203.82</v>
       </c>
     </row>
@@ -1500,11 +1503,11 @@
         <v>17.46</v>
       </c>
       <c r="H47">
-        <f>IF(L184="f",C47,)</f>
+        <f>IF(M184="f",C47,)</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>J46-C47+G184</f>
+        <f t="shared" si="1"/>
         <v>3186.36</v>
       </c>
     </row>
@@ -1516,11 +1519,11 @@
         <v>3.11</v>
       </c>
       <c r="H48">
-        <f>IF(L185="f",C48,)</f>
+        <f>IF(M185="f",C48,)</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>J47-C48+G185</f>
+        <f t="shared" si="1"/>
         <v>3183.25</v>
       </c>
     </row>
@@ -1532,15 +1535,15 @@
         <v>4.16</v>
       </c>
       <c r="H49">
-        <f>IF(L186="f",C49,)</f>
+        <f>IF(M186="f",C49,)</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>J48-C49+G186</f>
+        <f t="shared" si="1"/>
         <v>3179.09</v>
       </c>
       <c r="K49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1550,23 +1553,23 @@
       <c r="C50">
         <v>10</v>
       </c>
-      <c r="H50">
-        <f>IF(L187="f",C50,)</f>
-        <v>10</v>
+      <c r="H50" t="e">
+        <f>IF(#REF!="f",C50,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J50">
-        <f>J49-C50+G187</f>
+        <f t="shared" si="1"/>
         <v>3169.09</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="e">
         <f>SUM(H43:H53)</f>
-        <v>29.23</v>
+        <v>#REF!</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1574,12 +1577,12 @@
       <c r="C51">
         <v>11.17</v>
       </c>
-      <c r="H51">
-        <f>IF(L188="f",C51,)</f>
-        <v>0</v>
+      <c r="H51" t="e">
+        <f>IF(#REF!="f",C51,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J51">
-        <f>J50-C51+G188</f>
+        <f t="shared" si="1"/>
         <v>3157.92</v>
       </c>
     </row>
@@ -1591,15 +1594,15 @@
         <v>200</v>
       </c>
       <c r="H52">
-        <f>IF(L189="f",C52,)</f>
+        <f>IF(M189="f",C52,)</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>J51-C52+G189</f>
+        <f t="shared" si="1"/>
         <v>2957.92</v>
       </c>
       <c r="K52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1610,11 +1613,11 @@
         <v>200</v>
       </c>
       <c r="H53">
-        <f>IF(L190="f",C53,)</f>
+        <f>IF(M190="f",C53,)</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>J52-C53+G190</f>
+        <f t="shared" si="1"/>
         <v>2757.92</v>
       </c>
       <c r="K53">
@@ -1631,12 +1634,12 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
-        <f>IF(L191="f",C54,)</f>
+        <f>IF(M191="f",C54,)</f>
         <v>0</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <f>J53-C54+G191</f>
+        <f t="shared" si="1"/>
         <v>2735.04</v>
       </c>
     </row>
@@ -1648,11 +1651,11 @@
         <v>14</v>
       </c>
       <c r="H55">
-        <f>IF(L192="f",C55,)</f>
+        <f>IF(M192="f",C55,)</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f>J54-C55+G192</f>
+        <f t="shared" si="1"/>
         <v>2721.04</v>
       </c>
     </row>
@@ -1663,12 +1666,12 @@
       <c r="C56">
         <v>35.590000000000003</v>
       </c>
-      <c r="H56">
-        <f>IF(L193="f",C56,)</f>
-        <v>35.590000000000003</v>
+      <c r="H56" t="e">
+        <f>IF(#REF!="f",C56,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J56">
-        <f>J55-C56+G193</f>
+        <f t="shared" si="1"/>
         <v>2685.45</v>
       </c>
     </row>
@@ -1680,11 +1683,11 @@
         <v>6.93</v>
       </c>
       <c r="H57">
-        <f>IF(L194="f",C57,)</f>
+        <f>IF(M194="f",C57,)</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>J56-C57+G194</f>
+        <f t="shared" si="1"/>
         <v>2678.52</v>
       </c>
     </row>
@@ -1696,11 +1699,11 @@
         <v>10.39</v>
       </c>
       <c r="H58">
-        <f>IF(L195="f",C58,)</f>
+        <f>IF(M195="f",C58,)</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>J57-C58+G195</f>
+        <f t="shared" si="1"/>
         <v>2668.13</v>
       </c>
     </row>
@@ -1712,11 +1715,11 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="H59">
-        <f>IF(L196="f",C59,)</f>
+        <f>IF(M196="f",C59,)</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f>J58-C59+G196</f>
+        <f t="shared" si="1"/>
         <v>2666.08</v>
       </c>
     </row>
@@ -1728,11 +1731,11 @@
         <v>4.3</v>
       </c>
       <c r="H60">
-        <f>IF(L197="f",C60,)</f>
-        <v>4.3</v>
+        <f>IF(M197="f",C60,)</f>
+        <v>0</v>
       </c>
       <c r="J60">
-        <f>J59-C60+G197</f>
+        <f t="shared" si="1"/>
         <v>2661.7799999999997</v>
       </c>
     </row>
@@ -1741,11 +1744,11 @@
         <v>8</v>
       </c>
       <c r="H61">
-        <f>IF(L198="f",C61,)</f>
+        <f>IF(M198="f",C61,)</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>J60-C61+G198</f>
+        <f t="shared" si="1"/>
         <v>3122.7799999999997</v>
       </c>
     </row>
@@ -1756,16 +1759,16 @@
       <c r="C62">
         <v>7.54</v>
       </c>
-      <c r="H62">
-        <f>IF(L199="f",C62,)</f>
-        <v>7.54</v>
+      <c r="H62" t="e">
+        <f>IF(#REF!="f",C62,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J62">
-        <f>J61-C62+G199</f>
+        <f t="shared" si="1"/>
         <v>3115.24</v>
       </c>
       <c r="K62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -1776,16 +1779,16 @@
         <v>6</v>
       </c>
       <c r="H63">
-        <f>IF(L200="f",C63,)</f>
+        <f>IF(M200="f",C63,)</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>J62-C63+G200</f>
+        <f t="shared" si="1"/>
         <v>3109.24</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="e">
         <f>SUM(H54:H66)</f>
-        <v>87.47999999999999</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -1795,12 +1798,12 @@
       <c r="C64">
         <v>5.58</v>
       </c>
-      <c r="H64">
-        <f>IF(L201="f",C64,)</f>
-        <v>5.58</v>
+      <c r="H64" t="e">
+        <f>IF(#REF!="f",C64,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J64">
-        <f>J63-C64+G201</f>
+        <f t="shared" si="1"/>
         <v>3103.66</v>
       </c>
     </row>
@@ -1812,15 +1815,15 @@
         <v>575</v>
       </c>
       <c r="H65">
-        <f>IF(L202="f",C65,)</f>
+        <f>IF(M202="f",C65,)</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>J64-C65+G202</f>
+        <f t="shared" si="1"/>
         <v>2528.66</v>
       </c>
       <c r="K65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1830,12 +1833,12 @@
       <c r="C66">
         <v>34.47</v>
       </c>
-      <c r="H66">
-        <f>IF(L203="f",C66,)</f>
-        <v>34.47</v>
+      <c r="H66" t="e">
+        <f>IF(#REF!="f",C66,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J66">
-        <f>J65-C66+G203</f>
+        <f t="shared" si="1"/>
         <v>2494.19</v>
       </c>
       <c r="K66">
@@ -1851,13 +1854,13 @@
         <v>5.56</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="1">
-        <f>IF(L204="f",C67,)</f>
-        <v>5.56</v>
+      <c r="H67" s="1" t="e">
+        <f>IF(#REF!="f",C67,)</f>
+        <v>#REF!</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
-        <f>J66-C67+G204</f>
+        <f t="shared" ref="J67:J98" si="2">J66-C67+G204</f>
         <v>2488.63</v>
       </c>
     </row>
@@ -1868,12 +1871,12 @@
       <c r="C68">
         <v>12.68</v>
       </c>
-      <c r="H68">
-        <f>IF(L205="f",C68,)</f>
-        <v>12.68</v>
+      <c r="H68" t="e">
+        <f>IF(#REF!="f",C68,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J68">
-        <f>J67-C68+G205</f>
+        <f t="shared" si="2"/>
         <v>2475.9500000000003</v>
       </c>
     </row>
@@ -1885,11 +1888,11 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <f>IF(L206="f",C69,)</f>
+        <f>IF(M206="f",C69,)</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>J68-C69+G206</f>
+        <f t="shared" si="2"/>
         <v>2470.9500000000003</v>
       </c>
     </row>
@@ -1901,11 +1904,11 @@
         <v>20.79</v>
       </c>
       <c r="H70">
-        <f>IF(L207="f",C70,)</f>
+        <f>IF(M207="f",C70,)</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>J69-C70+G207</f>
+        <f t="shared" si="2"/>
         <v>2450.1600000000003</v>
       </c>
     </row>
@@ -1917,11 +1920,11 @@
         <v>8</v>
       </c>
       <c r="H71">
-        <f>IF(L208="f",C71,)</f>
+        <f>IF(M208="f",C71,)</f>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>J70-C71+G208</f>
+        <f t="shared" si="2"/>
         <v>2442.1600000000003</v>
       </c>
     </row>
@@ -1932,12 +1935,12 @@
       <c r="C72">
         <v>5.56</v>
       </c>
-      <c r="H72">
-        <f>IF(L209="f",C72,)</f>
-        <v>5.56</v>
+      <c r="H72" t="e">
+        <f>IF(#REF!="f",C72,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J72">
-        <f>J71-C72+G209</f>
+        <f t="shared" si="2"/>
         <v>2436.6000000000004</v>
       </c>
     </row>
@@ -1949,15 +1952,15 @@
         <v>8.31</v>
       </c>
       <c r="H73">
-        <f>IF(L210="f",C73,)</f>
+        <f>IF(M210="f",C73,)</f>
         <v>0</v>
       </c>
       <c r="J73">
-        <f>J72-C73+G210</f>
+        <f t="shared" si="2"/>
         <v>2428.2900000000004</v>
       </c>
       <c r="K73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
@@ -1967,17 +1970,17 @@
       <c r="C74">
         <v>6.12</v>
       </c>
-      <c r="H74">
-        <f>IF(L211="f",C74,)</f>
-        <v>6.12</v>
+      <c r="H74" t="e">
+        <f>IF(#REF!="f",C74,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J74">
-        <f>J73-C74+G211</f>
+        <f t="shared" si="2"/>
         <v>2422.1700000000005</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="e">
         <f>SUM(H67:H77)</f>
-        <v>44.959999999999994</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
@@ -1987,12 +1990,12 @@
       <c r="C75">
         <v>15.04</v>
       </c>
-      <c r="H75">
-        <f>IF(L212="f",C75,)</f>
-        <v>15.04</v>
+      <c r="H75" t="e">
+        <f>IF(#REF!="f",C75,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J75">
-        <f>J74-C75+G212</f>
+        <f t="shared" si="2"/>
         <v>2407.1300000000006</v>
       </c>
     </row>
@@ -2004,15 +2007,15 @@
         <v>12</v>
       </c>
       <c r="H76">
-        <f>IF(L213="f",C76,)</f>
+        <f>IF(M213="f",C76,)</f>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>J75-C76+G213</f>
+        <f t="shared" si="2"/>
         <v>2395.1300000000006</v>
       </c>
       <c r="K76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2023,11 +2026,11 @@
         <v>17.37</v>
       </c>
       <c r="H77">
-        <f>IF(L214="f",C77,)</f>
+        <f>IF(M214="f",C77,)</f>
         <v>0</v>
       </c>
       <c r="J77">
-        <f>J76-C77+G214</f>
+        <f t="shared" si="2"/>
         <v>2377.7600000000007</v>
       </c>
       <c r="K77">
@@ -2044,12 +2047,12 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1">
-        <f>IF(L215="f",C78,)</f>
+        <f>IF(M215="f",C78,)</f>
         <v>0</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1">
-        <f>J77-C78+G215</f>
+        <f t="shared" si="2"/>
         <v>2353.2400000000007</v>
       </c>
     </row>
@@ -2060,12 +2063,12 @@
       <c r="C79">
         <v>12.35</v>
       </c>
-      <c r="H79">
-        <f>IF(L216="f",C79,)</f>
-        <v>12.35</v>
+      <c r="H79" t="e">
+        <f>IF(#REF!="f",C79,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J79">
-        <f>J78-C79+G216</f>
+        <f t="shared" si="2"/>
         <v>2340.8900000000008</v>
       </c>
     </row>
@@ -2076,12 +2079,12 @@
       <c r="C80">
         <v>4.3</v>
       </c>
-      <c r="H80">
-        <f>IF(L217="f",C80,)</f>
-        <v>4.3</v>
+      <c r="H80" t="e">
+        <f>IF(#REF!="f",C80,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J80">
-        <f>J79-C80+G217</f>
+        <f t="shared" si="2"/>
         <v>2336.5900000000006</v>
       </c>
     </row>
@@ -2092,12 +2095,12 @@
       <c r="C81">
         <v>14.1</v>
       </c>
-      <c r="H81">
-        <f>IF(L218="f",C81,)</f>
-        <v>0</v>
+      <c r="H81" t="e">
+        <f>IF(#REF!="f",C81,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J81">
-        <f>J80-C81+G218</f>
+        <f t="shared" si="2"/>
         <v>2322.4900000000007</v>
       </c>
     </row>
@@ -2108,12 +2111,12 @@
       <c r="C82">
         <v>8.99</v>
       </c>
-      <c r="H82">
-        <f>IF(L219="f",C82,)</f>
-        <v>0</v>
+      <c r="H82" t="e">
+        <f>IF(#REF!="f",C82,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J82">
-        <f>J81-C82+G219</f>
+        <f t="shared" si="2"/>
         <v>2313.5000000000009</v>
       </c>
     </row>
@@ -2125,11 +2128,11 @@
         <v>11</v>
       </c>
       <c r="H83">
-        <f>IF(L220="f",C83,)</f>
+        <f>IF(M220="f",C83,)</f>
         <v>0</v>
       </c>
       <c r="J83">
-        <f>J82-C83+G220</f>
+        <f t="shared" si="2"/>
         <v>2302.5000000000009</v>
       </c>
     </row>
@@ -2140,12 +2143,12 @@
       <c r="C84">
         <v>5.1100000000000003</v>
       </c>
-      <c r="H84">
-        <f>IF(L221="f",C84,)</f>
-        <v>5.1100000000000003</v>
+      <c r="H84" t="e">
+        <f>IF(#REF!="f",C84,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J84">
-        <f>J83-C84+G221</f>
+        <f t="shared" si="2"/>
         <v>2297.3900000000008</v>
       </c>
     </row>
@@ -2157,11 +2160,11 @@
         <v>9.49</v>
       </c>
       <c r="H85">
-        <f>IF(L222="f",C85,)</f>
+        <f>IF(M222="f",C85,)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f>J84-C85+G222</f>
+        <f t="shared" si="2"/>
         <v>2287.900000000001</v>
       </c>
     </row>
@@ -2172,12 +2175,12 @@
       <c r="C86">
         <v>22.56</v>
       </c>
-      <c r="H86">
-        <f>IF(L223="f",C86,)</f>
-        <v>22.56</v>
+      <c r="H86" t="e">
+        <f>IF(#REF!="f",C86,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J86">
-        <f>J85-C86+G223</f>
+        <f t="shared" si="2"/>
         <v>2265.3400000000011</v>
       </c>
     </row>
@@ -2189,11 +2192,11 @@
         <v>4.16</v>
       </c>
       <c r="H87">
-        <f>IF(L224="f",C87,)</f>
+        <f>IF(M224="f",C87,)</f>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>J86-C87+G224</f>
+        <f t="shared" si="2"/>
         <v>2261.1800000000012</v>
       </c>
     </row>
@@ -2205,11 +2208,11 @@
         <v>15</v>
       </c>
       <c r="H88">
-        <f>IF(L225="f",C88,)</f>
+        <f>IF(M225="f",C88,)</f>
         <v>0</v>
       </c>
       <c r="J88">
-        <f>J87-C88+G225</f>
+        <f t="shared" si="2"/>
         <v>2246.1800000000012</v>
       </c>
     </row>
@@ -2221,11 +2224,11 @@
         <v>5.38</v>
       </c>
       <c r="H89">
-        <f>IF(L226="f",C89,)</f>
+        <f>IF(M226="f",C89,)</f>
         <v>0</v>
       </c>
       <c r="J89">
-        <f>J88-C89+G226</f>
+        <f t="shared" si="2"/>
         <v>2240.8000000000011</v>
       </c>
     </row>
@@ -2234,11 +2237,11 @@
         <v>23</v>
       </c>
       <c r="H90">
-        <f>IF(L227="f",C90,)</f>
+        <f>IF(M227="f",C90,)</f>
         <v>0</v>
       </c>
       <c r="J90">
-        <f>J89-C90+G227</f>
+        <f t="shared" si="2"/>
         <v>2240.8400000000011</v>
       </c>
     </row>
@@ -2247,11 +2250,11 @@
         <v>23</v>
       </c>
       <c r="H91">
-        <f>IF(L228="f",C91,)</f>
+        <f>IF(M228="f",C91,)</f>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>J90-C91+G228</f>
+        <f t="shared" si="2"/>
         <v>2240.9100000000012</v>
       </c>
     </row>
@@ -2260,15 +2263,15 @@
         <v>23</v>
       </c>
       <c r="H92">
-        <f>IF(L229="f",C92,)</f>
+        <f>IF(M229="f",C92,)</f>
         <v>0</v>
       </c>
       <c r="J92">
-        <f>J91-C92+G229</f>
+        <f t="shared" si="2"/>
         <v>2297.9100000000012</v>
       </c>
       <c r="K92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -2279,11 +2282,11 @@
         <v>8.9</v>
       </c>
       <c r="H93">
-        <f>IF(L230="f",C93,)</f>
+        <f>IF(M230="f",C93,)</f>
         <v>0</v>
       </c>
       <c r="J93">
-        <f>J92-C93+G230</f>
+        <f t="shared" si="2"/>
         <v>2289.0100000000011</v>
       </c>
       <c r="K93">
@@ -2299,11 +2302,11 @@
         <v>0.11</v>
       </c>
       <c r="H94">
-        <f>IF(L231="f",C94,)</f>
+        <f>IF(M231="f",C94,)</f>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>J93-C94+G231</f>
+        <f t="shared" si="2"/>
         <v>2288.900000000001</v>
       </c>
     </row>
@@ -2315,13 +2318,13 @@
         <v>4.84</v>
       </c>
       <c r="G95" s="1"/>
-      <c r="H95" s="1">
-        <f>IF(L232="f",C95,)</f>
-        <v>4.84</v>
+      <c r="H95" s="1" t="e">
+        <f>IF(#REF!="f",C95,)</f>
+        <v>#REF!</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1">
-        <f>J94-C95+G232</f>
+        <f t="shared" si="2"/>
         <v>2284.0600000000009</v>
       </c>
       <c r="M95" s="4">
@@ -2339,11 +2342,11 @@
         <v>19.72</v>
       </c>
       <c r="H96">
-        <f>IF(L233="f",C96,)</f>
+        <f>IF(M233="f",C96,)</f>
         <v>0</v>
       </c>
       <c r="J96">
-        <f>J95-C96+G233</f>
+        <f t="shared" si="2"/>
         <v>2264.3400000000011</v>
       </c>
       <c r="M96" s="4">
@@ -2361,11 +2364,11 @@
         <v>58.81</v>
       </c>
       <c r="H97">
-        <f>IF(L234="f",C97,)</f>
+        <f>IF(M234="f",C97,)</f>
         <v>0</v>
       </c>
       <c r="J97">
-        <f>J96-C97+G234</f>
+        <f t="shared" si="2"/>
         <v>2205.5300000000011</v>
       </c>
       <c r="M97" s="4">
@@ -2383,19 +2386,19 @@
       <c r="C98" s="3">
         <v>3.64</v>
       </c>
-      <c r="H98">
-        <f>IF(L235="f",C98,)</f>
-        <v>3.64</v>
+      <c r="H98" t="e">
+        <f>IF(#REF!="f",C98,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J98">
-        <f>J97-C98+G235</f>
+        <f t="shared" si="2"/>
         <v>2201.8900000000012</v>
       </c>
       <c r="M98" s="4">
         <v>43191</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N102" si="0">575/2</f>
+        <f t="shared" ref="N98:N102" si="3">575/2</f>
         <v>287.5</v>
       </c>
     </row>
@@ -2407,41 +2410,41 @@
         <v>10.39</v>
       </c>
       <c r="H99">
-        <f>IF(L236="f",C99,)</f>
+        <f>IF(M236="f",C99,)</f>
         <v>0</v>
       </c>
       <c r="J99">
-        <f>J98-C99+G236</f>
+        <f t="shared" ref="J99:J130" si="4">J98-C99+G236</f>
         <v>2191.5000000000014</v>
       </c>
       <c r="M99" s="4">
         <v>43221</v>
       </c>
       <c r="N99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>287.5</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="H100">
-        <f>IF(L237="f",C100,)</f>
+        <f>IF(M237="f",C100,)</f>
         <v>0</v>
       </c>
       <c r="J100">
-        <f>J99-C100+G237</f>
+        <f t="shared" si="4"/>
         <v>2514.4600000000014</v>
       </c>
       <c r="M100" s="4">
         <v>43252</v>
       </c>
       <c r="N100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>287.5</v>
       </c>
     </row>
@@ -2452,22 +2455,22 @@
       <c r="C101">
         <v>5.56</v>
       </c>
-      <c r="H101">
-        <f>IF(L238="f",C101,)</f>
-        <v>5.56</v>
+      <c r="H101" t="e">
+        <f>IF(#REF!="f",C101,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J101">
-        <f>J100-C101+G238</f>
+        <f t="shared" si="4"/>
         <v>2508.9000000000015</v>
       </c>
       <c r="K101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M101" s="4">
         <v>43282</v>
       </c>
       <c r="N101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>287.5</v>
       </c>
     </row>
@@ -2480,12 +2483,12 @@
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5">
-        <f>IF(L239="f",C102,)</f>
+        <f>IF(M239="f",C102,)</f>
         <v>0</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5">
-        <f>J101-C102+G239</f>
+        <f t="shared" si="4"/>
         <v>2496.9000000000015</v>
       </c>
       <c r="K102">
@@ -2496,7 +2499,7 @@
         <v>43313</v>
       </c>
       <c r="N102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>287.5</v>
       </c>
     </row>
@@ -2505,11 +2508,11 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <f>IF(L240="f",C103,)</f>
+        <f>IF(M240="f",C103,)</f>
         <v>0</v>
       </c>
       <c r="J103">
-        <f>J102-C103+G240</f>
+        <f t="shared" si="4"/>
         <v>2903.6400000000012</v>
       </c>
     </row>
@@ -2520,12 +2523,12 @@
       <c r="C104">
         <v>9.68</v>
       </c>
-      <c r="H104">
-        <f>IF(L241="f",C104,)</f>
-        <v>9.68</v>
+      <c r="H104" t="e">
+        <f>IF(#REF!="f",C104,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J104">
-        <f>J103-C104+G241</f>
+        <f t="shared" si="4"/>
         <v>2893.9600000000014</v>
       </c>
     </row>
@@ -2536,12 +2539,12 @@
       <c r="C105">
         <v>5.92</v>
       </c>
-      <c r="H105">
-        <f>IF(L242="f",C105,)</f>
-        <v>5.92</v>
+      <c r="H105" t="e">
+        <f>IF(#REF!="f",C105,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J105">
-        <f>J104-C105+G242</f>
+        <f t="shared" si="4"/>
         <v>2888.0400000000013</v>
       </c>
     </row>
@@ -2553,11 +2556,11 @@
         <v>28.84</v>
       </c>
       <c r="H106">
-        <f>IF(L243="f",C106,)</f>
+        <f>IF(M243="f",C106,)</f>
         <v>0</v>
       </c>
       <c r="J106">
-        <f>J105-C106+G243</f>
+        <f t="shared" si="4"/>
         <v>2859.2000000000012</v>
       </c>
     </row>
@@ -2568,12 +2571,12 @@
       <c r="C107" s="8">
         <v>5.58</v>
       </c>
-      <c r="H107">
-        <f>IF(L244="f",C107,)</f>
-        <v>5.58</v>
+      <c r="H107" t="e">
+        <f>IF(#REF!="f",C107,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J107">
-        <f>J106-C107+G244</f>
+        <f t="shared" si="4"/>
         <v>2853.6200000000013</v>
       </c>
     </row>
@@ -2584,12 +2587,12 @@
       <c r="C108">
         <v>38.17</v>
       </c>
-      <c r="H108">
-        <f>IF(L245="f",C108,)</f>
-        <v>38.17</v>
+      <c r="H108" t="e">
+        <f>IF(#REF!="f",C108,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J108">
-        <f>J107-C108+G245</f>
+        <f t="shared" si="4"/>
         <v>2815.4500000000012</v>
       </c>
     </row>
@@ -2601,11 +2604,11 @@
         <v>23</v>
       </c>
       <c r="H109">
-        <f>IF(L246="f",C109,)</f>
+        <f>IF(M246="f",C109,)</f>
         <v>0</v>
       </c>
       <c r="J109">
-        <f>J108-C109+G246</f>
+        <f t="shared" si="4"/>
         <v>2792.4500000000012</v>
       </c>
     </row>
@@ -2617,11 +2620,11 @@
         <v>25.53</v>
       </c>
       <c r="H110">
-        <f>IF(L247="f",C110,)</f>
+        <f>IF(M247="f",C110,)</f>
         <v>0</v>
       </c>
       <c r="J110">
-        <f>J109-C110+G247</f>
+        <f t="shared" si="4"/>
         <v>2766.920000000001</v>
       </c>
     </row>
@@ -2632,12 +2635,12 @@
       <c r="C111">
         <v>7.5</v>
       </c>
-      <c r="H111">
-        <f>IF(L248="f",C111,)</f>
-        <v>7.5</v>
+      <c r="H111" t="e">
+        <f>IF(#REF!="f",C111,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J111">
-        <f>J110-C111+G248</f>
+        <f t="shared" si="4"/>
         <v>2759.420000000001</v>
       </c>
     </row>
@@ -2649,11 +2652,11 @@
         <v>3.99</v>
       </c>
       <c r="H112">
-        <f>IF(L249="f",C112,)</f>
+        <f>IF(M249="f",C112,)</f>
         <v>0</v>
       </c>
       <c r="J112">
-        <f>J111-C112+G249</f>
+        <f t="shared" si="4"/>
         <v>2755.4300000000012</v>
       </c>
     </row>
@@ -2664,12 +2667,12 @@
       <c r="C113">
         <v>6.33</v>
       </c>
-      <c r="H113">
-        <f>IF(L250="f",C113,)</f>
-        <v>6.33</v>
+      <c r="H113" t="e">
+        <f>IF(#REF!="f",C113,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J113">
-        <f>J112-C113+G250</f>
+        <f t="shared" si="4"/>
         <v>2749.1000000000013</v>
       </c>
     </row>
@@ -2681,11 +2684,11 @@
         <v>20</v>
       </c>
       <c r="H114">
-        <f>IF(L251="f",C114,)</f>
+        <f>IF(M251="f",C114,)</f>
         <v>0</v>
       </c>
       <c r="J114">
-        <f>J113-C114+G251</f>
+        <f t="shared" si="4"/>
         <v>2729.1000000000013</v>
       </c>
     </row>
@@ -2697,11 +2700,11 @@
         <v>30.46</v>
       </c>
       <c r="H115">
-        <f>IF(L252="f",C115,)</f>
+        <f>IF(M252="f",C115,)</f>
         <v>0</v>
       </c>
       <c r="J115">
-        <f>J114-C115+G252</f>
+        <f t="shared" si="4"/>
         <v>2698.6400000000012</v>
       </c>
     </row>
@@ -2712,12 +2715,12 @@
       <c r="C116">
         <v>3.64</v>
       </c>
-      <c r="H116">
-        <f>IF(L253="f",C116,)</f>
-        <v>3.64</v>
+      <c r="H116" t="e">
+        <f>IF(#REF!="f",C116,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J116">
-        <f>J115-C116+G253</f>
+        <f t="shared" si="4"/>
         <v>2695.0000000000014</v>
       </c>
     </row>
@@ -2729,11 +2732,11 @@
         <v>575</v>
       </c>
       <c r="H117">
-        <f>IF(L254="f",C117,)</f>
+        <f>IF(M254="f",C117,)</f>
         <v>0</v>
       </c>
       <c r="J117">
-        <f>J116-C117+G254</f>
+        <f t="shared" si="4"/>
         <v>2120.0000000000014</v>
       </c>
     </row>
@@ -2744,12 +2747,12 @@
       <c r="C118">
         <v>7.44</v>
       </c>
-      <c r="H118">
-        <f>IF(L255="f",C118,)</f>
-        <v>7.44</v>
+      <c r="H118" t="e">
+        <f>IF(#REF!="f",C118,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J118">
-        <f>J117-C118+G255</f>
+        <f t="shared" si="4"/>
         <v>2112.5600000000013</v>
       </c>
     </row>
@@ -2761,11 +2764,11 @@
         <v>6</v>
       </c>
       <c r="H119">
-        <f>IF(L256="f",C119,)</f>
+        <f>IF(M256="f",C119,)</f>
         <v>0</v>
       </c>
       <c r="J119">
-        <f>J118-C119+G256</f>
+        <f t="shared" si="4"/>
         <v>2106.5600000000013</v>
       </c>
     </row>
@@ -2773,12 +2776,12 @@
       <c r="C120">
         <v>18.739999999999998</v>
       </c>
-      <c r="H120">
-        <f>IF(L257="f",C120,)</f>
-        <v>0</v>
+      <c r="H120" t="e">
+        <f>IF(#REF!="f",C120,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J120">
-        <f>J119-C120+G257</f>
+        <f t="shared" si="4"/>
         <v>2087.8200000000015</v>
       </c>
     </row>
@@ -2786,16 +2789,16 @@
       <c r="C121">
         <v>5.65</v>
       </c>
-      <c r="H121">
-        <f>IF(L258="f",C121,)</f>
-        <v>5.65</v>
+      <c r="H121" t="e">
+        <f>IF(#REF!="f",C121,)</f>
+        <v>#REF!</v>
       </c>
       <c r="J121">
-        <f>J120-C121+G258</f>
+        <f t="shared" si="4"/>
         <v>2082.1700000000014</v>
       </c>
       <c r="K121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
@@ -2805,39 +2808,51 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K124">
+      <c r="K124" t="e">
         <f>SUM(H103:H121)</f>
-        <v>89.91</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K133" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K134" t="s">
+        <v>83</v>
+      </c>
+      <c r="L134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K135" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K135" t="s">
+      <c r="L135" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K138" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G140">
         <v>631.64</v>
@@ -2847,7 +2862,7 @@
       </c>
       <c r="I140" s="12"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H141" s="17">
         <v>9</v>
       </c>
@@ -2855,13 +2870,13 @@
         <v>3.99</v>
       </c>
       <c r="K141" t="s">
-        <v>85</v>
-      </c>
-      <c r="L141" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="M141" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H142" s="17">
         <v>9</v>
       </c>
@@ -2869,16 +2884,16 @@
         <v>14.67</v>
       </c>
       <c r="K142" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L142" t="s">
-        <v>0</v>
-      </c>
-      <c r="N142" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M142" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G143">
         <v>36.5</v>
       </c>
@@ -2886,11 +2901,11 @@
         <v>10</v>
       </c>
       <c r="I143" s="12"/>
-      <c r="L143" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G144">
         <v>0.35</v>
       </c>
@@ -2899,7 +2914,7 @@
       </c>
       <c r="I144" s="12"/>
     </row>
-    <row r="145" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G145">
         <v>0.17</v>
       </c>
@@ -2908,7 +2923,7 @@
       </c>
       <c r="I145" s="12"/>
     </row>
-    <row r="146" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H146" s="17">
         <v>10</v>
       </c>
@@ -2916,13 +2931,13 @@
         <v>43.75</v>
       </c>
       <c r="K146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L146" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="7:14" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H147" s="17">
         <v>10</v>
       </c>
@@ -2930,13 +2945,13 @@
         <v>7.59</v>
       </c>
       <c r="K147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="7:14" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H148" s="17">
         <v>10</v>
       </c>
@@ -2944,35 +2959,35 @@
         <v>102.69</v>
       </c>
       <c r="K148" t="s">
-        <v>87</v>
-      </c>
-      <c r="L148" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="149" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H149" s="17">
         <v>10</v>
       </c>
       <c r="I149" s="12">
         <v>0.35</v>
       </c>
-      <c r="L149" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H150" s="17">
         <v>10</v>
       </c>
       <c r="I150" s="12">
         <v>0.17</v>
       </c>
-      <c r="L150" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H151" s="17">
         <v>11</v>
       </c>
@@ -2980,13 +2995,13 @@
         <v>69.95</v>
       </c>
       <c r="K151" t="s">
-        <v>87</v>
-      </c>
-      <c r="L151" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="152" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M151" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H152" s="17">
         <v>11</v>
       </c>
@@ -2994,13 +3009,13 @@
         <v>42</v>
       </c>
       <c r="K152" t="s">
-        <v>87</v>
-      </c>
-      <c r="L152" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M152" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H153" s="17">
         <v>11</v>
       </c>
@@ -3008,13 +3023,13 @@
         <v>87.75</v>
       </c>
       <c r="K153" t="s">
-        <v>87</v>
-      </c>
-      <c r="L153" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="154" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H154" s="17">
         <v>11</v>
       </c>
@@ -3022,16 +3037,16 @@
         <v>20.49</v>
       </c>
       <c r="K154" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L154" t="s">
-        <v>0</v>
-      </c>
-      <c r="N154" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="155" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M154" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G155" s="1"/>
       <c r="H155" s="18">
         <v>16</v>
@@ -3040,16 +3055,16 @@
         <v>15.44</v>
       </c>
       <c r="K155" t="s">
-        <v>86</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N155" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="7:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L155" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H156" s="17">
         <v>16</v>
       </c>
@@ -3057,16 +3072,16 @@
         <v>11.6</v>
       </c>
       <c r="K156" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L156" t="s">
-        <v>0</v>
-      </c>
-      <c r="N156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H157" s="17">
         <v>16</v>
       </c>
@@ -3074,13 +3089,13 @@
         <v>4</v>
       </c>
       <c r="K157" t="s">
-        <v>88</v>
-      </c>
-      <c r="L157" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="158" spans="7:14" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="M157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H158" s="17">
         <v>16</v>
       </c>
@@ -3088,13 +3103,13 @@
         <v>22.86</v>
       </c>
       <c r="K158" t="s">
-        <v>87</v>
-      </c>
-      <c r="L158" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="159" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H159" s="17">
         <v>16</v>
       </c>
@@ -3102,13 +3117,13 @@
         <v>20</v>
       </c>
       <c r="K159" t="s">
-        <v>87</v>
-      </c>
-      <c r="L159" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H160" s="17">
         <v>16</v>
       </c>
@@ -3116,13 +3131,13 @@
         <v>27.72</v>
       </c>
       <c r="K160" t="s">
-        <v>87</v>
-      </c>
-      <c r="L160" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H161" s="17">
         <v>16</v>
       </c>
@@ -3130,13 +3145,13 @@
         <v>11</v>
       </c>
       <c r="K161" t="s">
-        <v>85</v>
-      </c>
-      <c r="L161" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="162" spans="7:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="M161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H162" s="17">
         <v>17</v>
       </c>
@@ -3144,16 +3159,16 @@
         <v>3.55</v>
       </c>
       <c r="K162" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L162" t="s">
-        <v>0</v>
-      </c>
-      <c r="N162" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G163">
         <v>33</v>
       </c>
@@ -3161,11 +3176,11 @@
         <v>19</v>
       </c>
       <c r="I163" s="12"/>
-      <c r="L163" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H164" s="17">
         <v>19</v>
       </c>
@@ -3173,16 +3188,16 @@
         <v>11.44</v>
       </c>
       <c r="K164" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L164" t="s">
-        <v>0</v>
-      </c>
-      <c r="N164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G165" s="1"/>
       <c r="H165" s="18">
         <v>22</v>
@@ -3191,16 +3206,16 @@
         <v>10.63</v>
       </c>
       <c r="K165" t="s">
-        <v>86</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N165" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="7:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L165" t="s">
+        <v>88</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H166" s="17">
         <v>22</v>
       </c>
@@ -3208,13 +3223,16 @@
         <v>8</v>
       </c>
       <c r="K166" t="s">
-        <v>85</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="7:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="L166" t="s">
+        <v>11</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H167" s="17">
         <v>22</v>
       </c>
@@ -3222,13 +3240,13 @@
         <v>3.07</v>
       </c>
       <c r="K167" t="s">
-        <v>86</v>
-      </c>
-      <c r="L167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="7:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="M167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H168" s="17">
         <v>22</v>
       </c>
@@ -3236,16 +3254,16 @@
         <v>34.01</v>
       </c>
       <c r="K168" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L168" t="s">
-        <v>0</v>
-      </c>
-      <c r="N168" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="169" spans="7:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H169" s="17">
         <v>22</v>
       </c>
@@ -3253,16 +3271,16 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="K169" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L169" t="s">
-        <v>0</v>
-      </c>
-      <c r="N169" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H170" s="17">
         <v>22</v>
       </c>
@@ -3270,16 +3288,16 @@
         <v>4.04</v>
       </c>
       <c r="K170" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L170" t="s">
-        <v>0</v>
-      </c>
-      <c r="N170" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="171" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G171">
         <v>65</v>
       </c>
@@ -3287,11 +3305,11 @@
         <v>23</v>
       </c>
       <c r="I171" s="12"/>
-      <c r="L171" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H172" s="17">
         <v>23</v>
       </c>
@@ -3299,13 +3317,13 @@
         <v>8.31</v>
       </c>
       <c r="K172" t="s">
-        <v>88</v>
-      </c>
-      <c r="L172" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="7:14" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="M172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H173" s="17">
         <v>23</v>
       </c>
@@ -3313,13 +3331,13 @@
         <v>297.5</v>
       </c>
       <c r="K173" t="s">
-        <v>26</v>
-      </c>
-      <c r="L173" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="7:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H174" s="17">
         <v>24</v>
       </c>
@@ -3327,13 +3345,13 @@
         <v>4.3</v>
       </c>
       <c r="K174" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L174" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="175" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H175" s="17">
         <v>24</v>
       </c>
@@ -3341,13 +3359,13 @@
         <v>20.91</v>
       </c>
       <c r="K175" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L175" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="7:14" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H176" s="17">
         <v>25</v>
       </c>
@@ -3355,10 +3373,10 @@
         <v>20.64</v>
       </c>
       <c r="K176" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L176" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -3369,10 +3387,10 @@
         <v>5</v>
       </c>
       <c r="K177" t="s">
-        <v>85</v>
-      </c>
-      <c r="L177" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="M177" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -3383,10 +3401,10 @@
         <v>10.39</v>
       </c>
       <c r="K178" t="s">
-        <v>88</v>
-      </c>
-      <c r="L178" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="M178" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3397,10 +3415,10 @@
         <v>14.1</v>
       </c>
       <c r="K179" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L179" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -3411,8 +3429,8 @@
       <c r="I180" s="15">
         <v>5.99</v>
       </c>
-      <c r="L180" s="1" t="s">
-        <v>15</v>
+      <c r="M180" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="N180" s="1"/>
     </row>
@@ -3424,10 +3442,10 @@
         <v>14</v>
       </c>
       <c r="K181" t="s">
-        <v>87</v>
-      </c>
-      <c r="L181" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="M181" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,10 +3456,10 @@
         <v>5.75</v>
       </c>
       <c r="K182" t="s">
-        <v>87</v>
-      </c>
-      <c r="L182" t="s">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="M182" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -3452,13 +3470,13 @@
         <v>19.23</v>
       </c>
       <c r="K183" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L183" t="s">
-        <v>0</v>
-      </c>
-      <c r="N183" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="M183" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -3469,10 +3487,10 @@
         <v>17.46</v>
       </c>
       <c r="K184" t="s">
-        <v>87</v>
-      </c>
-      <c r="L184" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="M184" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -3482,8 +3500,8 @@
       <c r="I185" s="14">
         <v>3.11</v>
       </c>
-      <c r="L185" t="s">
-        <v>15</v>
+      <c r="M185" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -3494,10 +3512,10 @@
         <v>4.16</v>
       </c>
       <c r="K186" t="s">
-        <v>85</v>
-      </c>
-      <c r="L186" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="M186" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -3508,18 +3526,18 @@
         <v>10</v>
       </c>
       <c r="K187" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L187" t="s">
-        <v>0</v>
-      </c>
-      <c r="N187" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="M187" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H188" s="17">
         <v>1</v>
@@ -3528,13 +3546,13 @@
         <v>11.17</v>
       </c>
       <c r="K188" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L188" t="s">
-        <v>1</v>
-      </c>
-      <c r="N188" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="M188" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -3545,10 +3563,10 @@
         <v>200</v>
       </c>
       <c r="K189" t="s">
-        <v>26</v>
-      </c>
-      <c r="L189" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="M189" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3559,10 +3577,10 @@
         <v>200</v>
       </c>
       <c r="K190" t="s">
-        <v>26</v>
-      </c>
-      <c r="L190" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="M190" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -3573,8 +3591,8 @@
       <c r="I191" s="15">
         <v>22.88</v>
       </c>
-      <c r="L191" s="1" t="s">
-        <v>15</v>
+      <c r="M191" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="N191" s="1"/>
     </row>
@@ -3586,16 +3604,16 @@
         <v>14</v>
       </c>
       <c r="K192" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L192" t="s">
-        <v>14</v>
-      </c>
-      <c r="N192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="7:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M192" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H193" s="17">
         <v>5</v>
       </c>
@@ -3603,16 +3621,16 @@
         <v>35.590000000000003</v>
       </c>
       <c r="K193" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L193" t="s">
-        <v>0</v>
-      </c>
-      <c r="N193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="7:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H194" s="17">
         <v>6</v>
       </c>
@@ -3620,13 +3638,13 @@
         <v>6.93</v>
       </c>
       <c r="K194" t="s">
-        <v>85</v>
-      </c>
-      <c r="L194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="7:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="M194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H195" s="17">
         <v>6</v>
       </c>
@@ -3634,13 +3652,13 @@
         <v>10.39</v>
       </c>
       <c r="K195" t="s">
-        <v>85</v>
-      </c>
-      <c r="L195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="7:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="M195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H196" s="17">
         <v>7</v>
       </c>
@@ -3648,13 +3666,16 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="K196" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H197" s="17">
         <v>7</v>
       </c>
@@ -3662,13 +3683,10 @@
         <v>4.3</v>
       </c>
       <c r="K197" t="s">
-        <v>86</v>
-      </c>
-      <c r="L197" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="7:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G198">
         <v>461</v>
       </c>
@@ -3676,11 +3694,11 @@
         <v>8</v>
       </c>
       <c r="I198" s="12"/>
-      <c r="L198" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H199" s="17">
         <v>8</v>
       </c>
@@ -3688,16 +3706,16 @@
         <v>7.54</v>
       </c>
       <c r="K199" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L199" t="s">
-        <v>0</v>
-      </c>
-      <c r="N199" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="200" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M199" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H200" s="17">
         <v>8</v>
       </c>
@@ -3705,13 +3723,13 @@
         <v>6</v>
       </c>
       <c r="K200" t="s">
-        <v>87</v>
-      </c>
-      <c r="L200" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="201" spans="7:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M200" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H201" s="17">
         <v>8</v>
       </c>
@@ -3719,16 +3737,16 @@
         <v>5.58</v>
       </c>
       <c r="K201" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L201" t="s">
-        <v>0</v>
-      </c>
-      <c r="N201" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M201" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H202" s="17">
         <v>8</v>
       </c>
@@ -3736,13 +3754,13 @@
         <v>575</v>
       </c>
       <c r="K202" t="s">
-        <v>26</v>
-      </c>
-      <c r="L202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="M202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H203" s="17">
         <v>9</v>
       </c>
@@ -3750,16 +3768,16 @@
         <v>34.47</v>
       </c>
       <c r="K203" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L203" t="s">
-        <v>0</v>
-      </c>
-      <c r="N203" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="204" spans="7:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M203" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G204" s="1"/>
       <c r="H204" s="18">
         <v>12</v>
@@ -3768,16 +3786,16 @@
         <v>5.56</v>
       </c>
       <c r="K204" t="s">
-        <v>86</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="205" spans="7:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L204" t="s">
+        <v>88</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H205" s="17">
         <v>12</v>
       </c>
@@ -3785,16 +3803,16 @@
         <v>12.68</v>
       </c>
       <c r="K205" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L205" t="s">
-        <v>0</v>
-      </c>
-      <c r="N205" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="206" spans="7:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H206" s="17">
         <v>12</v>
       </c>
@@ -3802,32 +3820,32 @@
         <v>5</v>
       </c>
       <c r="K206" t="s">
-        <v>85</v>
-      </c>
-      <c r="L206" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="207" spans="7:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="M206" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H207" s="17">
         <v>12</v>
       </c>
       <c r="I207" s="14">
         <v>20.79</v>
       </c>
-      <c r="L207" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="208" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="M207" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="208" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H208" s="17">
         <v>13</v>
       </c>
       <c r="I208" s="12">
         <v>8</v>
       </c>
-      <c r="L208" t="s">
-        <v>31</v>
+      <c r="M208" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="7:14" x14ac:dyDescent="0.2">
@@ -3838,13 +3856,13 @@
         <v>5.56</v>
       </c>
       <c r="K209" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L209" t="s">
-        <v>0</v>
-      </c>
-      <c r="N209" t="s">
-        <v>51</v>
+        <v>88</v>
+      </c>
+      <c r="M209" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="210" spans="7:14" x14ac:dyDescent="0.2">
@@ -3855,10 +3873,10 @@
         <v>8.31</v>
       </c>
       <c r="K210" t="s">
-        <v>88</v>
-      </c>
-      <c r="L210" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="M210" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="211" spans="7:14" x14ac:dyDescent="0.2">
@@ -3869,13 +3887,13 @@
         <v>6.12</v>
       </c>
       <c r="K211" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L211" t="s">
-        <v>0</v>
-      </c>
-      <c r="N211" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="M211" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="7:14" x14ac:dyDescent="0.2">
@@ -3886,13 +3904,13 @@
         <v>15.04</v>
       </c>
       <c r="K212" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L212" t="s">
-        <v>0</v>
-      </c>
-      <c r="N212" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="M212" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="7:14" x14ac:dyDescent="0.2">
@@ -3903,10 +3921,10 @@
         <v>12</v>
       </c>
       <c r="K213" t="s">
-        <v>85</v>
-      </c>
-      <c r="L213" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="M213" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="214" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3916,8 +3934,8 @@
       <c r="I214" s="12">
         <v>17.37</v>
       </c>
-      <c r="L214" t="s">
-        <v>31</v>
+      <c r="M214" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="7:14" x14ac:dyDescent="0.2">
@@ -3929,10 +3947,10 @@
         <v>24.52</v>
       </c>
       <c r="K215" t="s">
-        <v>87</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N215" s="1"/>
     </row>
@@ -3944,13 +3962,13 @@
         <v>12.35</v>
       </c>
       <c r="K216" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L216" t="s">
-        <v>0</v>
-      </c>
-      <c r="N216" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="M216" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="7:14" x14ac:dyDescent="0.2">
@@ -3961,13 +3979,13 @@
         <v>4.3</v>
       </c>
       <c r="K217" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L217" t="s">
-        <v>0</v>
-      </c>
-      <c r="N217" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="M217" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="218" spans="7:14" x14ac:dyDescent="0.2">
@@ -3978,13 +3996,13 @@
         <v>14.1</v>
       </c>
       <c r="K218" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L218" t="s">
-        <v>1</v>
-      </c>
-      <c r="N218" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="M218" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="7:14" x14ac:dyDescent="0.2">
@@ -3995,13 +4013,13 @@
         <v>8.99</v>
       </c>
       <c r="K219" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L219" t="s">
-        <v>1</v>
-      </c>
-      <c r="N219" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="M219" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="220" spans="7:14" x14ac:dyDescent="0.2">
@@ -4011,8 +4029,8 @@
       <c r="I220" s="12">
         <v>11</v>
       </c>
-      <c r="L220" t="s">
-        <v>31</v>
+      <c r="M220" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="7:14" x14ac:dyDescent="0.2">
@@ -4023,13 +4041,13 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="K221" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L221" t="s">
-        <v>0</v>
-      </c>
-      <c r="N221" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="M221" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="7:14" x14ac:dyDescent="0.2">
@@ -4040,10 +4058,10 @@
         <v>9.49</v>
       </c>
       <c r="K222" t="s">
-        <v>85</v>
-      </c>
-      <c r="L222" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="M222" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="7:14" x14ac:dyDescent="0.2">
@@ -4054,13 +4072,13 @@
         <v>22.56</v>
       </c>
       <c r="K223" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L223" t="s">
-        <v>0</v>
-      </c>
-      <c r="N223" t="s">
-        <v>61</v>
+        <v>88</v>
+      </c>
+      <c r="M223" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="7:14" x14ac:dyDescent="0.2">
@@ -4071,10 +4089,10 @@
         <v>4.16</v>
       </c>
       <c r="K224" t="s">
-        <v>86</v>
-      </c>
-      <c r="L224" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="M224" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -4085,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="K225" t="s">
-        <v>85</v>
-      </c>
-      <c r="L225" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="M225" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -4099,10 +4117,10 @@
         <v>5.38</v>
       </c>
       <c r="K226" t="s">
-        <v>85</v>
-      </c>
-      <c r="L226" t="s">
-        <v>63</v>
+        <v>83</v>
+      </c>
+      <c r="M226" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -4113,8 +4131,8 @@
         <v>23</v>
       </c>
       <c r="I227" s="12"/>
-      <c r="L227" t="s">
-        <v>64</v>
+      <c r="M227" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -4125,8 +4143,8 @@
         <v>23</v>
       </c>
       <c r="I228" s="12"/>
-      <c r="L228" t="s">
-        <v>64</v>
+      <c r="M228" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -4137,8 +4155,8 @@
         <v>23</v>
       </c>
       <c r="I229" s="12"/>
-      <c r="L229" t="s">
-        <v>64</v>
+      <c r="M229" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -4149,10 +4167,10 @@
         <v>8.9</v>
       </c>
       <c r="K230" t="s">
-        <v>88</v>
-      </c>
-      <c r="L230" t="s">
-        <v>27</v>
+        <v>86</v>
+      </c>
+      <c r="M230" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4162,8 +4180,8 @@
       <c r="I231" s="12">
         <v>0.11</v>
       </c>
-      <c r="L231" t="s">
-        <v>64</v>
+      <c r="M231" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -4175,13 +4193,13 @@
         <v>4.84</v>
       </c>
       <c r="K232" t="s">
-        <v>86</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="L232" t="s">
+        <v>88</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -4192,10 +4210,10 @@
         <v>19.72</v>
       </c>
       <c r="K233" t="s">
-        <v>85</v>
-      </c>
-      <c r="L233" s="3" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -4206,11 +4224,12 @@
         <v>58.81</v>
       </c>
       <c r="K234" t="s">
-        <v>86</v>
-      </c>
-      <c r="L234" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="L234" t="s">
+        <v>77</v>
+      </c>
+      <c r="M234" s="3"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H235" s="17">
@@ -4220,13 +4239,13 @@
         <v>3.64</v>
       </c>
       <c r="K235" t="s">
-        <v>86</v>
-      </c>
-      <c r="L235" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N235" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="L235" t="s">
+        <v>88</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
@@ -4237,15 +4256,15 @@
         <v>10.39</v>
       </c>
       <c r="K236" t="s">
-        <v>88</v>
-      </c>
-      <c r="L236" s="3" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G237">
         <v>322.95999999999998</v>
@@ -4254,8 +4273,8 @@
         <v>1</v>
       </c>
       <c r="I237" s="12"/>
-      <c r="L237" s="3" t="s">
-        <v>31</v>
+      <c r="M237" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -4266,13 +4285,13 @@
         <v>5.56</v>
       </c>
       <c r="K238" t="s">
-        <v>86</v>
-      </c>
-      <c r="L238" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N238" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
+      </c>
+      <c r="L238" t="s">
+        <v>88</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4284,10 +4303,10 @@
         <v>12</v>
       </c>
       <c r="K239" t="s">
-        <v>88</v>
-      </c>
-      <c r="L239" s="6" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="M239" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="N239" s="5"/>
     </row>
@@ -4299,11 +4318,11 @@
         <v>5</v>
       </c>
       <c r="I240" s="12"/>
-      <c r="L240" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="241" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="M240" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H241" s="17">
         <v>5</v>
       </c>
@@ -4311,16 +4330,16 @@
         <v>9.68</v>
       </c>
       <c r="K241" t="s">
-        <v>86</v>
-      </c>
-      <c r="L241" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N241" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="242" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L241" t="s">
+        <v>88</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H242" s="17">
         <v>5</v>
       </c>
@@ -4328,16 +4347,16 @@
         <v>5.92</v>
       </c>
       <c r="K242" t="s">
-        <v>86</v>
-      </c>
-      <c r="L242" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N242" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="243" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L242" t="s">
+        <v>88</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H243" s="17">
         <v>5</v>
       </c>
@@ -4345,13 +4364,13 @@
         <v>28.84</v>
       </c>
       <c r="K243" t="s">
-        <v>87</v>
-      </c>
-      <c r="L243" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="244" spans="8:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H244" s="17">
         <v>5</v>
       </c>
@@ -4359,16 +4378,16 @@
         <v>5.58</v>
       </c>
       <c r="K244" t="s">
-        <v>86</v>
-      </c>
-      <c r="L244" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N244" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="245" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L244" t="s">
+        <v>88</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="245" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H245" s="17">
         <v>5</v>
       </c>
@@ -4376,16 +4395,16 @@
         <v>38.17</v>
       </c>
       <c r="K245" t="s">
-        <v>86</v>
-      </c>
-      <c r="L245" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N245" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="246" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L245" t="s">
+        <v>88</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H246" s="17">
         <v>5</v>
       </c>
@@ -4393,13 +4412,13 @@
         <v>23</v>
       </c>
       <c r="K246" t="s">
-        <v>87</v>
-      </c>
-      <c r="L246" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="247" spans="8:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H247" s="17">
         <v>5</v>
       </c>
@@ -4407,13 +4426,13 @@
         <v>25.53</v>
       </c>
       <c r="K247" t="s">
-        <v>87</v>
-      </c>
-      <c r="L247" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="248" spans="8:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H248" s="17">
         <v>5</v>
       </c>
@@ -4421,27 +4440,27 @@
         <v>7.5</v>
       </c>
       <c r="K248" t="s">
-        <v>86</v>
-      </c>
-      <c r="L248" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N248" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L248" t="s">
+        <v>88</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="249" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H249" s="17">
         <v>5</v>
       </c>
       <c r="I249" s="14">
         <v>3.99</v>
       </c>
-      <c r="L249" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="250" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="M249" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H250" s="17">
         <v>6</v>
       </c>
@@ -4449,16 +4468,16 @@
         <v>6.33</v>
       </c>
       <c r="K250" t="s">
-        <v>86</v>
-      </c>
-      <c r="L250" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N250" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L250" t="s">
+        <v>88</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H251" s="17">
         <v>7</v>
       </c>
@@ -4466,13 +4485,14 @@
         <v>20</v>
       </c>
       <c r="K251" t="s">
-        <v>86</v>
-      </c>
-      <c r="L251" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L251" t="s">
+        <v>77</v>
+      </c>
+      <c r="M251" s="3"/>
+    </row>
+    <row r="252" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H252" s="17">
         <v>7</v>
       </c>
@@ -4480,13 +4500,13 @@
         <v>30.46</v>
       </c>
       <c r="K252" t="s">
-        <v>87</v>
-      </c>
-      <c r="L252" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="253" spans="8:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H253" s="17">
         <v>8</v>
       </c>
@@ -4494,16 +4514,16 @@
         <v>3.64</v>
       </c>
       <c r="K253" t="s">
-        <v>86</v>
-      </c>
-      <c r="L253" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N253" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="254" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L253" t="s">
+        <v>88</v>
+      </c>
+      <c r="M253" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="254" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H254" s="17">
         <v>8</v>
       </c>
@@ -4511,13 +4531,13 @@
         <v>575</v>
       </c>
       <c r="K254" t="s">
-        <v>26</v>
-      </c>
-      <c r="L254" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="8:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H255" s="17">
         <v>9</v>
       </c>
@@ -4525,16 +4545,16 @@
         <v>7.44</v>
       </c>
       <c r="K255" t="s">
-        <v>86</v>
-      </c>
-      <c r="L255" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N255" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="256" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L255" t="s">
+        <v>88</v>
+      </c>
+      <c r="M255" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H256" s="17">
         <v>9</v>
       </c>
@@ -4542,40 +4562,40 @@
         <v>6</v>
       </c>
       <c r="K256" t="s">
-        <v>87</v>
-      </c>
-      <c r="L256" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="257" spans="8:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H257" s="17"/>
       <c r="I257" s="12">
         <v>18.739999999999998</v>
       </c>
       <c r="K257" t="s">
-        <v>86</v>
-      </c>
-      <c r="L257" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N257" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="258" spans="8:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L257" t="s">
+        <v>77</v>
+      </c>
+      <c r="M257" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="258" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H258" s="17"/>
       <c r="I258" s="12">
         <v>5.65</v>
       </c>
       <c r="K258" t="s">
-        <v>86</v>
-      </c>
-      <c r="L258" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N258" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+      <c r="L258" t="s">
+        <v>88</v>
+      </c>
+      <c r="M258" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/MONEY.xlsx
+++ b/MONEY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elihermann/Documents/GitHub/Money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AE51C-1E0B-BE45-B547-4713B10C7262}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515975D-C1FA-9F48-BB53-7817F77533BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="27940" windowHeight="15840" xr2:uid="{D96C4238-3DB7-EB4A-9DC3-2C3F0638F275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -364,13 +364,268 @@
   </si>
   <si>
     <t>108.49-</t>
+  </si>
+  <si>
+    <t>MCDONALD'S F3411 DDA PUR RF#083644 030818 LOGAN UT</t>
+  </si>
+  <si>
+    <t>Wal-Mart Super Cent DDA PUR RF#595122 031018 NORTH LOGAN UT</t>
+  </si>
+  <si>
+    <t>MCDONALD'S F3411 DDA PUR RF#026429 030918 LOGAN UT</t>
+  </si>
+  <si>
+    <t>CHICK-FIL-A #02614 DDA PUR RF#055358 030918 LOGAN UT</t>
+  </si>
+  <si>
+    <t>SMITHS FOO PIN PUR RF#512175 031018 LOGAN UT</t>
+  </si>
+  <si>
+    <t>Amazon Digital Svcs DDA PUR RF#006230 031118 AMZN.COM/bill WA</t>
+  </si>
+  <si>
+    <t>POW MOW TICKET SALE DDA PUR RF#012816 030818 801-7453772 UT</t>
+  </si>
+  <si>
+    <t>POW MOW TICKET SALE DDA PUR RF#012818 030818 801-7453772 UT</t>
+  </si>
+  <si>
+    <t>TST* COSTA VIDA 000 DDA PUR RF#005500 031318 LOGAN UT</t>
+  </si>
+  <si>
+    <t>CACHE VALL PIN PUR RF#807438670214 031518 N. LOGAN UT</t>
+  </si>
+  <si>
+    <t>Audible DDA PUR RF#013080 031518 adbl.co/bill NJ</t>
+  </si>
+  <si>
+    <t>Amazon Video On Dem DDA PUR RF#069391 031518 AMZN.COM/bill WA</t>
+  </si>
+  <si>
+    <t>VENMO PAYMENT ELI HERMANN</t>
+  </si>
+  <si>
+    <t>Amazon Video On Dem DDA PUR RF#079091 031618 AMZN.COM/bill WA</t>
+  </si>
+  <si>
+    <t>Wal-Mart S DDA PUR RF#807751911946 031718 NORTH LOGAN UT</t>
+  </si>
+  <si>
+    <t>CHISPITA BAKERY PAN DDA PUR RF#072664 031618 LOGAN UT</t>
+  </si>
+  <si>
+    <t>Amazon Video On Dem DDA PUR RF#075053 031818 AMZN.COM/bill WA</t>
+  </si>
+  <si>
+    <t>FIREHOUSE PIZZERIA DDA PUR RF#033928 031918 LOGAN UT</t>
+  </si>
+  <si>
+    <t>USA GASOLI PIN PUR RF#TESO62001 032118 BRIGHAM CITY UT</t>
+  </si>
+  <si>
+    <t>PROVO CITY CNTR TEM DDA PUR RF#090023 032118 PROVO UT</t>
+  </si>
+  <si>
+    <t>Spotify USA REC POS RF#089012 032218 646-8375380 NY</t>
+  </si>
+  <si>
+    <t>LDS CHURCH DONATION HERMANN ELI JOSEPH</t>
+  </si>
+  <si>
+    <t>Wal-Mart S DDA PUR RF#808275651692 032218 NORTH LOGAN UT</t>
+  </si>
+  <si>
+    <t>TST* COSTA VIDA 000 DDA PUR RF#017974 032218 LOGAN UT</t>
+  </si>
+  <si>
+    <t>Wal-Mart Super Cent DDA PUR RF#657707 032318 NORTH LOGAN UT</t>
+  </si>
+  <si>
+    <t>PP*KRISHNATEMP DDA PUR RF#096447 032418 SPANISH FOR UT</t>
+  </si>
+  <si>
+    <t>PP*KRISHNATEMP DDA PUR RF#022358 032418 SPANISH FOR UT</t>
+  </si>
+  <si>
+    <t>IN N OUT BURGER 239 DDA PUR RF#021680 032418 AMERICAN FORK UT</t>
+  </si>
+  <si>
+    <t>AMAZON DIGITAL SVCS DDA PUR RF#070305 032618 888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>DESERET BOOK DOWNLO REC POS RF#067346 032618 DESERETBOOK.C UT</t>
+  </si>
+  <si>
+    <t>MCDONALD'S F3411 DDA PUR RF#038741 032718 LOGAN UT</t>
+  </si>
+  <si>
+    <t>SHELL PIN PUR RF#000000991385 032918 NORTH LOGAN UT</t>
+  </si>
+  <si>
+    <t>VENMO CASHOUT ELI HERMANN</t>
+  </si>
+  <si>
+    <t>WENDY'S # 5701 DDA PUR RF#051283 033018 LOGAN UT</t>
+  </si>
+  <si>
+    <t>WENDY'S # 5702 DDA PUR RF#077367 033118 LOGAN UT</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>VENMO PAYMENT</t>
+  </si>
+  <si>
+    <t>WAL-MART #</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>how much money am I going to make in april?</t>
+  </si>
+  <si>
+    <t>how much money do I make per hour?</t>
+  </si>
+  <si>
+    <t>how many hours am I going to work in April?</t>
+  </si>
+  <si>
+    <t>how many hours can I work in a week?</t>
+  </si>
+  <si>
+    <t>how many weeks in april?</t>
+  </si>
+  <si>
+    <t>when is rent due for the house?</t>
+  </si>
+  <si>
+    <t>1475 on july 1st</t>
+  </si>
+  <si>
+    <t>925 on august 10th</t>
+  </si>
+  <si>
+    <t>how much do I need to save per month for this?</t>
+  </si>
+  <si>
+    <t>492 for 3 months</t>
+  </si>
+  <si>
+    <t>232 for 4 months</t>
+  </si>
+  <si>
+    <t>how about for old main villiage?</t>
+  </si>
+  <si>
+    <t>287.5 for april</t>
+  </si>
+  <si>
+    <t>237.5 for 4 months</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>This column is how much I need to save in each month</t>
+  </si>
+  <si>
+    <t>how much do I need to save each month to make rent?</t>
+  </si>
+  <si>
+    <t>how much money am I losing each month, and where will it leave me?</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>losing 405</t>
+  </si>
+  <si>
+    <t>how much money can I make in May?</t>
+  </si>
+  <si>
+    <t>how many hours can I work?</t>
+  </si>
+  <si>
+    <t>35 per week for 4 weeks</t>
+  </si>
+  <si>
+    <t>gain 633</t>
+  </si>
+  <si>
+    <t>in june I could work 35 hours for 4 weeks too</t>
+  </si>
+  <si>
+    <t>in july I could work 35 hours for 4 weeks too</t>
+  </si>
+  <si>
+    <t>gain 1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">august </t>
+  </si>
+  <si>
+    <t>leaving me with 1367</t>
+  </si>
+  <si>
+    <t>leaving me with 2000</t>
+  </si>
+  <si>
+    <t>leaving me with 2633</t>
+  </si>
+  <si>
+    <t>leaving me with 3682</t>
+  </si>
+  <si>
+    <t>leaving me with 4095</t>
+  </si>
+  <si>
+    <t>august id be back to 14 hours for 4 weeks</t>
+  </si>
+  <si>
+    <t>gain 369.6</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>End april with 1367</t>
+  </si>
+  <si>
+    <t>end May with 2000</t>
+  </si>
+  <si>
+    <t>end June with 2633</t>
+  </si>
+  <si>
+    <t>end July with 3682</t>
+  </si>
+  <si>
+    <t>end August with 4095</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +654,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFAA3333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -420,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -435,15 +702,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,19 +726,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,58 +781,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,6 +834,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11123299-33F5-9941-9C75-E88DF100DA22}">
-  <dimension ref="A1:X261"/>
+  <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F250" sqref="F250"/>
+    <sheetView tabSelected="1" topLeftCell="B280" zoomScale="110" workbookViewId="0">
+      <selection activeCell="Q340" sqref="Q340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,11 +1173,11 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -938,11 +1185,11 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -950,11 +1197,11 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -962,11 +1209,11 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -974,11 +1221,11 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -986,11 +1233,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -998,11 +1245,11 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -1010,11 +1257,11 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -1022,11 +1269,11 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1034,11 +1281,11 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
@@ -1046,11 +1293,11 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -1058,11 +1305,11 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1070,11 +1317,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -1082,11 +1329,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1094,11 +1341,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1106,11 +1353,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1118,11 +1365,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
@@ -1130,11 +1377,11 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
@@ -1142,11 +1389,11 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1154,11 +1401,11 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -1166,11 +1413,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
@@ -1178,11 +1425,11 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -1190,11 +1437,11 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -1202,11 +1449,11 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
@@ -1214,11 +1461,11 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -1226,11 +1473,11 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -1238,11 +1485,11 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -1250,11 +1497,11 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -1262,11 +1509,11 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -1274,11 +1521,11 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -1286,11 +1533,11 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -1298,11 +1545,11 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -1310,11 +1557,11 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -1322,11 +1569,11 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
@@ -1334,11 +1581,11 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -1346,11 +1593,11 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -1358,11 +1605,11 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
@@ -1370,11 +1617,11 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -1382,11 +1629,11 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1395,11 +1642,11 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -1407,11 +1654,11 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -1419,11 +1666,11 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -1431,11 +1678,11 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -1443,11 +1690,11 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
@@ -1455,11 +1702,11 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -1467,11 +1714,11 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -1479,11 +1726,11 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -1491,11 +1738,11 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
@@ -1503,11 +1750,11 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
@@ -1515,11 +1762,11 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1528,11 +1775,11 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
@@ -1540,11 +1787,11 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
@@ -1552,11 +1799,11 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
@@ -1564,11 +1811,11 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
@@ -1576,11 +1823,11 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
@@ -1588,11 +1835,11 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
@@ -1600,11 +1847,11 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -1612,11 +1859,11 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
@@ -1624,11 +1871,11 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -1636,11 +1883,11 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -1648,11 +1895,11 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
@@ -1660,11 +1907,11 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
@@ -1672,11 +1919,11 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
@@ -1684,11 +1931,11 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -1696,11 +1943,11 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
@@ -1708,11 +1955,11 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
@@ -1720,10 +1967,10 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -1732,10 +1979,10 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -1744,10 +1991,10 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -1756,10 +2003,10 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="3"/>
       <c r="K70" t="s">
         <v>17</v>
@@ -1771,10 +2018,10 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="3"/>
       <c r="K71" t="s">
         <v>71</v>
@@ -1789,11 +2036,11 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
       <c r="K72" t="s">
         <v>70</v>
       </c>
@@ -1807,11 +2054,11 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="15"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="15"/>
+      <c r="J73" s="11"/>
       <c r="K73" t="s">
         <v>72</v>
       </c>
@@ -1828,11 +2075,11 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="15"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="15"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
@@ -1840,11 +2087,11 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="15"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="15"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
@@ -1852,11 +2099,11 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="15"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="15"/>
+      <c r="J76" s="11"/>
       <c r="K76" t="s">
         <v>74</v>
       </c>
@@ -1867,11 +2114,11 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="15"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="15"/>
+      <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
@@ -1879,7 +2126,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="15"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -1891,10 +2138,10 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="15"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="24"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="20"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -1903,14 +2150,14 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="31" t="s">
+      <c r="F80" s="11"/>
+      <c r="G80" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H80" s="26">
+      <c r="H80" s="22">
         <v>43438</v>
       </c>
-      <c r="I80" s="22"/>
+      <c r="I80" s="18"/>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1919,12 +2166,12 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="15"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="26">
+      <c r="H81" s="22">
         <v>43438</v>
       </c>
-      <c r="I81" s="23" t="s">
+      <c r="I81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="J81" s="3"/>
@@ -1935,19 +2182,19 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="15"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="26">
+      <c r="H82" s="22">
         <v>43438</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J82" s="3"/>
-      <c r="T82" s="19" t="s">
+      <c r="T82" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="U82" s="20" t="s">
+      <c r="U82" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1957,12 +2204,12 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="15"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="26">
+      <c r="H83" s="22">
         <v>43438</v>
       </c>
-      <c r="I83" s="23" t="s">
+      <c r="I83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="J83" s="3"/>
@@ -1973,12 +2220,12 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="15"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="26">
+      <c r="H84" s="22">
         <v>43438</v>
       </c>
-      <c r="I84" s="23" t="s">
+      <c r="I84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J84" s="3"/>
@@ -1989,12 +2236,12 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="15"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="26">
+      <c r="H85" s="22">
         <v>43438</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="J85" s="3"/>
@@ -2005,12 +2252,12 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="15"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="26">
+      <c r="H86" s="22">
         <v>43439</v>
       </c>
-      <c r="I86" s="23" t="s">
+      <c r="I86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="J86" s="3"/>
@@ -2021,12 +2268,12 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="15"/>
+      <c r="F87" s="11"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="26">
+      <c r="H87" s="22">
         <v>43440</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="J87" s="3"/>
@@ -2037,12 +2284,12 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="15"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="26">
+      <c r="H88" s="22">
         <v>43440</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="J88" s="3"/>
@@ -2053,14 +2300,14 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="31" t="s">
+      <c r="F89" s="11"/>
+      <c r="G89" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H89" s="26">
+      <c r="H89" s="22">
         <v>43446</v>
       </c>
-      <c r="I89" s="22"/>
+      <c r="I89" s="18"/>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -2069,12 +2316,12 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="26">
+      <c r="F90" s="11"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="22">
         <v>43446</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="19" t="s">
         <v>86</v>
       </c>
       <c r="J90" s="3"/>
@@ -2085,12 +2332,12 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="26">
+      <c r="F91" s="11"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="22">
         <v>43447</v>
       </c>
-      <c r="I91" s="23" t="s">
+      <c r="I91" s="19" t="s">
         <v>90</v>
       </c>
       <c r="J91" s="3"/>
@@ -2101,12 +2348,12 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="26">
+      <c r="F92" s="11"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="22">
         <v>43448</v>
       </c>
-      <c r="I92" s="23" t="s">
+      <c r="I92" s="19" t="s">
         <v>91</v>
       </c>
       <c r="J92" s="3"/>
@@ -2117,12 +2364,12 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="26">
+      <c r="F93" s="11"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="22">
         <v>43448</v>
       </c>
-      <c r="I93" s="23" t="s">
+      <c r="I93" s="19" t="s">
         <v>92</v>
       </c>
       <c r="J93" s="3"/>
@@ -2133,12 +2380,12 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="26">
+      <c r="F94" s="11"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="22">
         <v>43448</v>
       </c>
-      <c r="I94" s="23" t="s">
+      <c r="I94" s="19" t="s">
         <v>93</v>
       </c>
       <c r="J94" s="3"/>
@@ -2149,12 +2396,12 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="26">
+      <c r="F95" s="11"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="22">
         <v>43448</v>
       </c>
-      <c r="I95" s="23" t="s">
+      <c r="I95" s="19" t="s">
         <v>94</v>
       </c>
       <c r="J95" s="3"/>
@@ -2166,12 +2413,12 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="26">
+      <c r="F96" s="11"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="22">
         <v>43448</v>
       </c>
-      <c r="I96" s="23" t="s">
+      <c r="I96" s="19" t="s">
         <v>95</v>
       </c>
       <c r="J96" s="3"/>
@@ -2183,12 +2430,12 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="26">
+      <c r="F97" s="11"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="22">
         <v>43448</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="19" t="s">
         <v>96</v>
       </c>
       <c r="J97" s="3"/>
@@ -2200,12 +2447,12 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="26">
+      <c r="F98" s="11"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="22">
         <v>43449</v>
       </c>
-      <c r="I98" s="23" t="s">
+      <c r="I98" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J98" s="3"/>
@@ -2217,12 +2464,12 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="26">
+      <c r="F99" s="11"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="22">
         <v>43452</v>
       </c>
-      <c r="I99" s="23" t="s">
+      <c r="I99" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J99" s="3"/>
@@ -2234,12 +2481,12 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="26">
+      <c r="F100" s="11"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="22">
         <v>43452</v>
       </c>
-      <c r="I100" s="23" t="s">
+      <c r="I100" s="19" t="s">
         <v>98</v>
       </c>
       <c r="J100" s="3"/>
@@ -2251,12 +2498,12 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="26">
+      <c r="F101" s="11"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="22">
         <v>43452</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="19" t="s">
         <v>87</v>
       </c>
       <c r="J101" s="3"/>
@@ -2268,12 +2515,12 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="26">
+      <c r="F102" s="11"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="22">
         <v>43453</v>
       </c>
-      <c r="I102" s="23" t="s">
+      <c r="I102" s="19" t="s">
         <v>99</v>
       </c>
       <c r="J102" s="3"/>
@@ -2285,11 +2532,11 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="23" t="s">
+      <c r="F103" s="11"/>
+      <c r="G103" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H103" s="26">
+      <c r="H103" s="22">
         <v>43454</v>
       </c>
       <c r="J103" s="3"/>
@@ -2300,18 +2547,18 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="31" t="s">
+      <c r="F104" s="11"/>
+      <c r="G104" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H104" s="26">
+      <c r="H104" s="22">
         <v>43454</v>
       </c>
-      <c r="I104" s="22"/>
+      <c r="I104" s="18"/>
       <c r="J104" s="3"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
@@ -2319,16 +2566,16 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="15"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="26">
+      <c r="H105" s="22">
         <v>43455</v>
       </c>
-      <c r="I105" s="23" t="s">
+      <c r="I105" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="14"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
@@ -2336,16 +2583,16 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="15"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="26">
+      <c r="H106" s="22">
         <v>43455</v>
       </c>
-      <c r="I106" s="23" t="s">
+      <c r="I106" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="W106" s="18"/>
-      <c r="X106" s="18"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="14"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
@@ -2353,16 +2600,16 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="15"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="26">
+      <c r="H107" s="22">
         <v>43455</v>
       </c>
-      <c r="I107" s="23" t="s">
+      <c r="I107" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="14"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
@@ -2370,15 +2617,15 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="23" t="s">
+      <c r="F108" s="11"/>
+      <c r="G108" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H108" s="26">
+      <c r="H108" s="22">
         <v>43460</v>
       </c>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
@@ -2386,16 +2633,16 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="15"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="26">
+      <c r="H109" s="22">
         <v>43460</v>
       </c>
-      <c r="I109" s="23" t="s">
+      <c r="I109" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="14"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
@@ -2403,16 +2650,16 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="21">
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="17">
         <v>43460</v>
       </c>
-      <c r="I110" s="23" t="s">
+      <c r="I110" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="W110" s="18"/>
-      <c r="X110" s="18"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="14"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
@@ -2420,33 +2667,33 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="31" t="s">
+      <c r="F111" s="11"/>
+      <c r="G111" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="17">
         <v>43462</v>
       </c>
-      <c r="I111" s="22"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="32"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="21">
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="17">
         <v>43462</v>
       </c>
-      <c r="I112" s="23" t="s">
+      <c r="I112" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="W112" s="18"/>
-      <c r="X112" s="18"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
@@ -2454,16 +2701,16 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="21">
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="17">
         <v>43462</v>
       </c>
-      <c r="I113" s="23" t="s">
+      <c r="I113" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
@@ -2471,14 +2718,14 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="H114" s="21">
+      <c r="H114" s="17">
         <v>43462</v>
       </c>
-      <c r="I114" s="23" t="s">
+      <c r="I114" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="W114" s="18"/>
-      <c r="X114" s="18"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="14"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
@@ -2486,14 +2733,14 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="H115" s="21">
+      <c r="H115" s="17">
         <v>43462</v>
       </c>
-      <c r="I115" s="23" t="s">
+      <c r="I115" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="W115" s="18"/>
-      <c r="X115" s="18"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="14"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
@@ -2501,15 +2748,15 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="H116" s="21">
+      <c r="H116" s="17">
         <v>43463</v>
       </c>
-      <c r="I116" s="23" t="s">
+      <c r="I116" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J116" s="15"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
+      <c r="J116" s="11"/>
+      <c r="W116" s="14"/>
+      <c r="X116" s="14"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -2517,32 +2764,32 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="H117" s="21">
+      <c r="H117" s="17">
         <v>43463</v>
       </c>
-      <c r="I117" s="23" t="s">
+      <c r="I117" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J117" s="15"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
+      <c r="J117" s="11"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="14"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="33"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="28">
+      <c r="G118" s="13"/>
+      <c r="H118" s="24">
         <v>43102</v>
       </c>
-      <c r="I118" s="24">
+      <c r="I118" s="20">
         <v>20.440000000000001</v>
       </c>
-      <c r="J118" s="15"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
+      <c r="J118" s="11"/>
+      <c r="W118" s="14"/>
+      <c r="X118" s="14"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
@@ -2550,16 +2797,16 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="28">
+      <c r="G119" s="13"/>
+      <c r="H119" s="24">
         <v>43102</v>
       </c>
-      <c r="I119" s="24">
+      <c r="I119" s="20">
         <v>9.25</v>
       </c>
-      <c r="J119" s="15"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
+      <c r="J119" s="11"/>
+      <c r="W119" s="14"/>
+      <c r="X119" s="14"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
@@ -2567,16 +2814,16 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="28">
+      <c r="G120" s="13"/>
+      <c r="H120" s="24">
         <v>43102</v>
       </c>
-      <c r="I120" s="24">
+      <c r="I120" s="20">
         <v>45.24</v>
       </c>
-      <c r="J120" s="15"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
+      <c r="J120" s="11"/>
+      <c r="W120" s="14"/>
+      <c r="X120" s="14"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -2584,15 +2831,15 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="29">
+      <c r="G121" s="13"/>
+      <c r="H121" s="25">
         <v>43102</v>
       </c>
-      <c r="I121" s="25">
+      <c r="I121" s="21">
         <v>7.46</v>
       </c>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
+      <c r="W121" s="14"/>
+      <c r="X121" s="14"/>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
@@ -2600,15 +2847,15 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="29">
+      <c r="G122" s="13"/>
+      <c r="H122" s="25">
         <v>43102</v>
       </c>
       <c r="I122">
         <v>24.81</v>
       </c>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
+      <c r="W122" s="14"/>
+      <c r="X122" s="14"/>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
@@ -2616,15 +2863,15 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="29">
+      <c r="G123" s="13"/>
+      <c r="H123" s="25">
         <v>43103</v>
       </c>
       <c r="I123">
         <v>14.87</v>
       </c>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
+      <c r="W123" s="14"/>
+      <c r="X123" s="14"/>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
@@ -2632,15 +2879,15 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="29">
+      <c r="G124" s="13"/>
+      <c r="H124" s="25">
         <v>43104</v>
       </c>
       <c r="I124">
         <v>2.4900000000000002</v>
       </c>
-      <c r="W124" s="18"/>
-      <c r="X124" s="18"/>
+      <c r="W124" s="14"/>
+      <c r="X124" s="14"/>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
@@ -2648,15 +2895,15 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="29">
+      <c r="G125" s="13"/>
+      <c r="H125" s="25">
         <v>43104</v>
       </c>
       <c r="I125">
         <v>28.37</v>
       </c>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
+      <c r="W125" s="14"/>
+      <c r="X125" s="14"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
@@ -2664,8 +2911,8 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="29">
+      <c r="G126" s="13"/>
+      <c r="H126" s="25">
         <v>43104</v>
       </c>
       <c r="I126">
@@ -2673,8 +2920,8 @@
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G127" s="17"/>
-      <c r="H127" s="29">
+      <c r="G127" s="13"/>
+      <c r="H127" s="25">
         <v>43104</v>
       </c>
       <c r="I127">
@@ -2682,8 +2929,8 @@
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="G128" s="17"/>
-      <c r="H128" s="29">
+      <c r="G128" s="13"/>
+      <c r="H128" s="25">
         <v>43104</v>
       </c>
       <c r="I128">
@@ -2691,8 +2938,8 @@
       </c>
     </row>
     <row r="129" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G129" s="17"/>
-      <c r="H129" s="29">
+      <c r="G129" s="13"/>
+      <c r="H129" s="25">
         <v>43104</v>
       </c>
       <c r="I129">
@@ -2700,8 +2947,8 @@
       </c>
     </row>
     <row r="130" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G130" s="17"/>
-      <c r="H130" s="29">
+      <c r="G130" s="13"/>
+      <c r="H130" s="25">
         <v>43104</v>
       </c>
       <c r="I130">
@@ -2709,8 +2956,8 @@
       </c>
     </row>
     <row r="131" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G131" s="17"/>
-      <c r="H131" s="29">
+      <c r="G131" s="13"/>
+      <c r="H131" s="25">
         <v>43104</v>
       </c>
       <c r="I131">
@@ -2718,8 +2965,8 @@
       </c>
     </row>
     <row r="132" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G132" s="17"/>
-      <c r="H132" s="29">
+      <c r="G132" s="13"/>
+      <c r="H132" s="25">
         <v>43105</v>
       </c>
       <c r="I132">
@@ -2727,8 +2974,8 @@
       </c>
     </row>
     <row r="133" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G133" s="17"/>
-      <c r="H133" s="29">
+      <c r="G133" s="13"/>
+      <c r="H133" s="25">
         <v>43105</v>
       </c>
       <c r="I133">
@@ -2736,8 +2983,8 @@
       </c>
     </row>
     <row r="134" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G134" s="17"/>
-      <c r="H134" s="29">
+      <c r="G134" s="13"/>
+      <c r="H134" s="25">
         <v>43105</v>
       </c>
       <c r="I134">
@@ -2745,8 +2992,8 @@
       </c>
     </row>
     <row r="135" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G135" s="17"/>
-      <c r="H135" s="29">
+      <c r="G135" s="13"/>
+      <c r="H135" s="25">
         <v>43108</v>
       </c>
       <c r="I135">
@@ -2754,8 +3001,8 @@
       </c>
     </row>
     <row r="136" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G136" s="17"/>
-      <c r="H136" s="29">
+      <c r="G136" s="13"/>
+      <c r="H136" s="25">
         <v>43108</v>
       </c>
       <c r="I136">
@@ -2763,8 +3010,8 @@
       </c>
     </row>
     <row r="137" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G137" s="17"/>
-      <c r="H137" s="29">
+      <c r="G137" s="13"/>
+      <c r="H137" s="25">
         <v>43108</v>
       </c>
       <c r="I137">
@@ -2772,8 +3019,8 @@
       </c>
     </row>
     <row r="138" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G138" s="17"/>
-      <c r="H138" s="29">
+      <c r="G138" s="13"/>
+      <c r="H138" s="25">
         <v>43108</v>
       </c>
       <c r="I138">
@@ -2781,8 +3028,8 @@
       </c>
     </row>
     <row r="139" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="G139" s="17"/>
-      <c r="H139" s="29">
+      <c r="G139" s="13"/>
+      <c r="H139" s="25">
         <v>43108</v>
       </c>
       <c r="I139">
@@ -2793,17 +3040,17 @@
       <c r="G140">
         <v>631.64</v>
       </c>
-      <c r="H140" s="30">
+      <c r="H140" s="26">
         <v>43109</v>
       </c>
-      <c r="I140" s="7"/>
-      <c r="T140" s="15"/>
+      <c r="I140" s="5"/>
+      <c r="T140" s="11"/>
     </row>
     <row r="141" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H141" s="30">
+      <c r="H141" s="26">
         <v>43109</v>
       </c>
-      <c r="I141" s="7">
+      <c r="I141" s="5">
         <v>3.99</v>
       </c>
       <c r="K141" t="s">
@@ -2812,13 +3059,13 @@
       <c r="M141" t="s">
         <v>35</v>
       </c>
-      <c r="T141" s="15"/>
+      <c r="T141" s="11"/>
     </row>
     <row r="142" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H142" s="30">
+      <c r="H142" s="26">
         <v>43110</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="5">
         <v>14.67</v>
       </c>
       <c r="K142" t="s">
@@ -2830,46 +3077,46 @@
       <c r="M142" t="s">
         <v>34</v>
       </c>
-      <c r="T142" s="15"/>
+      <c r="T142" s="11"/>
     </row>
     <row r="143" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G143">
         <v>36.5</v>
       </c>
-      <c r="H143" s="12">
+      <c r="H143" s="9">
         <v>10</v>
       </c>
-      <c r="I143" s="7"/>
+      <c r="I143" s="5"/>
       <c r="M143" t="s">
         <v>22</v>
       </c>
-      <c r="T143" s="15"/>
+      <c r="T143" s="11"/>
     </row>
     <row r="144" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G144">
         <v>0.35</v>
       </c>
-      <c r="H144" s="12">
+      <c r="H144" s="9">
         <v>10</v>
       </c>
-      <c r="I144" s="7"/>
-      <c r="T144" s="15"/>
+      <c r="I144" s="5"/>
+      <c r="T144" s="11"/>
     </row>
     <row r="145" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G145">
         <v>0.17</v>
       </c>
-      <c r="H145" s="12">
+      <c r="H145" s="9">
         <v>10</v>
       </c>
-      <c r="I145" s="7"/>
-      <c r="T145" s="15"/>
+      <c r="I145" s="5"/>
+      <c r="T145" s="11"/>
     </row>
     <row r="146" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H146" s="12">
+      <c r="H146" s="9">
         <v>10</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146" s="5">
         <v>43.75</v>
       </c>
       <c r="K146" t="s">
@@ -2878,13 +3125,13 @@
       <c r="L146" t="s">
         <v>67</v>
       </c>
-      <c r="T146" s="15"/>
+      <c r="T146" s="11"/>
     </row>
     <row r="147" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H147" s="12">
+      <c r="H147" s="9">
         <v>10</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I147" s="5">
         <v>7.59</v>
       </c>
       <c r="K147" t="s">
@@ -2893,13 +3140,13 @@
       <c r="L147" t="s">
         <v>67</v>
       </c>
-      <c r="T147" s="15"/>
+      <c r="T147" s="11"/>
     </row>
     <row r="148" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H148" s="12">
+      <c r="H148" s="9">
         <v>10</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148" s="5">
         <v>102.69</v>
       </c>
       <c r="K148" t="s">
@@ -2908,37 +3155,37 @@
       <c r="M148" t="s">
         <v>33</v>
       </c>
-      <c r="T148" s="15"/>
+      <c r="T148" s="11"/>
     </row>
     <row r="149" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H149" s="12">
+      <c r="H149" s="9">
         <v>10</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I149" s="5">
         <v>0.35</v>
       </c>
       <c r="M149" t="s">
         <v>32</v>
       </c>
-      <c r="T149" s="15"/>
+      <c r="T149" s="11"/>
     </row>
     <row r="150" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H150" s="12">
+      <c r="H150" s="9">
         <v>10</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150" s="5">
         <v>0.17</v>
       </c>
       <c r="M150" t="s">
         <v>32</v>
       </c>
-      <c r="T150" s="15"/>
+      <c r="T150" s="11"/>
     </row>
     <row r="151" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H151" s="12">
+      <c r="H151" s="9">
         <v>11</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="5">
         <v>69.95</v>
       </c>
       <c r="K151" t="s">
@@ -2947,13 +3194,13 @@
       <c r="M151" t="s">
         <v>31</v>
       </c>
-      <c r="T151" s="15"/>
+      <c r="T151" s="11"/>
     </row>
     <row r="152" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H152" s="12">
+      <c r="H152" s="9">
         <v>11</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="5">
         <v>42</v>
       </c>
       <c r="K152" t="s">
@@ -2962,13 +3209,13 @@
       <c r="M152" t="s">
         <v>31</v>
       </c>
-      <c r="T152" s="15"/>
+      <c r="T152" s="11"/>
     </row>
     <row r="153" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H153" s="12">
+      <c r="H153" s="9">
         <v>11</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I153" s="5">
         <v>87.75</v>
       </c>
       <c r="K153" t="s">
@@ -2977,13 +3224,13 @@
       <c r="M153" t="s">
         <v>31</v>
       </c>
-      <c r="T153" s="15"/>
+      <c r="T153" s="11"/>
     </row>
     <row r="154" spans="7:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H154" s="12">
+      <c r="H154" s="9">
         <v>11</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154" s="5">
         <v>20.49</v>
       </c>
       <c r="K154" t="s">
@@ -2995,14 +3242,14 @@
       <c r="M154" t="s">
         <v>30</v>
       </c>
-      <c r="T154" s="15"/>
+      <c r="T154" s="11"/>
     </row>
     <row r="155" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G155" s="1"/>
-      <c r="H155" s="13">
+      <c r="H155" s="10">
         <v>16</v>
       </c>
-      <c r="I155" s="8">
+      <c r="I155" s="6">
         <v>15.44</v>
       </c>
       <c r="K155" t="s">
@@ -3014,13 +3261,13 @@
       <c r="M155" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T155" s="15"/>
+      <c r="T155" s="11"/>
     </row>
     <row r="156" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H156" s="12">
+      <c r="H156" s="9">
         <v>16</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="5">
         <v>11.6</v>
       </c>
       <c r="K156" t="s">
@@ -3032,13 +3279,13 @@
       <c r="M156" t="s">
         <v>10</v>
       </c>
-      <c r="T156" s="15"/>
+      <c r="T156" s="11"/>
     </row>
     <row r="157" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H157" s="12">
+      <c r="H157" s="9">
         <v>16</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157" s="5">
         <v>4</v>
       </c>
       <c r="K157" t="s">
@@ -3047,13 +3294,13 @@
       <c r="M157" t="s">
         <v>28</v>
       </c>
-      <c r="T157" s="15"/>
+      <c r="T157" s="11"/>
     </row>
     <row r="158" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H158" s="12">
+      <c r="H158" s="9">
         <v>16</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="5">
         <v>22.86</v>
       </c>
       <c r="K158" t="s">
@@ -3062,13 +3309,13 @@
       <c r="M158" t="s">
         <v>27</v>
       </c>
-      <c r="T158" s="15"/>
+      <c r="T158" s="11"/>
     </row>
     <row r="159" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H159" s="12">
+      <c r="H159" s="9">
         <v>16</v>
       </c>
-      <c r="I159" s="7">
+      <c r="I159" s="5">
         <v>20</v>
       </c>
       <c r="K159" t="s">
@@ -3077,13 +3324,13 @@
       <c r="M159" t="s">
         <v>26</v>
       </c>
-      <c r="T159" s="15"/>
+      <c r="T159" s="11"/>
     </row>
     <row r="160" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H160" s="12">
+      <c r="H160" s="9">
         <v>16</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I160" s="5">
         <v>27.72</v>
       </c>
       <c r="K160" t="s">
@@ -3092,13 +3339,13 @@
       <c r="M160" t="s">
         <v>25</v>
       </c>
-      <c r="T160" s="15"/>
+      <c r="T160" s="11"/>
     </row>
     <row r="161" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H161" s="12">
+      <c r="H161" s="9">
         <v>16</v>
       </c>
-      <c r="I161" s="7">
+      <c r="I161" s="5">
         <v>11</v>
       </c>
       <c r="K161" t="s">
@@ -3107,13 +3354,13 @@
       <c r="M161" t="s">
         <v>24</v>
       </c>
-      <c r="T161" s="15"/>
+      <c r="T161" s="11"/>
     </row>
     <row r="162" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H162" s="12">
+      <c r="H162" s="9">
         <v>17</v>
       </c>
-      <c r="I162" s="7">
+      <c r="I162" s="5">
         <v>3.55</v>
       </c>
       <c r="K162" t="s">
@@ -3125,26 +3372,26 @@
       <c r="M162" t="s">
         <v>23</v>
       </c>
-      <c r="T162" s="15"/>
+      <c r="T162" s="11"/>
     </row>
     <row r="163" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G163">
         <v>33</v>
       </c>
-      <c r="H163" s="12">
+      <c r="H163" s="9">
         <v>19</v>
       </c>
-      <c r="I163" s="7"/>
+      <c r="I163" s="5"/>
       <c r="M163" t="s">
         <v>22</v>
       </c>
-      <c r="T163" s="15"/>
+      <c r="T163" s="11"/>
     </row>
     <row r="164" spans="7:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H164" s="12">
+      <c r="H164" s="9">
         <v>19</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="5">
         <v>11.44</v>
       </c>
       <c r="K164" t="s">
@@ -3156,14 +3403,14 @@
       <c r="M164" t="s">
         <v>10</v>
       </c>
-      <c r="T164" s="15"/>
+      <c r="T164" s="11"/>
     </row>
     <row r="165" spans="7:20" x14ac:dyDescent="0.2">
       <c r="G165" s="1"/>
-      <c r="H165" s="13">
+      <c r="H165" s="10">
         <v>22</v>
       </c>
-      <c r="I165" s="8">
+      <c r="I165" s="6">
         <v>10.63</v>
       </c>
       <c r="K165" t="s">
@@ -3175,13 +3422,13 @@
       <c r="M165" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T165" s="15"/>
+      <c r="T165" s="11"/>
     </row>
     <row r="166" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H166" s="12">
+      <c r="H166" s="9">
         <v>22</v>
       </c>
-      <c r="I166" s="7">
+      <c r="I166" s="5">
         <v>8</v>
       </c>
       <c r="K166" t="s">
@@ -3193,13 +3440,13 @@
       <c r="M166" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T166" s="15"/>
+      <c r="T166" s="11"/>
     </row>
     <row r="167" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H167" s="12">
+      <c r="H167" s="9">
         <v>22</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="5">
         <v>3.07</v>
       </c>
       <c r="K167" t="s">
@@ -3210,10 +3457,10 @@
       </c>
     </row>
     <row r="168" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H168" s="12">
+      <c r="H168" s="9">
         <v>22</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168" s="5">
         <v>34.01</v>
       </c>
       <c r="K168" t="s">
@@ -3227,10 +3474,10 @@
       </c>
     </row>
     <row r="169" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H169" s="12">
+      <c r="H169" s="9">
         <v>22</v>
       </c>
-      <c r="I169" s="7">
+      <c r="I169" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="K169" t="s">
@@ -3244,10 +3491,10 @@
       </c>
     </row>
     <row r="170" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H170" s="12">
+      <c r="H170" s="9">
         <v>22</v>
       </c>
-      <c r="I170" s="7">
+      <c r="I170" s="5">
         <v>4.04</v>
       </c>
       <c r="K170" t="s">
@@ -3264,19 +3511,19 @@
       <c r="G171">
         <v>65</v>
       </c>
-      <c r="H171" s="12">
+      <c r="H171" s="9">
         <v>23</v>
       </c>
-      <c r="I171" s="7"/>
+      <c r="I171" s="5"/>
       <c r="M171" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="172" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H172" s="12">
+      <c r="H172" s="9">
         <v>23</v>
       </c>
-      <c r="I172" s="9">
+      <c r="I172" s="7">
         <v>8.31</v>
       </c>
       <c r="K172" t="s">
@@ -3287,10 +3534,10 @@
       </c>
     </row>
     <row r="173" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H173" s="12">
+      <c r="H173" s="9">
         <v>23</v>
       </c>
-      <c r="I173" s="7">
+      <c r="I173" s="5">
         <v>297.5</v>
       </c>
       <c r="K173" t="s">
@@ -3301,10 +3548,10 @@
       </c>
     </row>
     <row r="174" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H174" s="12">
+      <c r="H174" s="9">
         <v>24</v>
       </c>
-      <c r="I174" s="7">
+      <c r="I174" s="5">
         <v>4.3</v>
       </c>
       <c r="K174" t="s">
@@ -3315,10 +3562,10 @@
       </c>
     </row>
     <row r="175" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H175" s="12">
+      <c r="H175" s="9">
         <v>24</v>
       </c>
-      <c r="I175" s="7">
+      <c r="I175" s="5">
         <v>20.91</v>
       </c>
       <c r="K175" t="s">
@@ -3329,10 +3576,10 @@
       </c>
     </row>
     <row r="176" spans="7:20" x14ac:dyDescent="0.2">
-      <c r="H176" s="12">
+      <c r="H176" s="9">
         <v>25</v>
       </c>
-      <c r="I176" s="7">
+      <c r="I176" s="5">
         <v>20.64</v>
       </c>
       <c r="K176" t="s">
@@ -3343,10 +3590,10 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H177" s="12">
+      <c r="H177" s="9">
         <v>26</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177" s="5">
         <v>5</v>
       </c>
       <c r="K177" t="s">
@@ -3357,10 +3604,10 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H178" s="12">
+      <c r="H178" s="9">
         <v>26</v>
       </c>
-      <c r="I178" s="7">
+      <c r="I178" s="5">
         <v>10.39</v>
       </c>
       <c r="K178" t="s">
@@ -3371,10 +3618,10 @@
       </c>
     </row>
     <row r="179" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H179" s="12">
+      <c r="H179" s="9">
         <v>26</v>
       </c>
-      <c r="I179" s="7">
+      <c r="I179" s="5">
         <v>14.1</v>
       </c>
       <c r="K179" t="s">
@@ -3386,10 +3633,10 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G180" s="1"/>
-      <c r="H180" s="13">
+      <c r="H180" s="10">
         <v>29</v>
       </c>
-      <c r="I180" s="10">
+      <c r="I180" s="8">
         <v>5.99</v>
       </c>
       <c r="M180" s="1" t="s">
@@ -3398,10 +3645,10 @@
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H181" s="12">
+      <c r="H181" s="9">
         <v>29</v>
       </c>
-      <c r="I181" s="7">
+      <c r="I181" s="5">
         <v>14</v>
       </c>
       <c r="K181" t="s">
@@ -3412,10 +3659,10 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H182" s="12">
+      <c r="H182" s="9">
         <v>29</v>
       </c>
-      <c r="I182" s="7">
+      <c r="I182" s="5">
         <v>5.75</v>
       </c>
       <c r="K182" t="s">
@@ -3426,10 +3673,10 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H183" s="12">
+      <c r="H183" s="9">
         <v>29</v>
       </c>
-      <c r="I183" s="7">
+      <c r="I183" s="5">
         <v>19.23</v>
       </c>
       <c r="K183" t="s">
@@ -3443,10 +3690,10 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H184" s="12">
+      <c r="H184" s="9">
         <v>29</v>
       </c>
-      <c r="I184" s="7">
+      <c r="I184" s="5">
         <v>17.46</v>
       </c>
       <c r="K184" t="s">
@@ -3457,10 +3704,10 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H185" s="12">
+      <c r="H185" s="9">
         <v>30</v>
       </c>
-      <c r="I185" s="9">
+      <c r="I185" s="7">
         <v>3.11</v>
       </c>
       <c r="M185" t="s">
@@ -3468,10 +3715,10 @@
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H186" s="12">
+      <c r="H186" s="9">
         <v>30</v>
       </c>
-      <c r="I186" s="7">
+      <c r="I186" s="5">
         <v>4.16</v>
       </c>
       <c r="K186" t="s">
@@ -3482,10 +3729,10 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H187" s="12">
+      <c r="H187" s="9">
         <v>31</v>
       </c>
-      <c r="I187" s="7">
+      <c r="I187" s="5">
         <v>10</v>
       </c>
       <c r="K187" t="s">
@@ -3502,10 +3749,10 @@
       <c r="A188" t="s">
         <v>68</v>
       </c>
-      <c r="H188" s="12">
+      <c r="H188" s="9">
         <v>1</v>
       </c>
-      <c r="I188" s="7">
+      <c r="I188" s="5">
         <v>11.17</v>
       </c>
       <c r="K188" t="s">
@@ -3519,10 +3766,10 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H189" s="12">
+      <c r="H189" s="9">
         <v>1</v>
       </c>
-      <c r="I189" s="7">
+      <c r="I189" s="5">
         <v>200</v>
       </c>
       <c r="K189" t="s">
@@ -3533,10 +3780,10 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H190" s="12">
+      <c r="H190" s="9">
         <v>1</v>
       </c>
-      <c r="I190" s="7">
+      <c r="I190" s="5">
         <v>200</v>
       </c>
       <c r="K190" t="s">
@@ -3548,10 +3795,10 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G191" s="1"/>
-      <c r="H191" s="13">
+      <c r="H191" s="10">
         <v>5</v>
       </c>
-      <c r="I191" s="10">
+      <c r="I191" s="8">
         <v>22.88</v>
       </c>
       <c r="M191" s="1" t="s">
@@ -3560,10 +3807,10 @@
       <c r="N191" s="1"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H192" s="12">
+      <c r="H192" s="9">
         <v>5</v>
       </c>
-      <c r="I192" s="7">
+      <c r="I192" s="5">
         <v>14</v>
       </c>
       <c r="K192" t="s">
@@ -3577,10 +3824,10 @@
       </c>
     </row>
     <row r="193" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H193" s="12">
+      <c r="H193" s="9">
         <v>5</v>
       </c>
-      <c r="I193" s="7">
+      <c r="I193" s="5">
         <v>35.590000000000003</v>
       </c>
       <c r="K193" t="s">
@@ -3594,10 +3841,10 @@
       </c>
     </row>
     <row r="194" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H194" s="12">
+      <c r="H194" s="9">
         <v>6</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I194" s="5">
         <v>6.93</v>
       </c>
       <c r="K194" t="s">
@@ -3608,10 +3855,10 @@
       </c>
     </row>
     <row r="195" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H195" s="12">
+      <c r="H195" s="9">
         <v>6</v>
       </c>
-      <c r="I195" s="7">
+      <c r="I195" s="5">
         <v>10.39</v>
       </c>
       <c r="K195" t="s">
@@ -3622,10 +3869,10 @@
       </c>
     </row>
     <row r="196" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H196" s="12">
+      <c r="H196" s="9">
         <v>7</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196" s="5">
         <v>2.0499999999999998</v>
       </c>
       <c r="K196" t="s">
@@ -3639,10 +3886,10 @@
       </c>
     </row>
     <row r="197" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H197" s="12">
+      <c r="H197" s="9">
         <v>7</v>
       </c>
-      <c r="I197" s="7">
+      <c r="I197" s="5">
         <v>4.3</v>
       </c>
       <c r="K197" t="s">
@@ -3653,19 +3900,19 @@
       <c r="G198">
         <v>461</v>
       </c>
-      <c r="H198" s="12">
+      <c r="H198" s="9">
         <v>8</v>
       </c>
-      <c r="I198" s="7"/>
+      <c r="I198" s="5"/>
       <c r="M198" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="199" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H199" s="12">
+      <c r="H199" s="9">
         <v>8</v>
       </c>
-      <c r="I199" s="7">
+      <c r="I199" s="5">
         <v>7.54</v>
       </c>
       <c r="K199" t="s">
@@ -3679,10 +3926,10 @@
       </c>
     </row>
     <row r="200" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H200" s="12">
+      <c r="H200" s="9">
         <v>8</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200" s="5">
         <v>6</v>
       </c>
       <c r="K200" t="s">
@@ -3693,10 +3940,10 @@
       </c>
     </row>
     <row r="201" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H201" s="12">
+      <c r="H201" s="9">
         <v>8</v>
       </c>
-      <c r="I201" s="7">
+      <c r="I201" s="5">
         <v>5.58</v>
       </c>
       <c r="K201" t="s">
@@ -3710,10 +3957,10 @@
       </c>
     </row>
     <row r="202" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H202" s="12">
+      <c r="H202" s="9">
         <v>8</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202" s="5">
         <v>575</v>
       </c>
       <c r="K202" t="s">
@@ -3724,10 +3971,10 @@
       </c>
     </row>
     <row r="203" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H203" s="12">
+      <c r="H203" s="9">
         <v>9</v>
       </c>
-      <c r="I203" s="7">
+      <c r="I203" s="5">
         <v>34.47</v>
       </c>
       <c r="K203" t="s">
@@ -3742,10 +3989,10 @@
     </row>
     <row r="204" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G204" s="1"/>
-      <c r="H204" s="13">
+      <c r="H204" s="10">
         <v>12</v>
       </c>
-      <c r="I204" s="8">
+      <c r="I204" s="6">
         <v>5.56</v>
       </c>
       <c r="K204" t="s">
@@ -3759,10 +4006,10 @@
       </c>
     </row>
     <row r="205" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H205" s="12">
+      <c r="H205" s="9">
         <v>12</v>
       </c>
-      <c r="I205" s="7">
+      <c r="I205" s="5">
         <v>12.68</v>
       </c>
       <c r="K205" t="s">
@@ -3776,10 +4023,10 @@
       </c>
     </row>
     <row r="206" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H206" s="12">
+      <c r="H206" s="9">
         <v>12</v>
       </c>
-      <c r="I206" s="7">
+      <c r="I206" s="5">
         <v>5</v>
       </c>
       <c r="K206" t="s">
@@ -3790,10 +4037,10 @@
       </c>
     </row>
     <row r="207" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H207" s="12">
+      <c r="H207" s="9">
         <v>12</v>
       </c>
-      <c r="I207" s="9">
+      <c r="I207" s="7">
         <v>20.79</v>
       </c>
       <c r="M207" t="s">
@@ -3801,21 +4048,21 @@
       </c>
     </row>
     <row r="208" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H208" s="12">
+      <c r="H208" s="9">
         <v>13</v>
       </c>
-      <c r="I208" s="7">
+      <c r="I208" s="5">
         <v>8</v>
       </c>
       <c r="M208" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H209" s="12">
+    <row r="209" spans="7:26" x14ac:dyDescent="0.2">
+      <c r="H209" s="9">
         <v>15</v>
       </c>
-      <c r="I209" s="7">
+      <c r="I209" s="5">
         <v>5.56</v>
       </c>
       <c r="K209" t="s">
@@ -3828,11 +4075,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H210" s="12">
+    <row r="210" spans="7:26" x14ac:dyDescent="0.2">
+      <c r="H210" s="9">
         <v>15</v>
       </c>
-      <c r="I210" s="7">
+      <c r="I210" s="5">
         <v>8.31</v>
       </c>
       <c r="K210" t="s">
@@ -3842,11 +4089,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H211" s="12">
+    <row r="211" spans="7:26" x14ac:dyDescent="0.2">
+      <c r="H211" s="9">
         <v>15</v>
       </c>
-      <c r="I211" s="7">
+      <c r="I211" s="5">
         <v>6.12</v>
       </c>
       <c r="K211" t="s">
@@ -3859,11 +4106,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H212" s="12">
+    <row r="212" spans="7:26" x14ac:dyDescent="0.2">
+      <c r="H212" s="9">
         <v>15</v>
       </c>
-      <c r="I212" s="7">
+      <c r="I212" s="5">
         <v>15.04</v>
       </c>
       <c r="K212" t="s">
@@ -3876,11 +4123,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H213" s="12">
+    <row r="213" spans="7:26" x14ac:dyDescent="0.2">
+      <c r="H213" s="9">
         <v>15</v>
       </c>
-      <c r="I213" s="7">
+      <c r="I213" s="5">
         <v>12</v>
       </c>
       <c r="K213" t="s">
@@ -3890,23 +4137,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="214" spans="7:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H214" s="12">
+    <row r="214" spans="7:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H214" s="9">
         <v>16</v>
       </c>
-      <c r="I214" s="7">
+      <c r="I214" s="5">
         <v>17.37</v>
       </c>
       <c r="M214" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G215" s="1"/>
-      <c r="H215" s="13">
+      <c r="H215" s="10">
         <v>20</v>
       </c>
-      <c r="I215" s="8">
+      <c r="I215" s="6">
         <v>24.52</v>
       </c>
       <c r="K215" t="s">
@@ -3917,11 +4164,11 @@
       </c>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H216" s="12">
+    <row r="216" spans="7:26" x14ac:dyDescent="0.2">
+      <c r="H216" s="9">
         <v>20</v>
       </c>
-      <c r="I216" s="7">
+      <c r="I216" s="5">
         <v>12.35</v>
       </c>
       <c r="K216" t="s">
@@ -3934,11 +4181,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H217" s="12">
+    <row r="217" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H217" s="9">
         <v>20</v>
       </c>
-      <c r="I217" s="7">
+      <c r="I217" s="5">
         <v>4.3</v>
       </c>
       <c r="K217" t="s">
@@ -3950,12 +4197,23 @@
       <c r="M217" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="218" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H218" s="12">
+      <c r="V217" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W217" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="X217" s="32">
+        <v>5.65</v>
+      </c>
+      <c r="Y217" s="31"/>
+      <c r="Z217" s="31"/>
+    </row>
+    <row r="218" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H218" s="9">
         <v>20</v>
       </c>
-      <c r="I218" s="7">
+      <c r="I218" s="5">
         <v>14.1</v>
       </c>
       <c r="K218" t="s">
@@ -3967,12 +4225,23 @@
       <c r="M218" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="219" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H219" s="12">
+      <c r="V218" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W218" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="X218" s="32">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="Y218" s="31"/>
+      <c r="Z218" s="31"/>
+    </row>
+    <row r="219" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H219" s="9">
         <v>20</v>
       </c>
-      <c r="I219" s="7">
+      <c r="I219" s="5">
         <v>8.99</v>
       </c>
       <c r="K219" t="s">
@@ -3984,23 +4253,45 @@
       <c r="M219" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="220" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H220" s="12">
+      <c r="V219" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W219" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="X219" s="32">
+        <v>6.13</v>
+      </c>
+      <c r="Y219" s="31"/>
+      <c r="Z219" s="31"/>
+    </row>
+    <row r="220" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H220" s="9">
         <v>20</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I220" s="5">
         <v>11</v>
       </c>
       <c r="M220" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="221" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H221" s="12">
+      <c r="V220" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W220" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="X220" s="32">
+        <v>7.44</v>
+      </c>
+      <c r="Y220" s="31"/>
+      <c r="Z220" s="31"/>
+    </row>
+    <row r="221" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H221" s="9">
         <v>21</v>
       </c>
-      <c r="I221" s="7">
+      <c r="I221" s="5">
         <v>5.1100000000000003</v>
       </c>
       <c r="K221" t="s">
@@ -4012,12 +4303,23 @@
       <c r="M221" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="222" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H222" s="12">
+      <c r="V221" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W221" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="X221" s="32">
+        <v>2.56</v>
+      </c>
+      <c r="Y221" s="31"/>
+      <c r="Z221" s="31"/>
+    </row>
+    <row r="222" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H222" s="9">
         <v>21</v>
       </c>
-      <c r="I222" s="7">
+      <c r="I222" s="5">
         <v>9.49</v>
       </c>
       <c r="K222" t="s">
@@ -4026,12 +4328,23 @@
       <c r="M222" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="223" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H223" s="12">
+      <c r="V222" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W222" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="X222" s="32">
+        <v>1.03</v>
+      </c>
+      <c r="Y222" s="31"/>
+      <c r="Z222" s="31"/>
+    </row>
+    <row r="223" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H223" s="9">
         <v>21</v>
       </c>
-      <c r="I223" s="7">
+      <c r="I223" s="5">
         <v>22.56</v>
       </c>
       <c r="K223" t="s">
@@ -4043,12 +4356,23 @@
       <c r="M223" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="224" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="H224" s="12">
+      <c r="V223" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W223" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="X223" s="32">
+        <v>13</v>
+      </c>
+      <c r="Y223" s="31"/>
+      <c r="Z223" s="31"/>
+    </row>
+    <row r="224" spans="7:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H224" s="9">
         <v>21</v>
       </c>
-      <c r="I224" s="9">
+      <c r="I224" s="7">
         <v>4.16</v>
       </c>
       <c r="K224" t="s">
@@ -4057,12 +4381,23 @@
       <c r="M224" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H225" s="12">
+      <c r="V224" s="30">
+        <v>43171</v>
+      </c>
+      <c r="W224" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="X224" s="32">
+        <v>29</v>
+      </c>
+      <c r="Y224" s="31"/>
+      <c r="Z224" s="31"/>
+    </row>
+    <row r="225" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H225" s="9">
         <v>21</v>
       </c>
-      <c r="I225" s="7">
+      <c r="I225" s="5">
         <v>15</v>
       </c>
       <c r="K225" t="s">
@@ -4071,12 +4406,23 @@
       <c r="M225" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H226" s="12">
+      <c r="V225" s="30">
+        <v>43173</v>
+      </c>
+      <c r="W225" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="X225" s="32">
+        <v>10.63</v>
+      </c>
+      <c r="Y225" s="31"/>
+      <c r="Z225" s="31"/>
+    </row>
+    <row r="226" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H226" s="9">
         <v>22</v>
       </c>
-      <c r="I226" s="7">
+      <c r="I226" s="5">
         <v>5.38</v>
       </c>
       <c r="K226" t="s">
@@ -4085,48 +4431,92 @@
       <c r="M226" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V226" s="30">
+        <v>43174</v>
+      </c>
+      <c r="W226" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="X226" s="32">
+        <v>12</v>
+      </c>
+      <c r="Y226" s="31"/>
+      <c r="Z226" s="31"/>
+    </row>
+    <row r="227" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="G227">
         <v>0.04</v>
       </c>
-      <c r="H227" s="12">
+      <c r="H227" s="9">
         <v>23</v>
       </c>
-      <c r="I227" s="7"/>
+      <c r="I227" s="5"/>
       <c r="M227" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V227" s="30">
+        <v>43174</v>
+      </c>
+      <c r="W227" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="X227" s="32">
+        <v>15.55</v>
+      </c>
+      <c r="Y227" s="31"/>
+      <c r="Z227" s="31"/>
+    </row>
+    <row r="228" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="G228">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H228" s="12">
+      <c r="H228" s="9">
         <v>23</v>
       </c>
-      <c r="I228" s="7"/>
+      <c r="I228" s="5"/>
       <c r="M228" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V228" s="30">
+        <v>43174</v>
+      </c>
+      <c r="W228" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="X228" s="32">
+        <v>4.99</v>
+      </c>
+      <c r="Y228" s="31"/>
+      <c r="Z228" s="31"/>
+    </row>
+    <row r="229" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="G229">
         <v>57</v>
       </c>
-      <c r="H229" s="12">
+      <c r="H229" s="9">
         <v>23</v>
       </c>
-      <c r="I229" s="7"/>
+      <c r="I229" s="5"/>
       <c r="M229" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H230" s="12">
+      <c r="V229" s="30">
+        <v>43174</v>
+      </c>
+      <c r="W229" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="X229" s="32">
+        <v>25.41</v>
+      </c>
+      <c r="Y229" s="31"/>
+      <c r="Z229" s="31"/>
+    </row>
+    <row r="230" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H230" s="9">
         <v>23</v>
       </c>
-      <c r="I230" s="9">
+      <c r="I230" s="7">
         <v>8.9</v>
       </c>
       <c r="K230" t="s">
@@ -4135,24 +4525,46 @@
       <c r="M230" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H231" s="12">
+      <c r="V230" s="30">
+        <v>43175</v>
+      </c>
+      <c r="W230" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="X230" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="Y230" s="31"/>
+      <c r="Z230" s="31"/>
+    </row>
+    <row r="231" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H231" s="9">
         <v>23</v>
       </c>
-      <c r="I231" s="7">
+      <c r="I231" s="5">
         <v>0.11</v>
       </c>
       <c r="M231" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V231" s="30">
+        <v>43178</v>
+      </c>
+      <c r="W231" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="X231" s="32">
+        <v>12.79</v>
+      </c>
+      <c r="Y231" s="31"/>
+      <c r="Z231" s="31"/>
+    </row>
+    <row r="232" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="G232" s="1"/>
-      <c r="H232" s="13">
+      <c r="H232" s="10">
         <v>26</v>
       </c>
-      <c r="I232" s="8">
+      <c r="I232" s="6">
         <v>4.84</v>
       </c>
       <c r="K232" t="s">
@@ -4164,12 +4576,23 @@
       <c r="M232" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H233" s="12">
+      <c r="V232" s="30">
+        <v>43178</v>
+      </c>
+      <c r="W232" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="X232" s="32">
+        <v>13.97</v>
+      </c>
+      <c r="Y232" s="31"/>
+      <c r="Z232" s="31"/>
+    </row>
+    <row r="233" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H233" s="9">
         <v>26</v>
       </c>
-      <c r="I233" s="7">
+      <c r="I233" s="5">
         <v>19.72</v>
       </c>
       <c r="K233" t="s">
@@ -4178,12 +4601,23 @@
       <c r="M233" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H234" s="12">
+      <c r="V233" s="30">
+        <v>43178</v>
+      </c>
+      <c r="W233" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="X233" s="32">
+        <v>3.99</v>
+      </c>
+      <c r="Y233" s="31"/>
+      <c r="Z233" s="31"/>
+    </row>
+    <row r="234" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H234" s="9">
         <v>26</v>
       </c>
-      <c r="I234" s="7">
+      <c r="I234" s="5">
         <v>58.81</v>
       </c>
       <c r="K234" t="s">
@@ -4193,12 +4627,23 @@
         <v>67</v>
       </c>
       <c r="M234" s="3"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H235" s="12">
+      <c r="V234" s="30">
+        <v>43179</v>
+      </c>
+      <c r="W234" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="X234" s="32">
+        <v>28.13</v>
+      </c>
+      <c r="Y234" s="31"/>
+      <c r="Z234" s="31"/>
+    </row>
+    <row r="235" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H235" s="9">
         <v>26</v>
       </c>
-      <c r="I235" s="7">
+      <c r="I235" s="5">
         <v>3.64</v>
       </c>
       <c r="K235" t="s">
@@ -4210,12 +4655,23 @@
       <c r="M235" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H236" s="12">
+      <c r="V235" s="30">
+        <v>43181</v>
+      </c>
+      <c r="W235" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="X235" s="32">
+        <v>25.1</v>
+      </c>
+      <c r="Y235" s="31"/>
+      <c r="Z235" s="31"/>
+    </row>
+    <row r="236" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H236" s="9">
         <v>26</v>
       </c>
-      <c r="I236" s="9">
+      <c r="I236" s="7">
         <v>10.39</v>
       </c>
       <c r="K236" t="s">
@@ -4224,27 +4680,49 @@
       <c r="M236" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="V236" s="30">
+        <v>43181</v>
+      </c>
+      <c r="W236" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="X236" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="Y236" s="31"/>
+      <c r="Z236" s="31"/>
+    </row>
+    <row r="237" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>69</v>
       </c>
       <c r="G237">
         <v>322.95999999999998</v>
       </c>
-      <c r="H237" s="12">
+      <c r="H237" s="9">
         <v>1</v>
       </c>
-      <c r="I237" s="7"/>
+      <c r="I237" s="5"/>
       <c r="M237" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H238" s="12">
+      <c r="V237" s="30">
+        <v>43181</v>
+      </c>
+      <c r="W237" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="X237" s="32">
+        <v>5.38</v>
+      </c>
+      <c r="Y237" s="31"/>
+      <c r="Z237" s="31"/>
+    </row>
+    <row r="238" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H238" s="9">
         <v>1</v>
       </c>
-      <c r="I238" s="7">
+      <c r="I238" s="5">
         <v>5.56</v>
       </c>
       <c r="K238" t="s">
@@ -4256,40 +4734,77 @@
       <c r="M238" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G239" s="5"/>
-      <c r="H239" s="14">
+      <c r="V238" s="30">
+        <v>43181</v>
+      </c>
+      <c r="W238" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="X238" s="32">
+        <v>202</v>
+      </c>
+      <c r="Y238" s="31"/>
+      <c r="Z238" s="31"/>
+    </row>
+    <row r="239" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="11"/>
+      <c r="H239" s="9">
         <v>2</v>
       </c>
-      <c r="I239" s="11">
+      <c r="I239" s="35">
         <v>12</v>
       </c>
       <c r="K239" t="s">
         <v>73</v>
       </c>
-      <c r="M239" s="6" t="s">
+      <c r="M239" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N239" s="5"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G240">
+      <c r="N239" s="11"/>
+      <c r="V239" s="30">
+        <v>43181</v>
+      </c>
+      <c r="W239" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="X239" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y239" s="31"/>
+      <c r="Z239" s="31"/>
+    </row>
+    <row r="240" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="G240" s="1">
         <v>406.74</v>
       </c>
-      <c r="H240" s="12">
+      <c r="H240" s="10">
         <v>5</v>
       </c>
-      <c r="I240" s="7"/>
-      <c r="M240" s="3" t="s">
+      <c r="I240" s="6"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="241" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H241" s="12">
+      <c r="N240" s="11"/>
+      <c r="V240" s="30">
+        <v>43182</v>
+      </c>
+      <c r="W240" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="X240" s="32">
+        <v>23.75</v>
+      </c>
+      <c r="Y240" s="31"/>
+      <c r="Z240" s="31"/>
+    </row>
+    <row r="241" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H241" s="9">
         <v>5</v>
       </c>
-      <c r="I241" s="7">
+      <c r="I241" s="5">
         <v>9.68</v>
       </c>
       <c r="K241" t="s">
@@ -4301,12 +4816,23 @@
       <c r="M241" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="242" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H242" s="12">
+      <c r="V241" s="30">
+        <v>43182</v>
+      </c>
+      <c r="W241" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="X241" s="32">
+        <v>10.63</v>
+      </c>
+      <c r="Y241" s="31"/>
+      <c r="Z241" s="31"/>
+    </row>
+    <row r="242" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H242" s="9">
         <v>5</v>
       </c>
-      <c r="I242" s="7">
+      <c r="I242" s="5">
         <v>5.92</v>
       </c>
       <c r="K242" t="s">
@@ -4318,12 +4844,23 @@
       <c r="M242" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="243" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H243" s="12">
+      <c r="V242" s="30">
+        <v>43185</v>
+      </c>
+      <c r="W242" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="X242" s="32">
+        <v>6.8</v>
+      </c>
+      <c r="Y242" s="31"/>
+      <c r="Z242" s="31"/>
+    </row>
+    <row r="243" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H243" s="9">
         <v>5</v>
       </c>
-      <c r="I243" s="7">
+      <c r="I243" s="5">
         <v>28.84</v>
       </c>
       <c r="K243" t="s">
@@ -4332,12 +4869,23 @@
       <c r="M243" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="244" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H244" s="12">
+      <c r="V243" s="30">
+        <v>43185</v>
+      </c>
+      <c r="W243" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="X243" s="32">
+        <v>11</v>
+      </c>
+      <c r="Y243" s="31"/>
+      <c r="Z243" s="31"/>
+    </row>
+    <row r="244" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H244" s="9">
         <v>5</v>
       </c>
-      <c r="I244" s="9">
+      <c r="I244" s="7">
         <v>5.58</v>
       </c>
       <c r="K244" t="s">
@@ -4349,12 +4897,23 @@
       <c r="M244" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="245" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H245" s="12">
+      <c r="V244" s="30">
+        <v>43185</v>
+      </c>
+      <c r="W244" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="X244" s="32">
+        <v>10.25</v>
+      </c>
+      <c r="Y244" s="31"/>
+      <c r="Z244" s="31"/>
+    </row>
+    <row r="245" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H245" s="9">
         <v>5</v>
       </c>
-      <c r="I245" s="7">
+      <c r="I245" s="5">
         <v>38.17</v>
       </c>
       <c r="K245" t="s">
@@ -4366,12 +4925,23 @@
       <c r="M245" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="246" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H246" s="12">
+      <c r="V245" s="30">
+        <v>43185</v>
+      </c>
+      <c r="W245" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="X245" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="Y245" s="31"/>
+      <c r="Z245" s="31"/>
+    </row>
+    <row r="246" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H246" s="9">
         <v>5</v>
       </c>
-      <c r="I246" s="7">
+      <c r="I246" s="5">
         <v>23</v>
       </c>
       <c r="K246" t="s">
@@ -4380,12 +4950,23 @@
       <c r="M246" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="247" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H247" s="12">
+      <c r="V246" s="30">
+        <v>43185</v>
+      </c>
+      <c r="W246" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="X246" s="32">
+        <v>4.99</v>
+      </c>
+      <c r="Y246" s="31"/>
+      <c r="Z246" s="31"/>
+    </row>
+    <row r="247" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H247" s="9">
         <v>5</v>
       </c>
-      <c r="I247" s="7">
+      <c r="I247" s="5">
         <v>25.53</v>
       </c>
       <c r="K247" t="s">
@@ -4394,12 +4975,23 @@
       <c r="M247" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="248" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H248" s="12">
+      <c r="V247" s="30">
+        <v>43185</v>
+      </c>
+      <c r="W247" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="X247" s="32">
+        <v>10.39</v>
+      </c>
+      <c r="Y247" s="31"/>
+      <c r="Z247" s="31"/>
+    </row>
+    <row r="248" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H248" s="9">
         <v>5</v>
       </c>
-      <c r="I248" s="7">
+      <c r="I248" s="5">
         <v>7.5</v>
       </c>
       <c r="K248" t="s">
@@ -4411,23 +5003,45 @@
       <c r="M248" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="249" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H249" s="12">
+      <c r="V248" s="30">
+        <v>43188</v>
+      </c>
+      <c r="W248" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="X248" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="Y248" s="31"/>
+      <c r="Z248" s="31"/>
+    </row>
+    <row r="249" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H249" s="9">
         <v>5</v>
       </c>
-      <c r="I249" s="9">
+      <c r="I249" s="7">
         <v>3.99</v>
       </c>
       <c r="M249" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="250" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H250" s="12">
+      <c r="V249" s="30">
+        <v>43188</v>
+      </c>
+      <c r="W249" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="X249" s="32">
+        <v>31.03</v>
+      </c>
+      <c r="Y249" s="31"/>
+      <c r="Z249" s="31"/>
+    </row>
+    <row r="250" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H250" s="9">
         <v>6</v>
       </c>
-      <c r="I250" s="7">
+      <c r="I250" s="5">
         <v>6.33</v>
       </c>
       <c r="K250" t="s">
@@ -4439,12 +5053,23 @@
       <c r="M250" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="251" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H251" s="12">
+      <c r="V250" s="30">
+        <v>43189</v>
+      </c>
+      <c r="W250" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="X250" s="31"/>
+      <c r="Y250" s="32">
+        <v>289</v>
+      </c>
+      <c r="Z250" s="31"/>
+    </row>
+    <row r="251" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H251" s="9">
         <v>7</v>
       </c>
-      <c r="I251" s="7">
+      <c r="I251" s="5">
         <v>20</v>
       </c>
       <c r="K251" t="s">
@@ -4454,12 +5079,23 @@
         <v>67</v>
       </c>
       <c r="M251" s="3"/>
-    </row>
-    <row r="252" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H252" s="12">
+      <c r="V251" s="30">
+        <v>43192</v>
+      </c>
+      <c r="W251" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="X251" s="32">
+        <v>7.6</v>
+      </c>
+      <c r="Y251" s="31"/>
+      <c r="Z251" s="31"/>
+    </row>
+    <row r="252" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H252" s="9">
         <v>7</v>
       </c>
-      <c r="I252" s="7">
+      <c r="I252" s="5">
         <v>30.46</v>
       </c>
       <c r="K252" t="s">
@@ -4468,12 +5104,23 @@
       <c r="M252" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="253" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H253" s="12">
+      <c r="V252" s="30">
+        <v>43192</v>
+      </c>
+      <c r="W252" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="X252" s="32">
+        <v>5.46</v>
+      </c>
+      <c r="Y252" s="31"/>
+      <c r="Z252" s="31"/>
+    </row>
+    <row r="253" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H253" s="9">
         <v>8</v>
       </c>
-      <c r="I253" s="7">
+      <c r="I253" s="5">
         <v>3.64</v>
       </c>
       <c r="K253" t="s">
@@ -4485,12 +5132,23 @@
       <c r="M253" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="254" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H254" s="12">
+      <c r="V253" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="W253" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="X253" s="34">
+        <v>25</v>
+      </c>
+      <c r="Y253" s="33"/>
+      <c r="Z253" s="33"/>
+    </row>
+    <row r="254" spans="8:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="H254" s="9">
         <v>8</v>
       </c>
-      <c r="I254" s="7">
+      <c r="I254" s="5">
         <v>575</v>
       </c>
       <c r="K254" t="s">
@@ -4499,12 +5157,21 @@
       <c r="M254" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H255" s="12">
+      <c r="V254" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="W254" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="X254" s="34">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="255" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="H255" s="9">
         <v>9</v>
       </c>
-      <c r="I255" s="7">
+      <c r="I255" s="5">
         <v>7.44</v>
       </c>
       <c r="K255" t="s">
@@ -4517,11 +5184,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="256" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H256" s="12">
+    <row r="256" spans="8:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H256" s="9">
         <v>9</v>
       </c>
-      <c r="I256" s="7">
+      <c r="I256" s="5">
         <v>6</v>
       </c>
       <c r="K256" t="s">
@@ -4531,40 +5198,666 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H257" s="12"/>
-      <c r="I257" s="7">
+    <row r="257" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G257" s="1"/>
+      <c r="H257" s="37">
+        <v>43171</v>
+      </c>
+      <c r="I257" s="6">
+        <v>5.65</v>
+      </c>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H258" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I258" s="5">
         <v>18.739999999999998</v>
-      </c>
-      <c r="K257" t="s">
-        <v>71</v>
-      </c>
-      <c r="L257" t="s">
-        <v>67</v>
-      </c>
-      <c r="M257" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="258" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="H258" s="12"/>
-      <c r="I258" s="7">
-        <v>5.65</v>
       </c>
       <c r="K258" t="s">
         <v>71</v>
       </c>
       <c r="L258" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M258" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="261" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G261">
-        <f>SUM(G80:G258)</f>
-        <v>2014.4699999999998</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H259" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I259">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="260" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H260" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I260">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="261" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H261" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I261">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="262" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H262" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I262">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="263" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H263" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I263">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H264" s="30">
+        <v>43171</v>
+      </c>
+      <c r="I264">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H265" s="30">
+        <v>43173</v>
+      </c>
+      <c r="I265">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="266" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H266" s="30">
+        <v>43174</v>
+      </c>
+      <c r="I266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H267" s="30">
+        <v>43174</v>
+      </c>
+      <c r="I267">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="268" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H268" s="30">
+        <v>43174</v>
+      </c>
+      <c r="I268">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="269" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H269" s="30">
+        <v>43174</v>
+      </c>
+      <c r="I269">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="270" spans="7:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H270" s="30">
+        <v>43175</v>
+      </c>
+      <c r="I270">
+        <v>3.99</v>
+      </c>
+      <c r="N270">
+        <f>SUM(I257:I270)</f>
+        <v>156.12</v>
+      </c>
+    </row>
+    <row r="271" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G271" s="1"/>
+      <c r="H271" s="37">
+        <v>43178</v>
+      </c>
+      <c r="I271" s="1">
+        <v>12.79</v>
+      </c>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+    </row>
+    <row r="272" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H272" s="30">
+        <v>43178</v>
+      </c>
+      <c r="I272">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="273" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H273" s="30">
+        <v>43178</v>
+      </c>
+      <c r="I273">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="274" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H274" s="30">
+        <v>43179</v>
+      </c>
+      <c r="I274">
+        <v>28.13</v>
+      </c>
+    </row>
+    <row r="275" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H275" s="30">
+        <v>43181</v>
+      </c>
+      <c r="I275">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="276" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H276" s="30">
+        <v>43181</v>
+      </c>
+      <c r="I276">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="277" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H277" s="30">
+        <v>43181</v>
+      </c>
+      <c r="I277">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="278" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H278" s="30">
+        <v>43181</v>
+      </c>
+      <c r="I278">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="279" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H279" s="30">
+        <v>43181</v>
+      </c>
+      <c r="I279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H280" s="30">
+        <v>43182</v>
+      </c>
+      <c r="I280">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="281" spans="7:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H281" s="30">
+        <v>43182</v>
+      </c>
+      <c r="I281">
+        <v>10.63</v>
+      </c>
+      <c r="N281">
+        <f>SUM(I271:I281)</f>
+        <v>339.24</v>
+      </c>
+    </row>
+    <row r="282" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="G282" s="1"/>
+      <c r="H282" s="37">
+        <v>43185</v>
+      </c>
+      <c r="I282" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+    </row>
+    <row r="283" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H283" s="30">
+        <v>43185</v>
+      </c>
+      <c r="I283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H284" s="30">
+        <v>43185</v>
+      </c>
+      <c r="I284">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="285" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H285" s="30">
+        <v>43185</v>
+      </c>
+      <c r="I285">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="286" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H286" s="30">
+        <v>43185</v>
+      </c>
+      <c r="I286">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="287" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H287" s="30">
+        <v>43185</v>
+      </c>
+      <c r="I287">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="288" spans="7:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H288" s="30">
+        <v>43188</v>
+      </c>
+      <c r="I288">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="H289" s="30">
+        <v>43188</v>
+      </c>
+      <c r="I289">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H290" s="30">
+        <v>43189</v>
+      </c>
+      <c r="N290">
+        <f>SUM(I282:I290)</f>
+        <v>86.259999999999991</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>151</v>
+      </c>
+      <c r="G291" s="1"/>
+      <c r="H291" s="37">
+        <v>43192</v>
+      </c>
+      <c r="I291" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+    </row>
+    <row r="292" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="H292" s="30">
+        <v>43192</v>
+      </c>
+      <c r="I292">
+        <v>5.46</v>
+      </c>
+      <c r="S292" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I293">
+        <v>25</v>
+      </c>
+      <c r="T293" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I294">
+        <v>3.01</v>
+      </c>
+      <c r="T294">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T295" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U296" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U297">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U298" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T300">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S301">
+        <v>607.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S303" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T304" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T305" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="306" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="U306" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="U307" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="308" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T308" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="309" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="U309" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="310" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="U310" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="311" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T311" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="312" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T312" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="313" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T313" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="315" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="T315" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="316" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S316" t="s">
+        <v>166</v>
+      </c>
+      <c r="T316">
+        <f>SUM(U316:W316)</f>
+        <v>1012</v>
+      </c>
+      <c r="U316">
+        <v>492</v>
+      </c>
+      <c r="V316">
+        <v>232</v>
+      </c>
+      <c r="W316">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="317" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S317" t="s">
+        <v>167</v>
+      </c>
+      <c r="T317">
+        <f>SUM(U317:W317)</f>
+        <v>962</v>
+      </c>
+      <c r="U317">
+        <v>492</v>
+      </c>
+      <c r="V317">
+        <v>232</v>
+      </c>
+      <c r="W317">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="318" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S318" t="s">
+        <v>168</v>
+      </c>
+      <c r="T318">
+        <f>SUM(U318:W318)</f>
+        <v>962</v>
+      </c>
+      <c r="U318">
+        <v>492</v>
+      </c>
+      <c r="V318">
+        <v>232</v>
+      </c>
+      <c r="W318">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="319" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S319" t="s">
+        <v>169</v>
+      </c>
+      <c r="T319">
+        <f>SUM(U319:W319)</f>
+        <v>470</v>
+      </c>
+      <c r="V319">
+        <v>232</v>
+      </c>
+      <c r="W319">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="320" spans="19:23" x14ac:dyDescent="0.2">
+      <c r="S320" t="s">
+        <v>170</v>
+      </c>
+      <c r="T320">
+        <f>SUM(U320:W320)</f>
+        <v>238</v>
+      </c>
+      <c r="W320">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="322" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S322" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="323" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S323" t="s">
+        <v>174</v>
+      </c>
+      <c r="T323" t="s">
+        <v>175</v>
+      </c>
+      <c r="U323" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="324" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="T324" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="325" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="U325" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="326" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="U326" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="327" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="T327">
+        <f>10.85*35*4</f>
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="328" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S328" t="s">
+        <v>167</v>
+      </c>
+      <c r="T328" t="s">
+        <v>179</v>
+      </c>
+      <c r="U328" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="329" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="T329" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="330" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S330" t="s">
+        <v>168</v>
+      </c>
+      <c r="T330" t="s">
+        <v>179</v>
+      </c>
+      <c r="U330" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="331" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="T331" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="332" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S332" t="s">
+        <v>169</v>
+      </c>
+      <c r="T332" t="s">
+        <v>182</v>
+      </c>
+      <c r="U332" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="333" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="T333" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="334" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="T334">
+        <f>14*4*10.85</f>
+        <v>607.6</v>
+      </c>
+    </row>
+    <row r="335" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S335" t="s">
+        <v>183</v>
+      </c>
+      <c r="T335" t="s">
+        <v>190</v>
+      </c>
+      <c r="U335" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="337" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S337" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="338" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S338" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="339" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S339" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="340" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S340" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="341" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S341" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="342" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S342" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
